--- a/Screens/Largest Global MC 2-13-25.xlsx
+++ b/Screens/Largest Global MC 2-13-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\Screens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D03B270-D3C6-479C-BBE5-1CADBDCED177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72E95BA-B24D-4DD5-8786-139EF3F00AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15710" yWindow="2700" windowWidth="21900" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10150" yWindow="4610" windowWidth="25480" windowHeight="13910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4659" uniqueCount="3749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="3749">
   <si>
     <t>Ticker</t>
   </si>
@@ -11833,10 +11833,10 @@
   <dimension ref="A1:J1858"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B192" sqref="B192"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -11867,7 +11867,10 @@
     <row r="2" spans="1:10" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="9">
+        <f>SUM(F4:F1858)</f>
+        <v>103535353338738.39</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -18106,6 +18109,12 @@
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
+      <c r="B192" s="4" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D192" s="7" t="s">
         <v>383</v>
       </c>
@@ -18166,6 +18175,12 @@
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
+      <c r="B194" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>3728</v>
+      </c>
       <c r="D194" s="7" t="s">
         <v>387</v>
       </c>
@@ -18226,6 +18241,12 @@
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
+      <c r="B196" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D196" s="7" t="s">
         <v>391</v>
       </c>
@@ -18319,6 +18340,12 @@
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
+      <c r="B199" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>3728</v>
+      </c>
       <c r="D199" s="7" t="s">
         <v>397</v>
       </c>
@@ -18346,6 +18373,12 @@
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
+      <c r="B200" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D200" s="7" t="s">
         <v>399</v>
       </c>
@@ -18435,6 +18468,12 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
+      <c r="B203" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D203" s="7" t="s">
         <v>405</v>
       </c>
@@ -18594,6 +18633,12 @@
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
+      <c r="B208" s="4" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D208" s="7" t="s">
         <v>415</v>
       </c>
@@ -18751,6 +18796,12 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
+      <c r="B213" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>3728</v>
+      </c>
       <c r="D213" s="7" t="s">
         <v>425</v>
       </c>
@@ -18844,6 +18895,12 @@
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
+      <c r="B216" s="4" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>3733</v>
+      </c>
       <c r="D216" s="7" t="s">
         <v>431</v>
       </c>
@@ -19003,6 +19060,12 @@
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
+      <c r="B221" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D221" s="7" t="s">
         <v>441</v>
       </c>
@@ -19096,6 +19159,12 @@
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
+      <c r="B224" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>3736</v>
+      </c>
       <c r="D224" s="7" t="s">
         <v>447</v>
       </c>
@@ -19189,6 +19258,12 @@
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
+      <c r="B227" s="4" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D227" s="7" t="s">
         <v>453</v>
       </c>
@@ -19309,6 +19384,12 @@
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
+      <c r="B231" s="4" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D231" s="7" t="s">
         <v>461</v>
       </c>
@@ -19433,6 +19514,12 @@
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
+      <c r="B235" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D235" s="7" t="s">
         <v>469</v>
       </c>
@@ -19487,6 +19574,12 @@
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
+      <c r="B237" s="4" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D237" s="7" t="s">
         <v>473</v>
       </c>
@@ -19931,6 +20024,12 @@
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
+      <c r="B251" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D251" s="7" t="s">
         <v>501</v>
       </c>
@@ -20084,6 +20183,12 @@
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
+      <c r="B256" s="4" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>3720</v>
+      </c>
       <c r="D256" s="7" t="s">
         <v>511</v>
       </c>
@@ -20390,6 +20495,12 @@
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
+      <c r="B266" s="4" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D266" s="7" t="s">
         <v>531</v>
       </c>
@@ -20576,6 +20687,12 @@
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
+      <c r="B272" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>3728</v>
+      </c>
       <c r="D272" s="7" t="s">
         <v>543</v>
       </c>
@@ -21893,6 +22010,12 @@
         <f t="shared" si="4"/>
         <v>312</v>
       </c>
+      <c r="B315" s="4" t="s">
+        <v>3744</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>3744</v>
+      </c>
       <c r="D315" s="7" t="s">
         <v>629</v>
       </c>
@@ -22073,6 +22196,12 @@
         <f t="shared" si="4"/>
         <v>318</v>
       </c>
+      <c r="B321" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D321" s="7" t="s">
         <v>641</v>
       </c>
@@ -22251,6 +22380,12 @@
         <f t="shared" si="5"/>
         <v>324</v>
       </c>
+      <c r="B327" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D327" s="7" t="s">
         <v>653</v>
       </c>
@@ -22344,6 +22479,12 @@
         <f t="shared" si="5"/>
         <v>327</v>
       </c>
+      <c r="B330" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D330" s="7" t="s">
         <v>659</v>
       </c>
@@ -22561,6 +22702,12 @@
         <f t="shared" si="5"/>
         <v>334</v>
       </c>
+      <c r="B337" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D337" s="7" t="s">
         <v>673</v>
       </c>
@@ -23056,6 +23203,12 @@
         <f t="shared" si="5"/>
         <v>351</v>
       </c>
+      <c r="B354" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D354" s="7" t="s">
         <v>707</v>
       </c>
@@ -23255,6 +23408,12 @@
         <f t="shared" si="5"/>
         <v>358</v>
       </c>
+      <c r="B361" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D361" s="7" t="s">
         <v>721</v>
       </c>
@@ -23315,6 +23474,12 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
+      <c r="B363" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D363" s="7" t="s">
         <v>725</v>
       </c>
@@ -23342,6 +23507,12 @@
         <f t="shared" si="5"/>
         <v>361</v>
       </c>
+      <c r="B364" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D364" s="7" t="s">
         <v>727</v>
       </c>
@@ -23369,6 +23540,12 @@
         <f t="shared" si="5"/>
         <v>362</v>
       </c>
+      <c r="B365" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D365" s="7" t="s">
         <v>729</v>
       </c>
@@ -23522,6 +23699,12 @@
         <f t="shared" si="5"/>
         <v>367</v>
       </c>
+      <c r="B370" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D370" s="7" t="s">
         <v>739</v>
       </c>
@@ -23706,6 +23889,12 @@
         <f t="shared" si="5"/>
         <v>373</v>
       </c>
+      <c r="B376" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D376" s="7" t="s">
         <v>751</v>
       </c>
@@ -23820,6 +24009,12 @@
         <f t="shared" si="5"/>
         <v>377</v>
       </c>
+      <c r="B380" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D380" s="7" t="s">
         <v>759</v>
       </c>
@@ -23847,6 +24042,12 @@
         <f t="shared" si="5"/>
         <v>378</v>
       </c>
+      <c r="B381" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D381" s="7" t="s">
         <v>761</v>
       </c>
@@ -23901,6 +24102,12 @@
         <f t="shared" si="5"/>
         <v>380</v>
       </c>
+      <c r="B383" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D383" s="7" t="s">
         <v>765</v>
       </c>
@@ -24054,6 +24261,12 @@
         <f t="shared" si="6"/>
         <v>385</v>
       </c>
+      <c r="B388" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D388" s="7" t="s">
         <v>775</v>
       </c>
@@ -24162,6 +24375,12 @@
         <f t="shared" si="6"/>
         <v>389</v>
       </c>
+      <c r="B392" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D392" s="7" t="s">
         <v>783</v>
       </c>
@@ -24334,6 +24553,12 @@
         <f t="shared" si="6"/>
         <v>395</v>
       </c>
+      <c r="B398" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D398" s="7" t="s">
         <v>795</v>
       </c>
@@ -24632,6 +24857,12 @@
         <f t="shared" si="6"/>
         <v>405</v>
       </c>
+      <c r="B408" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D408" s="7" t="s">
         <v>815</v>
       </c>
@@ -24659,6 +24890,12 @@
         <f t="shared" si="6"/>
         <v>406</v>
       </c>
+      <c r="B409" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D409" s="7" t="s">
         <v>817</v>
       </c>
@@ -24856,6 +25093,12 @@
         <f t="shared" si="6"/>
         <v>413</v>
       </c>
+      <c r="B416" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>3728</v>
+      </c>
       <c r="D416" s="7" t="s">
         <v>831</v>
       </c>
@@ -24883,6 +25126,12 @@
         <f t="shared" si="6"/>
         <v>414</v>
       </c>
+      <c r="B417" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C417" s="4" t="s">
+        <v>3728</v>
+      </c>
       <c r="D417" s="7" t="s">
         <v>833</v>
       </c>
@@ -24970,6 +25219,12 @@
         <f t="shared" si="6"/>
         <v>417</v>
       </c>
+      <c r="B420" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C420" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D420" s="7" t="s">
         <v>839</v>
       </c>
@@ -25026,6 +25281,12 @@
         <f t="shared" si="6"/>
         <v>419</v>
       </c>
+      <c r="B422" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>3728</v>
+      </c>
       <c r="D422" s="7" t="s">
         <v>843</v>
       </c>
@@ -25086,6 +25347,12 @@
         <f t="shared" si="6"/>
         <v>421</v>
       </c>
+      <c r="B424" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D424" s="7" t="s">
         <v>847</v>
       </c>
@@ -25305,6 +25572,12 @@
         <f t="shared" si="6"/>
         <v>428</v>
       </c>
+      <c r="B431" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D431" s="7" t="s">
         <v>861</v>
       </c>
@@ -25386,6 +25659,12 @@
         <f t="shared" si="6"/>
         <v>431</v>
       </c>
+      <c r="B434" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C434" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D434" s="7" t="s">
         <v>867</v>
       </c>
@@ -28232,6 +28511,12 @@
         <f t="shared" si="8"/>
         <v>529</v>
       </c>
+      <c r="B532" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C532" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D532" s="7" t="s">
         <v>1063</v>
       </c>
@@ -28551,6 +28836,12 @@
         <f t="shared" si="8"/>
         <v>540</v>
       </c>
+      <c r="B543" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C543" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D543" s="7" t="s">
         <v>1085</v>
       </c>
@@ -28605,6 +28896,12 @@
         <f t="shared" si="8"/>
         <v>542</v>
       </c>
+      <c r="B545" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C545" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D545" s="7" t="s">
         <v>1089</v>
       </c>
@@ -28686,6 +28983,12 @@
         <f t="shared" si="8"/>
         <v>545</v>
       </c>
+      <c r="B548" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C548" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D548" s="7" t="s">
         <v>1095</v>
       </c>
@@ -29168,6 +29471,12 @@
         <f t="shared" si="8"/>
         <v>561</v>
       </c>
+      <c r="B564" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C564" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D564" s="7" t="s">
         <v>1127</v>
       </c>
@@ -29195,6 +29504,12 @@
         <f t="shared" si="8"/>
         <v>562</v>
       </c>
+      <c r="B565" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C565" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D565" s="7" t="s">
         <v>1129</v>
       </c>
@@ -29537,6 +29852,12 @@
         <f t="shared" si="9"/>
         <v>574</v>
       </c>
+      <c r="B577" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C577" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D577" s="7" t="s">
         <v>1153</v>
       </c>
@@ -29999,6 +30320,12 @@
         <f t="shared" si="9"/>
         <v>590</v>
       </c>
+      <c r="B593" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C593" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D593" s="7" t="s">
         <v>1185</v>
       </c>
@@ -30134,6 +30461,12 @@
         <f t="shared" si="9"/>
         <v>595</v>
       </c>
+      <c r="B598" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C598" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D598" s="7" t="s">
         <v>1195</v>
       </c>
@@ -30561,6 +30894,12 @@
         <f t="shared" si="9"/>
         <v>610</v>
       </c>
+      <c r="B613" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C613" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D613" s="7" t="s">
         <v>1225</v>
       </c>
@@ -31017,6 +31356,12 @@
         <f t="shared" si="9"/>
         <v>626</v>
       </c>
+      <c r="B629" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C629" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D629" s="7" t="s">
         <v>1257</v>
       </c>
@@ -31241,6 +31586,12 @@
         <f t="shared" si="10"/>
         <v>634</v>
       </c>
+      <c r="B637" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C637" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D637" s="7" t="s">
         <v>1273</v>
       </c>
@@ -31461,6 +31812,12 @@
         <f t="shared" si="10"/>
         <v>642</v>
       </c>
+      <c r="B645" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C645" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D645" s="7" t="s">
         <v>1289</v>
       </c>
@@ -31708,6 +32065,12 @@
         <f t="shared" si="10"/>
         <v>651</v>
       </c>
+      <c r="B654" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C654" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D654" s="7" t="s">
         <v>1307</v>
       </c>
@@ -31861,6 +32224,12 @@
         <f t="shared" si="10"/>
         <v>656</v>
       </c>
+      <c r="B659" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C659" s="4" t="s">
+        <v>3728</v>
+      </c>
       <c r="D659" s="7" t="s">
         <v>1317</v>
       </c>
@@ -31888,6 +32257,12 @@
         <f t="shared" si="10"/>
         <v>657</v>
       </c>
+      <c r="B660" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C660" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D660" s="7" t="s">
         <v>1319</v>
       </c>
@@ -32353,6 +32728,12 @@
         <f t="shared" si="10"/>
         <v>674</v>
       </c>
+      <c r="B677" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C677" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D677" s="7" t="s">
         <v>1353</v>
       </c>
@@ -32376,6 +32757,12 @@
         <f t="shared" si="10"/>
         <v>675</v>
       </c>
+      <c r="B678" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C678" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D678" s="7" t="s">
         <v>1355</v>
       </c>
@@ -32430,6 +32817,12 @@
         <f t="shared" si="10"/>
         <v>677</v>
       </c>
+      <c r="B680" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C680" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D680" s="7" t="s">
         <v>1359</v>
       </c>
@@ -33475,6 +33868,12 @@
         <f t="shared" si="11"/>
         <v>714</v>
       </c>
+      <c r="B717" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C717" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D717" s="7" t="s">
         <v>1433</v>
       </c>

--- a/Screens/Largest Global MC 2-13-25.xlsx
+++ b/Screens/Largest Global MC 2-13-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\Screens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72E95BA-B24D-4DD5-8786-139EF3F00AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D80679-4211-4569-98B2-ABB76E944C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10150" yWindow="4610" windowWidth="25480" windowHeight="13910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16070" yWindow="1300" windowWidth="21490" windowHeight="10580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="3749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4799" uniqueCount="3749">
   <si>
     <t>Ticker</t>
   </si>
@@ -11833,10 +11833,10 @@
   <dimension ref="A1:J1858"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -19324,6 +19324,12 @@
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
+      <c r="B229" s="4" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>3748</v>
+      </c>
       <c r="D229" s="7" t="s">
         <v>457</v>
       </c>
@@ -19547,6 +19553,12 @@
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
+      <c r="B236" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D236" s="7" t="s">
         <v>471</v>
       </c>
@@ -19640,6 +19652,12 @@
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
+      <c r="B239" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="D239" s="7" t="s">
         <v>477</v>
       </c>
@@ -19997,6 +20015,12 @@
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
+      <c r="B250" s="4" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>3721</v>
+      </c>
       <c r="D250" s="7" t="s">
         <v>499</v>
       </c>

--- a/Screens/Largest Global MC 2-13-25.xlsx
+++ b/Screens/Largest Global MC 2-13-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\Screens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85ED253-795B-4FAE-B472-351E74CDBE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C63323-2EF5-44CD-83E1-13A5043BB553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27705" yWindow="8760" windowWidth="18510" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-49440" yWindow="465" windowWidth="25590" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5005" uniqueCount="3746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5095" uniqueCount="3746">
   <si>
     <t>Ticker</t>
   </si>
@@ -11826,10 +11826,10 @@
   <dimension ref="A1:J1856"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D391" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D518" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B404" sqref="B404"/>
+      <selection pane="bottomRight" activeCell="B529" sqref="B529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -25111,6 +25111,12 @@
         <f t="shared" si="6"/>
         <v>402</v>
       </c>
+      <c r="B405" s="4" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>3734</v>
+      </c>
       <c r="D405" s="7" t="s">
         <v>809</v>
       </c>
@@ -25138,6 +25144,12 @@
         <f t="shared" si="6"/>
         <v>403</v>
       </c>
+      <c r="B406" s="4" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>3717</v>
+      </c>
       <c r="D406" s="7" t="s">
         <v>811</v>
       </c>
@@ -25264,6 +25276,12 @@
         <f t="shared" si="6"/>
         <v>407</v>
       </c>
+      <c r="B410" s="4" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>3735</v>
+      </c>
       <c r="D410" s="7" t="s">
         <v>819</v>
       </c>
@@ -25289,6 +25307,12 @@
         <f t="shared" si="6"/>
         <v>408</v>
       </c>
+      <c r="B411" s="4" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C411" s="4" t="s">
+        <v>3724</v>
+      </c>
       <c r="D411" s="7" t="s">
         <v>821</v>
       </c>
@@ -25314,6 +25338,12 @@
         <f t="shared" si="6"/>
         <v>409</v>
       </c>
+      <c r="B412" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D412" s="7" t="s">
         <v>823</v>
       </c>
@@ -25341,6 +25371,12 @@
         <f t="shared" si="6"/>
         <v>410</v>
       </c>
+      <c r="B413" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D413" s="7" t="s">
         <v>825</v>
       </c>
@@ -25533,6 +25569,12 @@
         <f t="shared" si="6"/>
         <v>416</v>
       </c>
+      <c r="B419" s="4" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C419" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D419" s="7" t="s">
         <v>837</v>
       </c>
@@ -25787,6 +25829,12 @@
         <f t="shared" si="6"/>
         <v>424</v>
       </c>
+      <c r="B427" s="4" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C427" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D427" s="7" t="s">
         <v>853</v>
       </c>
@@ -25946,6 +25994,12 @@
         <f t="shared" si="6"/>
         <v>429</v>
       </c>
+      <c r="B432" s="4" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C432" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D432" s="7" t="s">
         <v>863</v>
       </c>
@@ -25973,6 +26027,12 @@
         <f t="shared" si="6"/>
         <v>430</v>
       </c>
+      <c r="B433" s="4" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C433" s="4" t="s">
+        <v>3724</v>
+      </c>
       <c r="D433" s="7" t="s">
         <v>865</v>
       </c>
@@ -26033,6 +26093,12 @@
         <f t="shared" si="6"/>
         <v>432</v>
       </c>
+      <c r="B435" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C435" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D435" s="7" t="s">
         <v>869</v>
       </c>
@@ -26060,6 +26126,12 @@
         <f t="shared" si="6"/>
         <v>433</v>
       </c>
+      <c r="B436" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>3729</v>
+      </c>
       <c r="D436" s="7" t="s">
         <v>871</v>
       </c>
@@ -26087,6 +26159,12 @@
         <f t="shared" si="6"/>
         <v>434</v>
       </c>
+      <c r="B437" s="4" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C437" s="4" t="s">
+        <v>3727</v>
+      </c>
       <c r="D437" s="7" t="s">
         <v>873</v>
       </c>
@@ -26114,6 +26192,12 @@
         <f t="shared" si="6"/>
         <v>435</v>
       </c>
+      <c r="B438" s="4" t="s">
+        <v>3740</v>
+      </c>
+      <c r="C438" s="4" t="s">
+        <v>3741</v>
+      </c>
       <c r="D438" s="7" t="s">
         <v>875</v>
       </c>
@@ -26207,6 +26291,12 @@
         <f t="shared" si="6"/>
         <v>438</v>
       </c>
+      <c r="B441" s="4" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C441" s="4" t="s">
+        <v>3734</v>
+      </c>
       <c r="D441" s="7" t="s">
         <v>881</v>
       </c>
@@ -26630,6 +26720,12 @@
         <f t="shared" si="7"/>
         <v>451</v>
       </c>
+      <c r="B454" s="4" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C454" s="4" t="s">
+        <v>3717</v>
+      </c>
       <c r="D454" s="7" t="s">
         <v>907</v>
       </c>
@@ -26723,6 +26819,12 @@
         <f t="shared" si="7"/>
         <v>454</v>
       </c>
+      <c r="B457" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>3729</v>
+      </c>
       <c r="D457" s="7" t="s">
         <v>913</v>
       </c>
@@ -26816,6 +26918,12 @@
         <f t="shared" si="7"/>
         <v>457</v>
       </c>
+      <c r="B460" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C460" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D460" s="7" t="s">
         <v>919</v>
       </c>
@@ -26876,6 +26984,12 @@
         <f t="shared" si="7"/>
         <v>459</v>
       </c>
+      <c r="B462" s="4" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C462" s="4" t="s">
+        <v>3722</v>
+      </c>
       <c r="D462" s="7" t="s">
         <v>923</v>
       </c>
@@ -26936,6 +27050,12 @@
         <f t="shared" si="7"/>
         <v>461</v>
       </c>
+      <c r="B464" s="4" t="s">
+        <v>3740</v>
+      </c>
+      <c r="C464" s="4" t="s">
+        <v>3740</v>
+      </c>
       <c r="D464" s="7" t="s">
         <v>927</v>
       </c>
@@ -27095,6 +27215,12 @@
         <f t="shared" si="7"/>
         <v>466</v>
       </c>
+      <c r="B469" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="C469" s="4" t="s">
+        <v>3731</v>
+      </c>
       <c r="D469" s="7" t="s">
         <v>937</v>
       </c>
@@ -27155,6 +27281,12 @@
         <f t="shared" si="7"/>
         <v>468</v>
       </c>
+      <c r="B471" s="4" t="s">
+        <v>3740</v>
+      </c>
+      <c r="C471" s="4" t="s">
+        <v>3740</v>
+      </c>
       <c r="D471" s="7" t="s">
         <v>941</v>
       </c>
@@ -27215,6 +27347,12 @@
         <f t="shared" si="7"/>
         <v>470</v>
       </c>
+      <c r="B473" s="4" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C473" s="4" t="s">
+        <v>3736</v>
+      </c>
       <c r="D473" s="7" t="s">
         <v>945</v>
       </c>
@@ -27440,6 +27578,12 @@
         <f t="shared" si="7"/>
         <v>477</v>
       </c>
+      <c r="B480" s="4" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C480" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D480" s="7" t="s">
         <v>959</v>
       </c>
@@ -27500,6 +27644,12 @@
         <f t="shared" si="7"/>
         <v>479</v>
       </c>
+      <c r="B482" s="4" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>3722</v>
+      </c>
       <c r="D482" s="7" t="s">
         <v>963</v>
       </c>
@@ -27626,6 +27776,12 @@
         <f t="shared" si="7"/>
         <v>483</v>
       </c>
+      <c r="B486" s="4" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C486" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D486" s="7" t="s">
         <v>971</v>
       </c>
@@ -27946,6 +28102,12 @@
         <f t="shared" si="7"/>
         <v>493</v>
       </c>
+      <c r="B496" s="4" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>3717</v>
+      </c>
       <c r="D496" s="7" t="s">
         <v>991</v>
       </c>
@@ -28006,6 +28168,12 @@
         <f t="shared" si="7"/>
         <v>495</v>
       </c>
+      <c r="B498" s="4" t="s">
+        <v>3740</v>
+      </c>
+      <c r="C498" s="4" t="s">
+        <v>3740</v>
+      </c>
       <c r="D498" s="7" t="s">
         <v>995</v>
       </c>
@@ -28033,6 +28201,12 @@
         <f t="shared" si="7"/>
         <v>496</v>
       </c>
+      <c r="B499" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D499" s="7" t="s">
         <v>997</v>
       </c>
@@ -28093,6 +28267,12 @@
         <f t="shared" si="7"/>
         <v>498</v>
       </c>
+      <c r="B501" s="4" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C501" s="4" t="s">
+        <v>3736</v>
+      </c>
       <c r="D501" s="7" t="s">
         <v>1001</v>
       </c>
@@ -28118,6 +28298,12 @@
         <f t="shared" si="7"/>
         <v>499</v>
       </c>
+      <c r="B502" s="4" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>3716</v>
+      </c>
       <c r="D502" s="7" t="s">
         <v>1003</v>
       </c>
@@ -28145,6 +28331,12 @@
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
+      <c r="B503" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C503" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D503" s="7" t="s">
         <v>1005</v>
       </c>
@@ -28370,6 +28562,12 @@
         <f t="shared" si="7"/>
         <v>507</v>
       </c>
+      <c r="B510" s="4" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C510" s="4" t="s">
+        <v>3724</v>
+      </c>
       <c r="D510" s="7" t="s">
         <v>1019</v>
       </c>
@@ -28430,6 +28628,12 @@
         <f t="shared" si="7"/>
         <v>509</v>
       </c>
+      <c r="B512" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="C512" s="4" t="s">
+        <v>3738</v>
+      </c>
       <c r="D512" s="7" t="s">
         <v>1023</v>
       </c>
@@ -28455,6 +28659,12 @@
         <f t="shared" ref="A513:A573" si="8">+A512+1</f>
         <v>510</v>
       </c>
+      <c r="B513" s="4" t="s">
+        <v>3740</v>
+      </c>
+      <c r="C513" s="4" t="s">
+        <v>3740</v>
+      </c>
       <c r="D513" s="7" t="s">
         <v>1025</v>
       </c>
@@ -28482,6 +28692,12 @@
         <f t="shared" si="8"/>
         <v>511</v>
       </c>
+      <c r="B514" s="4" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C514" s="4" t="s">
+        <v>3722</v>
+      </c>
       <c r="D514" s="7" t="s">
         <v>1027</v>
       </c>
@@ -28575,6 +28791,12 @@
         <f t="shared" si="8"/>
         <v>514</v>
       </c>
+      <c r="B517" s="4" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C517" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D517" s="7" t="s">
         <v>1033</v>
       </c>
@@ -28602,6 +28824,12 @@
         <f t="shared" si="8"/>
         <v>515</v>
       </c>
+      <c r="B518" s="4" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C518" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D518" s="7" t="s">
         <v>1035</v>
       </c>
@@ -28629,6 +28857,12 @@
         <f t="shared" si="8"/>
         <v>516</v>
       </c>
+      <c r="B519" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C519" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D519" s="7" t="s">
         <v>1037</v>
       </c>
@@ -28656,6 +28890,12 @@
         <f t="shared" si="8"/>
         <v>517</v>
       </c>
+      <c r="B520" s="4" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C520" s="4" t="s">
+        <v>3732</v>
+      </c>
       <c r="D520" s="7" t="s">
         <v>1039</v>
       </c>
@@ -28683,6 +28923,12 @@
         <f t="shared" si="8"/>
         <v>518</v>
       </c>
+      <c r="B521" s="4" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C521" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D521" s="7" t="s">
         <v>1041</v>
       </c>
@@ -28708,6 +28954,12 @@
         <f t="shared" si="8"/>
         <v>519</v>
       </c>
+      <c r="B522" s="4" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C522" s="4" t="s">
+        <v>3727</v>
+      </c>
       <c r="D522" s="7" t="s">
         <v>1043</v>
       </c>
@@ -28735,6 +28987,12 @@
         <f t="shared" si="8"/>
         <v>520</v>
       </c>
+      <c r="B523" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C523" s="4" t="s">
+        <v>3729</v>
+      </c>
       <c r="D523" s="7" t="s">
         <v>1045</v>
       </c>
@@ -28828,6 +29086,12 @@
         <f t="shared" si="8"/>
         <v>523</v>
       </c>
+      <c r="B526" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C526" s="4" t="s">
+        <v>3719</v>
+      </c>
       <c r="D526" s="7" t="s">
         <v>1051</v>
       </c>
@@ -28888,6 +29152,12 @@
         <f t="shared" si="8"/>
         <v>525</v>
       </c>
+      <c r="B528" s="4" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C528" s="4" t="s">
+        <v>3716</v>
+      </c>
       <c r="D528" s="7" t="s">
         <v>1055</v>
       </c>

--- a/Screens/Largest Global MC 2-13-25.xlsx
+++ b/Screens/Largest Global MC 2-13-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\Screens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E71576-8369-40A6-B6B9-0873D42EA673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502E2EA2-6A9A-4142-80DA-52658293EDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21525" yWindow="2160" windowWidth="21045" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27840" yWindow="765" windowWidth="27150" windowHeight="18675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -11813,11 +11813,11 @@
   </sheetPr>
   <dimension ref="A1:R1545"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D454" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B465" sqref="B465"/>
+      <selection pane="bottomRight" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12169,7 +12169,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f>+A10+1</f>
+        <f t="shared" ref="A11:A22" si="0">+A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -12207,7 +12207,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f>+A11+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -12243,7 +12243,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f>+A12+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -12280,7 +12280,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f>+A13+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -12318,7 +12318,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f>+A14+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -12356,7 +12356,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f>+A15+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -12394,7 +12394,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f>+A16+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -12432,7 +12432,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f>+A17+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -12467,7 +12467,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f>+A18+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -12505,7 +12505,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f>+A19+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -12543,7 +12543,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f>+A20+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -12581,7 +12581,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f>+A21+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -12956,7 +12956,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <f>+A31+1</f>
+        <f t="shared" ref="A32:A37" si="1">+A31+1</f>
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -12991,7 +12991,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <f>+A32+1</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -13026,7 +13026,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <f>+A33+1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -13064,7 +13064,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <f>+A34+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -13102,7 +13102,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f>+A35+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -13137,7 +13137,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <f>+A36+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -13392,7 +13392,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <f>+A43+1</f>
+        <f t="shared" ref="A44:A57" si="2">+A43+1</f>
         <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -13427,7 +13427,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <f>+A44+1</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -13465,7 +13465,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <f>+A45+1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -13502,7 +13502,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <f>+A46+1</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -13539,7 +13539,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <f>+A47+1</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -13577,7 +13577,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <f>+A48+1</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -13612,7 +13612,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <f>+A49+1</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -13650,7 +13650,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <f>+A50+1</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -13686,7 +13686,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <f>+A51+1</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -13722,7 +13722,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <f>+A52+1</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -13758,7 +13758,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <f>+A53+1</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -13793,7 +13793,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <f>+A54+1</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -13802,7 +13802,7 @@
       <c r="C55" s="1" t="s">
         <v>3695</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="11" t="s">
         <v>122</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -13829,7 +13829,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <f>+A55+1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -13868,7 +13868,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <f>+A56+1</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -14133,7 +14133,7 @@
       <c r="C64" s="1" t="s">
         <v>3710</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="11" t="s">
         <v>148</v>
       </c>
       <c r="E64" s="4" t="s">
@@ -14154,6 +14154,9 @@
       </c>
       <c r="K64" s="6">
         <v>91853998080</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1919</v>
       </c>
       <c r="M64" s="19"/>
       <c r="O64" s="20"/>
@@ -14231,7 +14234,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <f>+A66+1</f>
+        <f t="shared" ref="A67:A72" si="3">+A66+1</f>
         <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -14266,7 +14269,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <f>+A67+1</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -14302,7 +14305,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <f>+A68+1</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -14337,7 +14340,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <f>+A69+1</f>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -14373,7 +14376,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <f>+A70+1</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -14409,7 +14412,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <f>+A71+1</f>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -14587,7 +14590,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <f>+A76+1</f>
+        <f t="shared" ref="A77:A89" si="4">+A76+1</f>
         <v>88</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -14623,7 +14626,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <f>+A77+1</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -14659,7 +14662,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <f>+A78+1</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -14695,7 +14698,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <f>+A79+1</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -14731,7 +14734,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <f>+A80+1</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -14767,7 +14770,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <f>+A81+1</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -14803,7 +14806,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <f>+A82+1</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -14839,7 +14842,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <f>+A83+1</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -14875,7 +14878,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <f>+A84+1</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -14910,7 +14913,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <f>+A85+1</f>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -14945,7 +14948,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <f>+A86+1</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -14981,7 +14984,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <f>+A87+1</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -15016,7 +15019,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <f>+A88+1</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -15615,7 +15618,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <f>+A105+1</f>
+        <f t="shared" ref="A106:A112" si="5">+A105+1</f>
         <v>123</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -15649,7 +15652,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <f>+A106+1</f>
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -15683,7 +15686,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <f>+A107+1</f>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -15717,7 +15720,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <f>+A108+1</f>
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -15751,7 +15754,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <f>+A109+1</f>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -15785,7 +15788,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <f>+A110+1</f>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -15819,7 +15822,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <f>+A111+1</f>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -16125,7 +16128,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <f>+A120+1</f>
+        <f t="shared" ref="A121:A127" si="6">+A120+1</f>
         <v>141</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -16159,7 +16162,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <f>+A121+1</f>
+        <f t="shared" si="6"/>
         <v>142</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -16193,7 +16196,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <f>+A122+1</f>
+        <f t="shared" si="6"/>
         <v>143</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -16227,7 +16230,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <f>+A123+1</f>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -16261,7 +16264,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <f>+A124+1</f>
+        <f t="shared" si="6"/>
         <v>145</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -16295,7 +16298,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <f>+A125+1</f>
+        <f t="shared" si="6"/>
         <v>146</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -16329,7 +16332,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <f>+A126+1</f>
+        <f t="shared" si="6"/>
         <v>147</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -16431,7 +16434,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <f>+A129+1</f>
+        <f t="shared" ref="A130:A135" si="7">+A129+1</f>
         <v>153</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -16465,7 +16468,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <f>+A130+1</f>
+        <f t="shared" si="7"/>
         <v>154</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -16499,7 +16502,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <f>+A131+1</f>
+        <f t="shared" si="7"/>
         <v>155</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -16533,7 +16536,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <f>+A132+1</f>
+        <f t="shared" si="7"/>
         <v>156</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -16567,7 +16570,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <f>+A133+1</f>
+        <f t="shared" si="7"/>
         <v>157</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -16601,7 +16604,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <f>+A134+1</f>
+        <f t="shared" si="7"/>
         <v>158</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -16669,7 +16672,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <f>+A136+1</f>
+        <f t="shared" ref="A137:A142" si="8">+A136+1</f>
         <v>161</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -16703,7 +16706,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <f>+A137+1</f>
+        <f t="shared" si="8"/>
         <v>162</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -16737,7 +16740,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <f>+A138+1</f>
+        <f t="shared" si="8"/>
         <v>163</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -16771,7 +16774,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <f>+A139+1</f>
+        <f t="shared" si="8"/>
         <v>164</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -16802,7 +16805,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <f>+A140+1</f>
+        <f t="shared" si="8"/>
         <v>165</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -16836,7 +16839,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <f>+A141+1</f>
+        <f t="shared" si="8"/>
         <v>166</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -17516,7 +17519,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <f>+A161+1</f>
+        <f t="shared" ref="A162:A167" si="9">+A161+1</f>
         <v>202</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -17550,7 +17553,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <f>+A162+1</f>
+        <f t="shared" si="9"/>
         <v>203</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -17584,7 +17587,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <f>+A163+1</f>
+        <f t="shared" si="9"/>
         <v>204</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -17618,7 +17621,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <f>+A164+1</f>
+        <f t="shared" si="9"/>
         <v>205</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -17652,7 +17655,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <f>+A165+1</f>
+        <f t="shared" si="9"/>
         <v>206</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -17686,7 +17689,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <f>+A166+1</f>
+        <f t="shared" si="9"/>
         <v>207</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -17785,7 +17788,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <f>+A169+1</f>
+        <f t="shared" ref="A170:A175" si="10">+A169+1</f>
         <v>212</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -17819,7 +17822,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <f>+A170+1</f>
+        <f t="shared" si="10"/>
         <v>213</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -17853,7 +17856,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <f>+A171+1</f>
+        <f t="shared" si="10"/>
         <v>214</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -17887,7 +17890,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <f>+A172+1</f>
+        <f t="shared" si="10"/>
         <v>215</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -17921,7 +17924,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <f>+A173+1</f>
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -17955,7 +17958,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <f>+A174+1</f>
+        <f t="shared" si="10"/>
         <v>217</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -18091,7 +18094,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <f>+A178+1</f>
+        <f t="shared" ref="A179:A185" si="11">+A178+1</f>
         <v>225</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -18125,7 +18128,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <f>+A179+1</f>
+        <f t="shared" si="11"/>
         <v>226</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -18159,7 +18162,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <f>+A180+1</f>
+        <f t="shared" si="11"/>
         <v>227</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -18193,7 +18196,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <f>+A181+1</f>
+        <f t="shared" si="11"/>
         <v>228</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -18227,7 +18230,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <f>+A182+1</f>
+        <f t="shared" si="11"/>
         <v>229</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -18261,7 +18264,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <f>+A183+1</f>
+        <f t="shared" si="11"/>
         <v>230</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -18295,7 +18298,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <f>+A184+1</f>
+        <f t="shared" si="11"/>
         <v>231</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -18598,7 +18601,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <f>+A193+1</f>
+        <f t="shared" ref="A194:A201" si="12">+A193+1</f>
         <v>244</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -18632,7 +18635,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <f>+A194+1</f>
+        <f t="shared" si="12"/>
         <v>245</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -18666,7 +18669,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <f>+A195+1</f>
+        <f t="shared" si="12"/>
         <v>246</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -18700,7 +18703,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <f>+A196+1</f>
+        <f t="shared" si="12"/>
         <v>247</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -18734,7 +18737,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <f>+A197+1</f>
+        <f t="shared" si="12"/>
         <v>248</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -18768,7 +18771,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <f>+A198+1</f>
+        <f t="shared" si="12"/>
         <v>249</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -18802,7 +18805,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <f>+A199+1</f>
+        <f t="shared" si="12"/>
         <v>250</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -18836,7 +18839,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <f>+A200+1</f>
+        <f t="shared" si="12"/>
         <v>251</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -20060,7 +20063,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <f>+A236+1</f>
+        <f t="shared" ref="A237:A242" si="13">+A236+1</f>
         <v>308</v>
       </c>
       <c r="B237" s="1" t="s">
@@ -20094,7 +20097,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <f>+A237+1</f>
+        <f t="shared" si="13"/>
         <v>309</v>
       </c>
       <c r="B238" s="1" t="s">
@@ -20128,7 +20131,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <f>+A238+1</f>
+        <f t="shared" si="13"/>
         <v>310</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -20162,7 +20165,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <f>+A239+1</f>
+        <f t="shared" si="13"/>
         <v>311</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -20196,7 +20199,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <f>+A240+1</f>
+        <f t="shared" si="13"/>
         <v>312</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -20230,7 +20233,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <f>+A241+1</f>
+        <f t="shared" si="13"/>
         <v>313</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -21949,7 +21952,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <f>+A292+1</f>
+        <f t="shared" ref="A293:A300" si="14">+A292+1</f>
         <v>397</v>
       </c>
       <c r="B293" s="1" t="s">
@@ -21983,7 +21986,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <f>+A293+1</f>
+        <f t="shared" si="14"/>
         <v>398</v>
       </c>
       <c r="B294" s="1" t="s">
@@ -22017,7 +22020,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <f>+A294+1</f>
+        <f t="shared" si="14"/>
         <v>399</v>
       </c>
       <c r="B295" s="1" t="s">
@@ -22051,7 +22054,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <f>+A295+1</f>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="B296" s="1" t="s">
@@ -22082,7 +22085,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <f>+A296+1</f>
+        <f t="shared" si="14"/>
         <v>401</v>
       </c>
       <c r="B297" s="1" t="s">
@@ -22116,7 +22119,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <f>+A297+1</f>
+        <f t="shared" si="14"/>
         <v>402</v>
       </c>
       <c r="B298" s="1" t="s">
@@ -22150,7 +22153,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <f>+A298+1</f>
+        <f t="shared" si="14"/>
         <v>403</v>
       </c>
       <c r="B299" s="1" t="s">
@@ -22184,7 +22187,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <f>+A299+1</f>
+        <f t="shared" si="14"/>
         <v>404</v>
       </c>
       <c r="B300" s="1" t="s">
@@ -24246,7 +24249,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <f>+A360+1</f>
+        <f t="shared" ref="A361:A367" si="15">+A360+1</f>
         <v>496</v>
       </c>
       <c r="B361" s="1" t="s">
@@ -24280,7 +24283,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <f>+A361+1</f>
+        <f t="shared" si="15"/>
         <v>497</v>
       </c>
       <c r="B362" s="1" t="s">
@@ -24314,7 +24317,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <f>+A362+1</f>
+        <f t="shared" si="15"/>
         <v>498</v>
       </c>
       <c r="B363" s="1" t="s">
@@ -24345,7 +24348,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <f>+A363+1</f>
+        <f t="shared" si="15"/>
         <v>499</v>
       </c>
       <c r="B364" s="1" t="s">
@@ -24379,7 +24382,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <f>+A364+1</f>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="B365" s="1" t="s">
@@ -24413,7 +24416,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <f>+A365+1</f>
+        <f t="shared" si="15"/>
         <v>501</v>
       </c>
       <c r="B366" s="1" t="s">
@@ -24447,7 +24450,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <f>+A366+1</f>
+        <f t="shared" si="15"/>
         <v>502</v>
       </c>
       <c r="B367" s="1" t="s">
@@ -25124,7 +25127,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <f>+A386+1</f>
+        <f t="shared" ref="A387:A392" si="16">+A386+1</f>
         <v>532</v>
       </c>
       <c r="B387" s="1" t="s">
@@ -25155,7 +25158,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <f>+A387+1</f>
+        <f t="shared" si="16"/>
         <v>533</v>
       </c>
       <c r="B388" s="1" t="s">
@@ -25189,7 +25192,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <f>+A388+1</f>
+        <f t="shared" si="16"/>
         <v>534</v>
       </c>
       <c r="B389" s="1" t="s">
@@ -25223,7 +25226,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <f>+A389+1</f>
+        <f t="shared" si="16"/>
         <v>535</v>
       </c>
       <c r="B390" s="1" t="s">
@@ -25257,7 +25260,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <f>+A390+1</f>
+        <f t="shared" si="16"/>
         <v>536</v>
       </c>
       <c r="B391" s="1" t="s">
@@ -25291,7 +25294,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <f>+A391+1</f>
+        <f t="shared" si="16"/>
         <v>537</v>
       </c>
       <c r="B392" s="1" t="s">
@@ -25495,7 +25498,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <f>+A397+1</f>
+        <f t="shared" ref="A398:A411" si="17">+A397+1</f>
         <v>547</v>
       </c>
       <c r="B398" s="1" t="s">
@@ -25529,7 +25532,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <f>+A398+1</f>
+        <f t="shared" si="17"/>
         <v>548</v>
       </c>
       <c r="B399" s="1" t="s">
@@ -25563,7 +25566,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <f>+A399+1</f>
+        <f t="shared" si="17"/>
         <v>549</v>
       </c>
       <c r="B400" s="1" t="s">
@@ -25597,7 +25600,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <f>+A400+1</f>
+        <f t="shared" si="17"/>
         <v>550</v>
       </c>
       <c r="B401" s="1" t="s">
@@ -25631,7 +25634,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <f>+A401+1</f>
+        <f t="shared" si="17"/>
         <v>551</v>
       </c>
       <c r="B402" s="1" t="s">
@@ -25665,7 +25668,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <f>+A402+1</f>
+        <f t="shared" si="17"/>
         <v>552</v>
       </c>
       <c r="B403" s="1" t="s">
@@ -25699,7 +25702,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <f>+A403+1</f>
+        <f t="shared" si="17"/>
         <v>553</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -25730,7 +25733,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <f>+A404+1</f>
+        <f t="shared" si="17"/>
         <v>554</v>
       </c>
       <c r="B405" s="1" t="s">
@@ -25764,7 +25767,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <f>+A405+1</f>
+        <f t="shared" si="17"/>
         <v>555</v>
       </c>
       <c r="B406" s="1" t="s">
@@ -25798,7 +25801,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <f>+A406+1</f>
+        <f t="shared" si="17"/>
         <v>556</v>
       </c>
       <c r="B407" s="1" t="s">
@@ -25832,7 +25835,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <f>+A407+1</f>
+        <f t="shared" si="17"/>
         <v>557</v>
       </c>
       <c r="B408" s="1" t="s">
@@ -25863,7 +25866,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <f>+A408+1</f>
+        <f t="shared" si="17"/>
         <v>558</v>
       </c>
       <c r="B409" s="1" t="s">
@@ -25897,7 +25900,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <f>+A409+1</f>
+        <f t="shared" si="17"/>
         <v>559</v>
       </c>
       <c r="B410" s="1" t="s">
@@ -25931,7 +25934,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <f>+A410+1</f>
+        <f t="shared" si="17"/>
         <v>560</v>
       </c>
       <c r="B411" s="1" t="s">
@@ -26228,7 +26231,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <f>+A419+1</f>
+        <f t="shared" ref="A420:A429" si="18">+A419+1</f>
         <v>580</v>
       </c>
       <c r="B420" s="1" t="s">
@@ -26262,7 +26265,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <f>+A420+1</f>
+        <f t="shared" si="18"/>
         <v>581</v>
       </c>
       <c r="B421" s="1" t="s">
@@ -26296,7 +26299,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <f>+A421+1</f>
+        <f t="shared" si="18"/>
         <v>582</v>
       </c>
       <c r="B422" s="1" t="s">
@@ -26330,7 +26333,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <f>+A422+1</f>
+        <f t="shared" si="18"/>
         <v>583</v>
       </c>
       <c r="B423" s="1" t="s">
@@ -26364,7 +26367,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <f>+A423+1</f>
+        <f t="shared" si="18"/>
         <v>584</v>
       </c>
       <c r="B424" s="1" t="s">
@@ -26398,7 +26401,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <f>+A424+1</f>
+        <f t="shared" si="18"/>
         <v>585</v>
       </c>
       <c r="B425" s="1" t="s">
@@ -26432,7 +26435,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <f>+A425+1</f>
+        <f t="shared" si="18"/>
         <v>586</v>
       </c>
       <c r="B426" s="1" t="s">
@@ -26466,7 +26469,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <f>+A426+1</f>
+        <f t="shared" si="18"/>
         <v>587</v>
       </c>
       <c r="B427" s="1" t="s">
@@ -26500,7 +26503,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <f>+A427+1</f>
+        <f t="shared" si="18"/>
         <v>588</v>
       </c>
       <c r="B428" s="1" t="s">
@@ -26534,7 +26537,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <f>+A428+1</f>
+        <f t="shared" si="18"/>
         <v>589</v>
       </c>
       <c r="B429" s="1" t="s">
@@ -27007,7 +27010,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <f>+A442+1</f>
+        <f t="shared" ref="A443:A449" si="19">+A442+1</f>
         <v>612</v>
       </c>
       <c r="B443" s="1" t="s">
@@ -27041,7 +27044,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <f>+A443+1</f>
+        <f t="shared" si="19"/>
         <v>613</v>
       </c>
       <c r="B444" s="1" t="s">
@@ -27075,7 +27078,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <f>+A444+1</f>
+        <f t="shared" si="19"/>
         <v>614</v>
       </c>
       <c r="B445" s="1" t="s">
@@ -27109,7 +27112,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <f>+A445+1</f>
+        <f t="shared" si="19"/>
         <v>615</v>
       </c>
       <c r="B446" s="1" t="s">
@@ -27143,7 +27146,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <f>+A446+1</f>
+        <f t="shared" si="19"/>
         <v>616</v>
       </c>
       <c r="B447" s="1" t="s">
@@ -27177,7 +27180,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <f>+A447+1</f>
+        <f t="shared" si="19"/>
         <v>617</v>
       </c>
       <c r="B448" s="1" t="s">
@@ -27211,7 +27214,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <f>+A448+1</f>
+        <f t="shared" si="19"/>
         <v>618</v>
       </c>
       <c r="B449" s="1" t="s">
@@ -27780,7 +27783,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <f t="shared" ref="A466:A472" si="0">+A465+1</f>
+        <f t="shared" ref="A466:A472" si="20">+A465+1</f>
         <v>643</v>
       </c>
       <c r="D466" s="4" t="s">
@@ -27808,7 +27811,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>644</v>
       </c>
       <c r="D467" s="4" t="s">
@@ -27836,7 +27839,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>645</v>
       </c>
       <c r="D468" s="4" t="s">
@@ -27864,7 +27867,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>646</v>
       </c>
       <c r="D469" s="4" t="s">
@@ -27892,7 +27895,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>647</v>
       </c>
       <c r="D470" s="4" t="s">
@@ -27920,7 +27923,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>648</v>
       </c>
       <c r="D471" s="4" t="s">
@@ -27948,7 +27951,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>649</v>
       </c>
       <c r="B472" s="1" t="s">
@@ -28140,7 +28143,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <f t="shared" ref="A478:A488" si="1">+A477+1</f>
+        <f t="shared" ref="A478:A488" si="21">+A477+1</f>
         <v>658</v>
       </c>
       <c r="B478" s="1" t="s">
@@ -28174,7 +28177,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v>659</v>
       </c>
       <c r="D479" s="4" t="s">
@@ -28202,7 +28205,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v>660</v>
       </c>
       <c r="D480" s="4" t="s">
@@ -28230,7 +28233,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v>661</v>
       </c>
       <c r="D481" s="4" t="s">
@@ -28258,7 +28261,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v>662</v>
       </c>
       <c r="D482" s="4" t="s">
@@ -28286,7 +28289,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v>663</v>
       </c>
       <c r="D483" s="4" t="s">
@@ -28311,7 +28314,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v>664</v>
       </c>
       <c r="D484" s="4" t="s">
@@ -28339,7 +28342,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v>665</v>
       </c>
       <c r="B485" s="1" t="s">
@@ -28373,7 +28376,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v>666</v>
       </c>
       <c r="B486" s="1" t="s">
@@ -28407,7 +28410,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v>667</v>
       </c>
       <c r="D487" s="4" t="s">
@@ -28435,7 +28438,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v>668</v>
       </c>
       <c r="D488" s="4" t="s">
@@ -28575,7 +28578,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <f t="shared" ref="A493:A502" si="2">+A492+1</f>
+        <f t="shared" ref="A493:A502" si="22">+A492+1</f>
         <v>677</v>
       </c>
       <c r="B493" s="1" t="s">
@@ -28609,7 +28612,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>678</v>
       </c>
       <c r="D494" s="4" t="s">
@@ -28637,7 +28640,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>679</v>
       </c>
       <c r="D495" s="4" t="s">
@@ -28665,7 +28668,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>680</v>
       </c>
       <c r="D496" s="4" t="s">
@@ -28693,7 +28696,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>681</v>
       </c>
       <c r="D497" s="4" t="s">
@@ -28721,7 +28724,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>682</v>
       </c>
       <c r="B498" s="1" t="s">
@@ -28755,7 +28758,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>683</v>
       </c>
       <c r="D499" s="4" t="s">
@@ -28783,7 +28786,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>684</v>
       </c>
       <c r="D500" s="4" t="s">
@@ -28811,7 +28814,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>685</v>
       </c>
       <c r="D501" s="4" t="s">
@@ -28839,7 +28842,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>686</v>
       </c>
       <c r="D502" s="4" t="s">
@@ -28892,7 +28895,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <f t="shared" ref="A504:A512" si="3">+A503+1</f>
+        <f t="shared" ref="A504:A512" si="23">+A503+1</f>
         <v>689</v>
       </c>
       <c r="D504" s="4" t="s">
@@ -28920,7 +28923,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>690</v>
       </c>
       <c r="B505" s="1" t="s">
@@ -28954,7 +28957,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>691</v>
       </c>
       <c r="D506" s="4" t="s">
@@ -28982,7 +28985,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>692</v>
       </c>
       <c r="D507" s="4" t="s">
@@ -29010,7 +29013,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>693</v>
       </c>
       <c r="D508" s="4" t="s">
@@ -29038,7 +29041,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>694</v>
       </c>
       <c r="D509" s="4" t="s">
@@ -29066,7 +29069,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>695</v>
       </c>
       <c r="D510" s="4" t="s">
@@ -29094,7 +29097,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>696</v>
       </c>
       <c r="D511" s="4" t="s">
@@ -29122,7 +29125,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>697</v>
       </c>
       <c r="D512" s="4" t="s">
@@ -29184,7 +29187,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <f t="shared" ref="A514:A521" si="4">+A513+1</f>
+        <f t="shared" ref="A514:A521" si="24">+A513+1</f>
         <v>700</v>
       </c>
       <c r="D514" s="4" t="s">
@@ -29212,7 +29215,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>701</v>
       </c>
       <c r="B515" s="1" t="s">
@@ -29246,7 +29249,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>702</v>
       </c>
       <c r="D516" s="4" t="s">
@@ -29274,7 +29277,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>703</v>
       </c>
       <c r="B517" s="1" t="s">
@@ -29308,7 +29311,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>704</v>
       </c>
       <c r="D518" s="4" t="s">
@@ -29336,7 +29339,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>705</v>
       </c>
       <c r="B519" s="1" t="s">
@@ -29370,7 +29373,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>706</v>
       </c>
       <c r="D520" s="4" t="s">
@@ -29398,7 +29401,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>707</v>
       </c>
       <c r="B521" s="1" t="s">
@@ -29690,7 +29693,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <f t="shared" ref="A531:A539" si="5">+A530+1</f>
+        <f t="shared" ref="A531:A539" si="25">+A530+1</f>
         <v>725</v>
       </c>
       <c r="D531" s="4" t="s">
@@ -29718,7 +29721,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>726</v>
       </c>
       <c r="B532" s="1" t="s">
@@ -29752,7 +29755,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>727</v>
       </c>
       <c r="D533" s="4" t="s">
@@ -29780,7 +29783,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>728</v>
       </c>
       <c r="B534" s="1" t="s">
@@ -29814,7 +29817,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>729</v>
       </c>
       <c r="D535" s="4" t="s">
@@ -29836,7 +29839,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>730</v>
       </c>
       <c r="D536" s="4" t="s">
@@ -29864,7 +29867,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>731</v>
       </c>
       <c r="D537" s="4" t="s">
@@ -29892,7 +29895,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>732</v>
       </c>
       <c r="B538" s="1" t="s">
@@ -29923,7 +29926,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>733</v>
       </c>
       <c r="D539" s="4" t="s">
@@ -29979,7 +29982,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <f t="shared" ref="A541:A549" si="6">+A540+1</f>
+        <f t="shared" ref="A541:A549" si="26">+A540+1</f>
         <v>737</v>
       </c>
       <c r="D541" s="4" t="s">
@@ -30007,7 +30010,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>738</v>
       </c>
       <c r="D542" s="4" t="s">
@@ -30035,7 +30038,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>739</v>
       </c>
       <c r="D543" s="4" t="s">
@@ -30063,7 +30066,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>740</v>
       </c>
       <c r="D544" s="4" t="s">
@@ -30091,7 +30094,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>741</v>
       </c>
       <c r="D545" s="4" t="s">
@@ -30119,7 +30122,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>742</v>
       </c>
       <c r="B546" s="1" t="s">
@@ -30153,7 +30156,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>743</v>
       </c>
       <c r="D547" s="4" t="s">
@@ -30181,7 +30184,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>744</v>
       </c>
       <c r="D548" s="4" t="s">
@@ -30209,7 +30212,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>745</v>
       </c>
       <c r="D549" s="4" t="s">
@@ -30265,7 +30268,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <f t="shared" ref="A551:A566" si="7">+A550+1</f>
+        <f t="shared" ref="A551:A566" si="27">+A550+1</f>
         <v>749</v>
       </c>
       <c r="D551" s="4" t="s">
@@ -30293,7 +30296,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>750</v>
       </c>
       <c r="D552" s="4" t="s">
@@ -30321,7 +30324,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>751</v>
       </c>
       <c r="B553" s="1" t="s">
@@ -30355,7 +30358,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>752</v>
       </c>
       <c r="D554" s="4" t="s">
@@ -30383,7 +30386,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>753</v>
       </c>
       <c r="B555" s="1" t="s">
@@ -30417,7 +30420,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>754</v>
       </c>
       <c r="D556" s="4" t="s">
@@ -30445,7 +30448,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>755</v>
       </c>
       <c r="B557" s="1" t="s">
@@ -30479,7 +30482,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>756</v>
       </c>
       <c r="D558" s="4" t="s">
@@ -30507,7 +30510,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>757</v>
       </c>
       <c r="D559" s="4" t="s">
@@ -30535,7 +30538,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>758</v>
       </c>
       <c r="D560" s="4" t="s">
@@ -30563,7 +30566,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>759</v>
       </c>
       <c r="D561" s="4" t="s">
@@ -30591,7 +30594,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>760</v>
       </c>
       <c r="D562" s="4" t="s">
@@ -30619,7 +30622,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>761</v>
       </c>
       <c r="D563" s="4" t="s">
@@ -30647,7 +30650,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>762</v>
       </c>
       <c r="D564" s="4" t="s">
@@ -30675,7 +30678,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>763</v>
       </c>
       <c r="B565" s="1" t="s">
@@ -30709,7 +30712,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>764</v>
       </c>
       <c r="D566" s="4" t="s">
@@ -30976,7 +30979,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <f t="shared" ref="A575:A581" si="8">+A574+1</f>
+        <f t="shared" ref="A575:A581" si="28">+A574+1</f>
         <v>777</v>
       </c>
       <c r="D575" s="4" t="s">
@@ -31004,7 +31007,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>778</v>
       </c>
       <c r="D576" s="4" t="s">
@@ -31032,7 +31035,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>779</v>
       </c>
       <c r="D577" s="4" t="s">
@@ -31060,7 +31063,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>780</v>
       </c>
       <c r="B578" s="1" t="s">
@@ -31094,7 +31097,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>781</v>
       </c>
       <c r="D579" s="4" t="s">
@@ -31122,7 +31125,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>782</v>
       </c>
       <c r="D580" s="4" t="s">
@@ -31150,7 +31153,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>783</v>
       </c>
       <c r="D581" s="4" t="s">
@@ -31268,7 +31271,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <f t="shared" ref="A585:A594" si="9">+A584+1</f>
+        <f t="shared" ref="A585:A594" si="29">+A584+1</f>
         <v>789</v>
       </c>
       <c r="D585" s="4" t="s">
@@ -31296,7 +31299,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>790</v>
       </c>
       <c r="D586" s="4" t="s">
@@ -31324,7 +31327,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>791</v>
       </c>
       <c r="D587" s="4" t="s">
@@ -31352,7 +31355,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>792</v>
       </c>
       <c r="D588" s="4" t="s">
@@ -31380,7 +31383,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>793</v>
       </c>
       <c r="D589" s="4" t="s">
@@ -31408,7 +31411,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>794</v>
       </c>
       <c r="B590" s="1" t="s">
@@ -31442,7 +31445,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>795</v>
       </c>
       <c r="D591" s="4" t="s">
@@ -31467,7 +31470,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>796</v>
       </c>
       <c r="D592" s="4" t="s">
@@ -31495,7 +31498,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>797</v>
       </c>
       <c r="B593" s="1" t="s">
@@ -31529,7 +31532,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>798</v>
       </c>
       <c r="B594" s="1" t="s">
@@ -31591,7 +31594,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
-        <f t="shared" ref="A596:A613" si="10">+A595+1</f>
+        <f t="shared" ref="A596:A613" si="30">+A595+1</f>
         <v>802</v>
       </c>
       <c r="D596" s="4" t="s">
@@ -31619,7 +31622,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>803</v>
       </c>
       <c r="D597" s="4" t="s">
@@ -31647,7 +31650,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>804</v>
       </c>
       <c r="D598" s="4" t="s">
@@ -31675,7 +31678,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>805</v>
       </c>
       <c r="D599" s="4" t="s">
@@ -31703,7 +31706,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>806</v>
       </c>
       <c r="D600" s="4" t="s">
@@ -31731,7 +31734,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>807</v>
       </c>
       <c r="B601" s="1" t="s">
@@ -31765,7 +31768,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>808</v>
       </c>
       <c r="D602" s="4" t="s">
@@ -31793,7 +31796,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>809</v>
       </c>
       <c r="D603" s="4" t="s">
@@ -31821,7 +31824,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>810</v>
       </c>
       <c r="D604" s="4" t="s">
@@ -31846,7 +31849,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>811</v>
       </c>
       <c r="D605" s="4" t="s">
@@ -31874,7 +31877,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>812</v>
       </c>
       <c r="D606" s="4" t="s">
@@ -31902,7 +31905,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>813</v>
       </c>
       <c r="D607" s="4" t="s">
@@ -31930,7 +31933,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>814</v>
       </c>
       <c r="D608" s="4" t="s">
@@ -31958,7 +31961,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>815</v>
       </c>
       <c r="B609" s="1" t="s">
@@ -31992,7 +31995,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>816</v>
       </c>
       <c r="D610" s="4" t="s">
@@ -32020,7 +32023,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>817</v>
       </c>
       <c r="B611" s="1" t="s">
@@ -32054,7 +32057,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>818</v>
       </c>
       <c r="D612" s="4" t="s">
@@ -32079,7 +32082,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>819</v>
       </c>
       <c r="B613" s="1" t="s">
@@ -32147,7 +32150,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
-        <f t="shared" ref="A615:A620" si="11">+A614+1</f>
+        <f t="shared" ref="A615:A620" si="31">+A614+1</f>
         <v>823</v>
       </c>
       <c r="B615" s="1" t="s">
@@ -32181,7 +32184,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>824</v>
       </c>
       <c r="D616" s="4" t="s">
@@ -32209,7 +32212,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>825</v>
       </c>
       <c r="D617" s="4" t="s">
@@ -32234,7 +32237,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>826</v>
       </c>
       <c r="B618" s="1" t="s">
@@ -32268,7 +32271,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>827</v>
       </c>
       <c r="D619" s="4" t="s">
@@ -32296,7 +32299,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>828</v>
       </c>
       <c r="D620" s="11" t="s">
@@ -33477,7 +33480,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
-        <f t="shared" ref="A661:A680" si="12">+A660+1</f>
+        <f t="shared" ref="A661:A680" si="32">+A660+1</f>
         <v>889</v>
       </c>
       <c r="D661" s="4" t="s">
@@ -33505,7 +33508,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>890</v>
       </c>
       <c r="D662" s="4" t="s">
@@ -33533,7 +33536,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>891</v>
       </c>
       <c r="D663" s="4" t="s">
@@ -33558,7 +33561,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>892</v>
       </c>
       <c r="D664" s="4" t="s">
@@ -33586,7 +33589,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>893</v>
       </c>
       <c r="D665" s="4" t="s">
@@ -33614,7 +33617,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>894</v>
       </c>
       <c r="D666" s="4" t="s">
@@ -33642,7 +33645,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>895</v>
       </c>
       <c r="D667" s="4" t="s">
@@ -33670,7 +33673,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>896</v>
       </c>
       <c r="D668" s="4" t="s">
@@ -33698,7 +33701,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>897</v>
       </c>
       <c r="D669" s="4" t="s">
@@ -33726,7 +33729,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>898</v>
       </c>
       <c r="D670" s="4" t="s">
@@ -33754,7 +33757,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>899</v>
       </c>
       <c r="D671" s="4" t="s">
@@ -33782,7 +33785,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>900</v>
       </c>
       <c r="D672" s="4" t="s">
@@ -33810,7 +33813,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>901</v>
       </c>
       <c r="D673" s="4" t="s">
@@ -33838,7 +33841,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>902</v>
       </c>
       <c r="B674" s="1" t="s">
@@ -33869,7 +33872,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>903</v>
       </c>
       <c r="D675" s="4" t="s">
@@ -33894,7 +33897,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>904</v>
       </c>
       <c r="D676" s="4" t="s">
@@ -33922,7 +33925,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>905</v>
       </c>
       <c r="D677" s="4" t="s">
@@ -33950,7 +33953,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>906</v>
       </c>
       <c r="D678" s="4" t="s">
@@ -33978,7 +33981,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>907</v>
       </c>
       <c r="D679" s="4" t="s">
@@ -34006,7 +34009,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>908</v>
       </c>
       <c r="D680" s="4" t="s">
@@ -34230,7 +34233,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
-        <f t="shared" ref="A688:A694" si="13">+A687+1</f>
+        <f t="shared" ref="A688:A694" si="33">+A687+1</f>
         <v>918</v>
       </c>
       <c r="D688" s="4" t="s">
@@ -34258,7 +34261,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>919</v>
       </c>
       <c r="B689" s="1" t="s">
@@ -34289,7 +34292,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>920</v>
       </c>
       <c r="D690" s="4" t="s">
@@ -34317,7 +34320,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>921</v>
       </c>
       <c r="D691" s="4" t="s">
@@ -34345,7 +34348,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>922</v>
       </c>
       <c r="D692" s="4" t="s">
@@ -34370,7 +34373,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>923</v>
       </c>
       <c r="D693" s="4" t="s">
@@ -34398,7 +34401,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>924</v>
       </c>
       <c r="D694" s="4" t="s">
@@ -34454,7 +34457,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
-        <f t="shared" ref="A696:A704" si="14">+A695+1</f>
+        <f t="shared" ref="A696:A704" si="34">+A695+1</f>
         <v>927</v>
       </c>
       <c r="B696" s="1" t="s">
@@ -34488,7 +34491,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>928</v>
       </c>
       <c r="D697" s="4" t="s">
@@ -34516,7 +34519,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>929</v>
       </c>
       <c r="D698" s="4" t="s">
@@ -34544,7 +34547,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>930</v>
       </c>
       <c r="D699" s="4" t="s">
@@ -34572,7 +34575,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>931</v>
       </c>
       <c r="D700" s="4" t="s">
@@ -34600,7 +34603,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>932</v>
       </c>
       <c r="D701" s="4" t="s">
@@ -34628,7 +34631,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>933</v>
       </c>
       <c r="B702" s="1" t="s">
@@ -34659,7 +34662,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>934</v>
       </c>
       <c r="D703" s="4" t="s">
@@ -34687,7 +34690,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>935</v>
       </c>
       <c r="D704" s="4" t="s">
@@ -35178,7 +35181,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
-        <f t="shared" ref="A721:A729" si="15">+A720+1</f>
+        <f t="shared" ref="A721:A729" si="35">+A720+1</f>
         <v>960</v>
       </c>
       <c r="D721" s="4" t="s">
@@ -35206,7 +35209,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>961</v>
       </c>
       <c r="B722" s="1" t="s">
@@ -35240,7 +35243,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>962</v>
       </c>
       <c r="D723" s="4" t="s">
@@ -35268,7 +35271,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>963</v>
       </c>
       <c r="D724" s="4" t="s">
@@ -35293,7 +35296,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>964</v>
       </c>
       <c r="D725" s="4" t="s">
@@ -35321,7 +35324,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>965</v>
       </c>
       <c r="D726" s="4" t="s">
@@ -35349,7 +35352,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>966</v>
       </c>
       <c r="D727" s="4" t="s">
@@ -35377,7 +35380,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>967</v>
       </c>
       <c r="D728" s="4" t="s">
@@ -35405,7 +35408,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>968</v>
       </c>
       <c r="D729" s="4" t="s">
@@ -35803,7 +35806,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
-        <f t="shared" ref="A743:A750" si="16">+A742+1</f>
+        <f t="shared" ref="A743:A750" si="36">+A742+1</f>
         <v>987</v>
       </c>
       <c r="D743" s="4" t="s">
@@ -35831,7 +35834,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>988</v>
       </c>
       <c r="B744" s="1" t="s">
@@ -35865,7 +35868,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>989</v>
       </c>
       <c r="D745" s="4" t="s">
@@ -35893,7 +35896,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>990</v>
       </c>
       <c r="D746" s="4" t="s">
@@ -35921,7 +35924,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>991</v>
       </c>
       <c r="D747" s="4" t="s">
@@ -35949,7 +35952,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>992</v>
       </c>
       <c r="D748" s="4" t="s">
@@ -35977,7 +35980,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>993</v>
       </c>
       <c r="D749" s="4" t="s">
@@ -36005,7 +36008,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>994</v>
       </c>
       <c r="B750" s="1" t="s">
@@ -36204,7 +36207,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
-        <f t="shared" ref="A757:A775" si="17">+A756+1</f>
+        <f t="shared" ref="A757:A775" si="37">+A756+1</f>
         <v>1007</v>
       </c>
       <c r="D757" s="4" t="s">
@@ -36232,7 +36235,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1008</v>
       </c>
       <c r="D758" s="4" t="s">
@@ -36260,7 +36263,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1009</v>
       </c>
       <c r="D759" s="4" t="s">
@@ -36288,7 +36291,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1010</v>
       </c>
       <c r="D760" s="4" t="s">
@@ -36316,7 +36319,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1011</v>
       </c>
       <c r="D761" s="4" t="s">
@@ -36344,7 +36347,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1012</v>
       </c>
       <c r="D762" s="4" t="s">
@@ -36372,7 +36375,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1013</v>
       </c>
       <c r="B763" s="1" t="s">
@@ -36406,7 +36409,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1014</v>
       </c>
       <c r="D764" s="4" t="s">
@@ -36434,7 +36437,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1015</v>
       </c>
       <c r="D765" s="4" t="s">
@@ -36462,7 +36465,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1016</v>
       </c>
       <c r="D766" s="4" t="s">
@@ -36490,7 +36493,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1017</v>
       </c>
       <c r="D767" s="4" t="s">
@@ -36518,7 +36521,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1018</v>
       </c>
       <c r="B768" s="1" t="s">
@@ -36552,7 +36555,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1019</v>
       </c>
       <c r="D769" s="4" t="s">
@@ -36577,7 +36580,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1020</v>
       </c>
       <c r="B770" s="1" t="s">
@@ -36611,7 +36614,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1021</v>
       </c>
       <c r="D771" s="4" t="s">
@@ -36639,7 +36642,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1022</v>
       </c>
       <c r="D772" s="4" t="s">
@@ -36664,7 +36667,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1023</v>
       </c>
       <c r="D773" s="4" t="s">
@@ -36692,7 +36695,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1024</v>
       </c>
       <c r="D774" s="4" t="s">
@@ -36720,7 +36723,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>1025</v>
       </c>
       <c r="D775" s="4" t="s">
@@ -37131,7 +37134,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
-        <f t="shared" ref="A790:A803" si="18">+A789+1</f>
+        <f t="shared" ref="A790:A803" si="38">+A789+1</f>
         <v>1047</v>
       </c>
       <c r="D790" s="4" t="s">
@@ -37159,7 +37162,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1048</v>
       </c>
       <c r="D791" s="4" t="s">
@@ -37187,7 +37190,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1049</v>
       </c>
       <c r="D792" s="4" t="s">
@@ -37215,7 +37218,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1050</v>
       </c>
       <c r="D793" s="4" t="s">
@@ -37243,7 +37246,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1051</v>
       </c>
       <c r="D794" s="4" t="s">
@@ -37271,7 +37274,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1052</v>
       </c>
       <c r="B795" s="1" t="s">
@@ -37305,7 +37308,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1053</v>
       </c>
       <c r="D796" s="4" t="s">
@@ -37330,7 +37333,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1054</v>
       </c>
       <c r="D797" s="11" t="s">
@@ -37355,7 +37358,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1055</v>
       </c>
       <c r="D798" s="4" t="s">
@@ -37383,7 +37386,7 @@
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1056</v>
       </c>
       <c r="D799" s="11" t="s">
@@ -37408,7 +37411,7 @@
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1057</v>
       </c>
       <c r="D800" s="4" t="s">
@@ -37436,7 +37439,7 @@
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1058</v>
       </c>
       <c r="D801" s="4" t="s">
@@ -37464,7 +37467,7 @@
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1059</v>
       </c>
       <c r="D802" s="4" t="s">
@@ -37492,7 +37495,7 @@
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1060</v>
       </c>
       <c r="B803" s="1" t="s">
@@ -37551,7 +37554,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
-        <f t="shared" ref="A805:A825" si="19">+A804+1</f>
+        <f t="shared" ref="A805:A825" si="39">+A804+1</f>
         <v>1063</v>
       </c>
       <c r="D805" s="4" t="s">
@@ -37579,7 +37582,7 @@
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1064</v>
       </c>
       <c r="D806" s="4" t="s">
@@ -37607,7 +37610,7 @@
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1065</v>
       </c>
       <c r="D807" s="4" t="s">
@@ -37635,7 +37638,7 @@
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1066</v>
       </c>
       <c r="D808" s="4" t="s">
@@ -37663,7 +37666,7 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1067</v>
       </c>
       <c r="D809" s="4" t="s">
@@ -37691,7 +37694,7 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1068</v>
       </c>
       <c r="D810" s="4" t="s">
@@ -37719,7 +37722,7 @@
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1069</v>
       </c>
       <c r="D811" s="4" t="s">
@@ -37747,7 +37750,7 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1070</v>
       </c>
       <c r="D812" s="4" t="s">
@@ -37775,7 +37778,7 @@
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1071</v>
       </c>
       <c r="D813" s="11" t="s">
@@ -37803,7 +37806,7 @@
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1072</v>
       </c>
       <c r="D814" s="4" t="s">
@@ -37831,7 +37834,7 @@
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1073</v>
       </c>
       <c r="D815" s="4" t="s">
@@ -37859,7 +37862,7 @@
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1074</v>
       </c>
       <c r="D816" s="4" t="s">
@@ -37887,7 +37890,7 @@
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1075</v>
       </c>
       <c r="D817" s="4" t="s">
@@ -37912,7 +37915,7 @@
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1076</v>
       </c>
       <c r="D818" s="4" t="s">
@@ -37940,7 +37943,7 @@
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1077</v>
       </c>
       <c r="D819" s="4" t="s">
@@ -37968,7 +37971,7 @@
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1078</v>
       </c>
       <c r="D820" s="4" t="s">
@@ -37996,7 +37999,7 @@
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1079</v>
       </c>
       <c r="D821" s="4" t="s">
@@ -38024,7 +38027,7 @@
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1080</v>
       </c>
       <c r="D822" s="4" t="s">
@@ -38052,7 +38055,7 @@
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1081</v>
       </c>
       <c r="D823" s="4" t="s">
@@ -38080,7 +38083,7 @@
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1082</v>
       </c>
       <c r="D824" s="4" t="s">
@@ -38108,7 +38111,7 @@
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>1083</v>
       </c>
       <c r="D825" s="4" t="s">
@@ -38192,7 +38195,7 @@
     </row>
     <row r="828" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
-        <f t="shared" ref="A828:A835" si="20">+A827+1</f>
+        <f t="shared" ref="A828:A835" si="40">+A827+1</f>
         <v>1088</v>
       </c>
       <c r="D828" s="4" t="s">
@@ -38220,7 +38223,7 @@
     </row>
     <row r="829" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>1089</v>
       </c>
       <c r="D829" s="4" t="s">
@@ -38248,7 +38251,7 @@
     </row>
     <row r="830" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>1090</v>
       </c>
       <c r="D830" s="4" t="s">
@@ -38276,7 +38279,7 @@
     </row>
     <row r="831" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>1091</v>
       </c>
       <c r="D831" s="4" t="s">
@@ -38304,7 +38307,7 @@
     </row>
     <row r="832" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>1092</v>
       </c>
       <c r="D832" s="4" t="s">
@@ -38332,7 +38335,7 @@
     </row>
     <row r="833" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>1093</v>
       </c>
       <c r="D833" s="4" t="s">
@@ -38360,7 +38363,7 @@
     </row>
     <row r="834" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>1094</v>
       </c>
       <c r="D834" s="4" t="s">
@@ -38388,7 +38391,7 @@
     </row>
     <row r="835" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>1095</v>
       </c>
       <c r="D835" s="4" t="s">
@@ -38556,7 +38559,7 @@
     </row>
     <row r="841" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
-        <f t="shared" ref="A841:A851" si="21">+A840+1</f>
+        <f t="shared" ref="A841:A851" si="41">+A840+1</f>
         <v>1103</v>
       </c>
       <c r="D841" s="4" t="s">
@@ -38584,7 +38587,7 @@
     </row>
     <row r="842" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>1104</v>
       </c>
       <c r="D842" s="4" t="s">
@@ -38612,7 +38615,7 @@
     </row>
     <row r="843" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>1105</v>
       </c>
       <c r="D843" s="4" t="s">
@@ -38640,7 +38643,7 @@
     </row>
     <row r="844" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>1106</v>
       </c>
       <c r="D844" s="4" t="s">
@@ -38668,7 +38671,7 @@
     </row>
     <row r="845" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>1107</v>
       </c>
       <c r="B845" s="1" t="s">
@@ -38702,7 +38705,7 @@
     </row>
     <row r="846" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>1108</v>
       </c>
       <c r="D846" s="4" t="s">
@@ -38730,7 +38733,7 @@
     </row>
     <row r="847" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>1109</v>
       </c>
       <c r="D847" s="4" t="s">
@@ -38758,7 +38761,7 @@
     </row>
     <row r="848" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>1110</v>
       </c>
       <c r="D848" s="4" t="s">
@@ -38786,7 +38789,7 @@
     </row>
     <row r="849" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>1111</v>
       </c>
       <c r="D849" s="4" t="s">
@@ -38814,7 +38817,7 @@
     </row>
     <row r="850" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>1112</v>
       </c>
       <c r="D850" s="4" t="s">
@@ -38839,7 +38842,7 @@
     </row>
     <row r="851" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>1113</v>
       </c>
       <c r="D851" s="4" t="s">
@@ -38923,7 +38926,7 @@
     </row>
     <row r="854" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
-        <f t="shared" ref="A854:A873" si="22">+A853+1</f>
+        <f t="shared" ref="A854:A873" si="42">+A853+1</f>
         <v>1119</v>
       </c>
       <c r="D854" s="4" t="s">
@@ -38951,7 +38954,7 @@
     </row>
     <row r="855" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1120</v>
       </c>
       <c r="B855" s="1" t="s">
@@ -38982,7 +38985,7 @@
     </row>
     <row r="856" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1121</v>
       </c>
       <c r="B856" s="1" t="s">
@@ -39016,7 +39019,7 @@
     </row>
     <row r="857" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1122</v>
       </c>
       <c r="D857" s="4" t="s">
@@ -39044,7 +39047,7 @@
     </row>
     <row r="858" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1123</v>
       </c>
       <c r="D858" s="4" t="s">
@@ -39072,7 +39075,7 @@
     </row>
     <row r="859" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1124</v>
       </c>
       <c r="D859" s="4" t="s">
@@ -39100,7 +39103,7 @@
     </row>
     <row r="860" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1125</v>
       </c>
       <c r="D860" s="4" t="s">
@@ -39128,7 +39131,7 @@
     </row>
     <row r="861" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1126</v>
       </c>
       <c r="D861" s="4" t="s">
@@ -39156,7 +39159,7 @@
     </row>
     <row r="862" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1127</v>
       </c>
       <c r="D862" s="4" t="s">
@@ -39184,7 +39187,7 @@
     </row>
     <row r="863" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1128</v>
       </c>
       <c r="D863" s="4" t="s">
@@ -39212,7 +39215,7 @@
     </row>
     <row r="864" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1129</v>
       </c>
       <c r="D864" s="4" t="s">
@@ -39237,7 +39240,7 @@
     </row>
     <row r="865" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1130</v>
       </c>
       <c r="D865" s="4" t="s">
@@ -39265,7 +39268,7 @@
     </row>
     <row r="866" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1131</v>
       </c>
       <c r="D866" s="4" t="s">
@@ -39293,7 +39296,7 @@
     </row>
     <row r="867" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1132</v>
       </c>
       <c r="D867" s="4" t="s">
@@ -39321,7 +39324,7 @@
     </row>
     <row r="868" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1133</v>
       </c>
       <c r="D868" s="4" t="s">
@@ -39349,7 +39352,7 @@
     </row>
     <row r="869" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1134</v>
       </c>
       <c r="D869" s="4" t="s">
@@ -39377,7 +39380,7 @@
     </row>
     <row r="870" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A870" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1135</v>
       </c>
       <c r="D870" s="8" t="s">
@@ -39405,7 +39408,7 @@
     </row>
     <row r="871" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1136</v>
       </c>
       <c r="D871" s="4" t="s">
@@ -39433,7 +39436,7 @@
     </row>
     <row r="872" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1137</v>
       </c>
       <c r="D872" s="4" t="s">
@@ -39461,7 +39464,7 @@
     </row>
     <row r="873" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1138</v>
       </c>
       <c r="D873" s="4" t="s">
@@ -39517,7 +39520,7 @@
     </row>
     <row r="875" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
-        <f t="shared" ref="A875:A891" si="23">+A874+1</f>
+        <f t="shared" ref="A875:A891" si="43">+A874+1</f>
         <v>1141</v>
       </c>
       <c r="D875" s="4" t="s">
@@ -39545,7 +39548,7 @@
     </row>
     <row r="876" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1142</v>
       </c>
       <c r="D876" s="4" t="s">
@@ -39573,7 +39576,7 @@
     </row>
     <row r="877" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1143</v>
       </c>
       <c r="D877" s="4" t="s">
@@ -39601,7 +39604,7 @@
     </row>
     <row r="878" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1144</v>
       </c>
       <c r="D878" s="4" t="s">
@@ -39629,7 +39632,7 @@
     </row>
     <row r="879" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1145</v>
       </c>
       <c r="D879" s="4" t="s">
@@ -39657,7 +39660,7 @@
     </row>
     <row r="880" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1146</v>
       </c>
       <c r="D880" s="4" t="s">
@@ -39685,7 +39688,7 @@
     </row>
     <row r="881" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1147</v>
       </c>
       <c r="D881" s="4" t="s">
@@ -39713,7 +39716,7 @@
     </row>
     <row r="882" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1148</v>
       </c>
       <c r="D882" s="4" t="s">
@@ -39741,7 +39744,7 @@
     </row>
     <row r="883" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1149</v>
       </c>
       <c r="D883" s="4" t="s">
@@ -39769,7 +39772,7 @@
     </row>
     <row r="884" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1150</v>
       </c>
       <c r="B884" s="1" t="s">
@@ -39800,7 +39803,7 @@
     </row>
     <row r="885" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1151</v>
       </c>
       <c r="D885" s="4" t="s">
@@ -39828,7 +39831,7 @@
     </row>
     <row r="886" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1152</v>
       </c>
       <c r="D886" s="4" t="s">
@@ -39856,7 +39859,7 @@
     </row>
     <row r="887" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1153</v>
       </c>
       <c r="D887" s="4" t="s">
@@ -39884,7 +39887,7 @@
     </row>
     <row r="888" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1154</v>
       </c>
       <c r="D888" s="4" t="s">
@@ -39912,7 +39915,7 @@
     </row>
     <row r="889" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1155</v>
       </c>
       <c r="D889" s="4" t="s">
@@ -39940,7 +39943,7 @@
     </row>
     <row r="890" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1156</v>
       </c>
       <c r="D890" s="4" t="s">
@@ -39968,7 +39971,7 @@
     </row>
     <row r="891" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1157</v>
       </c>
       <c r="D891" s="4" t="s">
@@ -40192,7 +40195,7 @@
     </row>
     <row r="899" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
-        <f t="shared" ref="A899:A905" si="24">+A898+1</f>
+        <f t="shared" ref="A899:A905" si="44">+A898+1</f>
         <v>1167</v>
       </c>
       <c r="D899" s="4" t="s">
@@ -40220,7 +40223,7 @@
     </row>
     <row r="900" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>1168</v>
       </c>
       <c r="D900" s="4" t="s">
@@ -40248,7 +40251,7 @@
     </row>
     <row r="901" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>1169</v>
       </c>
       <c r="D901" s="4" t="s">
@@ -40276,7 +40279,7 @@
     </row>
     <row r="902" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>1170</v>
       </c>
       <c r="D902" s="4" t="s">
@@ -40304,7 +40307,7 @@
     </row>
     <row r="903" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>1171</v>
       </c>
       <c r="D903" s="4" t="s">
@@ -40332,7 +40335,7 @@
     </row>
     <row r="904" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>1172</v>
       </c>
       <c r="D904" s="4" t="s">
@@ -40357,7 +40360,7 @@
     </row>
     <row r="905" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>1173</v>
       </c>
       <c r="D905" s="4" t="s">
@@ -40503,7 +40506,7 @@
     </row>
     <row r="910" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
-        <f t="shared" ref="A910:A918" si="25">+A909+1</f>
+        <f t="shared" ref="A910:A918" si="45">+A909+1</f>
         <v>1180</v>
       </c>
       <c r="D910" s="4" t="s">
@@ -40531,7 +40534,7 @@
     </row>
     <row r="911" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>1181</v>
       </c>
       <c r="D911" s="4" t="s">
@@ -40559,7 +40562,7 @@
     </row>
     <row r="912" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>1182</v>
       </c>
       <c r="D912" s="4" t="s">
@@ -40587,7 +40590,7 @@
     </row>
     <row r="913" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>1183</v>
       </c>
       <c r="D913" s="4" t="s">
@@ -40615,7 +40618,7 @@
     </row>
     <row r="914" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>1184</v>
       </c>
       <c r="D914" s="4" t="s">
@@ -40643,7 +40646,7 @@
     </row>
     <row r="915" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>1185</v>
       </c>
       <c r="D915" s="4" t="s">
@@ -40671,7 +40674,7 @@
     </row>
     <row r="916" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>1186</v>
       </c>
       <c r="D916" s="4" t="s">
@@ -40699,7 +40702,7 @@
     </row>
     <row r="917" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>1187</v>
       </c>
       <c r="D917" s="4" t="s">
@@ -40727,7 +40730,7 @@
     </row>
     <row r="918" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>1188</v>
       </c>
       <c r="D918" s="4" t="s">
@@ -40783,7 +40786,7 @@
     </row>
     <row r="920" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
-        <f t="shared" ref="A920:A958" si="26">+A919+1</f>
+        <f t="shared" ref="A920:A958" si="46">+A919+1</f>
         <v>1191</v>
       </c>
       <c r="D920" s="4" t="s">
@@ -40811,7 +40814,7 @@
     </row>
     <row r="921" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1192</v>
       </c>
       <c r="D921" s="4" t="s">
@@ -40839,7 +40842,7 @@
     </row>
     <row r="922" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1193</v>
       </c>
       <c r="D922" s="11" t="s">
@@ -40867,7 +40870,7 @@
     </row>
     <row r="923" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1194</v>
       </c>
       <c r="D923" s="4" t="s">
@@ -40895,7 +40898,7 @@
     </row>
     <row r="924" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1195</v>
       </c>
       <c r="D924" s="11" t="s">
@@ -40923,7 +40926,7 @@
     </row>
     <row r="925" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1196</v>
       </c>
       <c r="D925" s="4" t="s">
@@ -40951,7 +40954,7 @@
     </row>
     <row r="926" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1197</v>
       </c>
       <c r="D926" s="4" t="s">
@@ -40979,7 +40982,7 @@
     </row>
     <row r="927" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1198</v>
       </c>
       <c r="D927" s="4" t="s">
@@ -41007,7 +41010,7 @@
     </row>
     <row r="928" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1199</v>
       </c>
       <c r="D928" s="4" t="s">
@@ -41035,7 +41038,7 @@
     </row>
     <row r="929" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1200</v>
       </c>
       <c r="D929" s="4" t="s">
@@ -41063,7 +41066,7 @@
     </row>
     <row r="930" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1201</v>
       </c>
       <c r="D930" s="4" t="s">
@@ -41091,7 +41094,7 @@
     </row>
     <row r="931" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1202</v>
       </c>
       <c r="D931" s="4" t="s">
@@ -41119,7 +41122,7 @@
     </row>
     <row r="932" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1203</v>
       </c>
       <c r="D932" s="4" t="s">
@@ -41147,7 +41150,7 @@
     </row>
     <row r="933" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1204</v>
       </c>
       <c r="D933" s="4" t="s">
@@ -41175,7 +41178,7 @@
     </row>
     <row r="934" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A934" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1205</v>
       </c>
       <c r="D934" s="4" t="s">
@@ -41203,7 +41206,7 @@
     </row>
     <row r="935" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1206</v>
       </c>
       <c r="D935" s="4" t="s">
@@ -41231,7 +41234,7 @@
     </row>
     <row r="936" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1207</v>
       </c>
       <c r="D936" s="4" t="s">
@@ -41259,7 +41262,7 @@
     </row>
     <row r="937" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A937" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1208</v>
       </c>
       <c r="D937" s="4" t="s">
@@ -41284,7 +41287,7 @@
     </row>
     <row r="938" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1209</v>
       </c>
       <c r="B938" s="1" t="s">
@@ -41315,7 +41318,7 @@
     </row>
     <row r="939" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1210</v>
       </c>
       <c r="B939" s="1" t="s">
@@ -41349,7 +41352,7 @@
     </row>
     <row r="940" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1211</v>
       </c>
       <c r="D940" s="4" t="s">
@@ -41377,7 +41380,7 @@
     </row>
     <row r="941" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1212</v>
       </c>
       <c r="D941" s="4" t="s">
@@ -41405,7 +41408,7 @@
     </row>
     <row r="942" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1213</v>
       </c>
       <c r="D942" s="4" t="s">
@@ -41433,7 +41436,7 @@
     </row>
     <row r="943" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1214</v>
       </c>
       <c r="D943" s="4" t="s">
@@ -41461,7 +41464,7 @@
     </row>
     <row r="944" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A944" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1215</v>
       </c>
       <c r="D944" s="4" t="s">
@@ -41489,7 +41492,7 @@
     </row>
     <row r="945" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A945" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1216</v>
       </c>
       <c r="D945" s="4" t="s">
@@ -41517,7 +41520,7 @@
     </row>
     <row r="946" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A946" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1217</v>
       </c>
       <c r="D946" s="4" t="s">
@@ -41545,7 +41548,7 @@
     </row>
     <row r="947" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A947" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1218</v>
       </c>
       <c r="D947" s="4" t="s">
@@ -41573,7 +41576,7 @@
     </row>
     <row r="948" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A948" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1219</v>
       </c>
       <c r="D948" s="4" t="s">
@@ -41601,7 +41604,7 @@
     </row>
     <row r="949" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A949" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1220</v>
       </c>
       <c r="D949" s="4" t="s">
@@ -41629,7 +41632,7 @@
     </row>
     <row r="950" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A950" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1221</v>
       </c>
       <c r="D950" s="4" t="s">
@@ -41657,7 +41660,7 @@
     </row>
     <row r="951" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A951" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1222</v>
       </c>
       <c r="D951" s="4" t="s">
@@ -41682,7 +41685,7 @@
     </row>
     <row r="952" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A952" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1223</v>
       </c>
       <c r="D952" s="4" t="s">
@@ -41710,7 +41713,7 @@
     </row>
     <row r="953" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A953" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1224</v>
       </c>
       <c r="D953" s="4" t="s">
@@ -41738,7 +41741,7 @@
     </row>
     <row r="954" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A954" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1225</v>
       </c>
       <c r="D954" s="4" t="s">
@@ -41766,7 +41769,7 @@
     </row>
     <row r="955" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A955" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1226</v>
       </c>
       <c r="D955" s="4" t="s">
@@ -41794,7 +41797,7 @@
     </row>
     <row r="956" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A956" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1227</v>
       </c>
       <c r="D956" s="4" t="s">
@@ -41822,7 +41825,7 @@
     </row>
     <row r="957" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A957" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1228</v>
       </c>
       <c r="B957" s="1" t="s">
@@ -41856,7 +41859,7 @@
     </row>
     <row r="958" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A958" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1229</v>
       </c>
       <c r="D958" s="4" t="s">
@@ -41940,7 +41943,7 @@
     </row>
     <row r="961" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A961" s="1">
-        <f t="shared" ref="A961:A984" si="27">+A960+1</f>
+        <f t="shared" ref="A961:A984" si="47">+A960+1</f>
         <v>1234</v>
       </c>
       <c r="D961" s="4" t="s">
@@ -41968,7 +41971,7 @@
     </row>
     <row r="962" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A962" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1235</v>
       </c>
       <c r="D962" s="4" t="s">
@@ -41996,7 +41999,7 @@
     </row>
     <row r="963" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A963" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1236</v>
       </c>
       <c r="D963" s="4" t="s">
@@ -42024,7 +42027,7 @@
     </row>
     <row r="964" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A964" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1237</v>
       </c>
       <c r="D964" s="4" t="s">
@@ -42052,7 +42055,7 @@
     </row>
     <row r="965" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A965" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1238</v>
       </c>
       <c r="D965" s="4" t="s">
@@ -42080,7 +42083,7 @@
     </row>
     <row r="966" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A966" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1239</v>
       </c>
       <c r="D966" s="4" t="s">
@@ -42108,7 +42111,7 @@
     </row>
     <row r="967" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A967" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1240</v>
       </c>
       <c r="D967" s="4" t="s">
@@ -42136,7 +42139,7 @@
     </row>
     <row r="968" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A968" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1241</v>
       </c>
       <c r="D968" s="4" t="s">
@@ -42164,7 +42167,7 @@
     </row>
     <row r="969" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A969" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1242</v>
       </c>
       <c r="D969" s="4" t="s">
@@ -42192,7 +42195,7 @@
     </row>
     <row r="970" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A970" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1243</v>
       </c>
       <c r="D970" s="4" t="s">
@@ -42220,7 +42223,7 @@
     </row>
     <row r="971" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A971" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1244</v>
       </c>
       <c r="D971" s="4" t="s">
@@ -42248,7 +42251,7 @@
     </row>
     <row r="972" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A972" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1245</v>
       </c>
       <c r="D972" s="4" t="s">
@@ -42276,7 +42279,7 @@
     </row>
     <row r="973" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A973" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1246</v>
       </c>
       <c r="D973" s="4" t="s">
@@ -42304,7 +42307,7 @@
     </row>
     <row r="974" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A974" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1247</v>
       </c>
       <c r="D974" s="4" t="s">
@@ -42332,7 +42335,7 @@
     </row>
     <row r="975" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A975" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1248</v>
       </c>
       <c r="D975" s="4" t="s">
@@ -42360,7 +42363,7 @@
     </row>
     <row r="976" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A976" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1249</v>
       </c>
       <c r="D976" s="4" t="s">
@@ -42388,7 +42391,7 @@
     </row>
     <row r="977" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A977" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1250</v>
       </c>
       <c r="D977" s="4" t="s">
@@ -42416,7 +42419,7 @@
     </row>
     <row r="978" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A978" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1251</v>
       </c>
       <c r="D978" s="4" t="s">
@@ -42444,7 +42447,7 @@
     </row>
     <row r="979" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A979" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1252</v>
       </c>
       <c r="D979" s="4" t="s">
@@ -42472,7 +42475,7 @@
     </row>
     <row r="980" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A980" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1253</v>
       </c>
       <c r="D980" s="4" t="s">
@@ -42500,7 +42503,7 @@
     </row>
     <row r="981" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A981" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1254</v>
       </c>
       <c r="B981" s="1" t="s">
@@ -42534,7 +42537,7 @@
     </row>
     <row r="982" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A982" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1255</v>
       </c>
       <c r="D982" s="4" t="s">
@@ -42562,7 +42565,7 @@
     </row>
     <row r="983" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A983" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1256</v>
       </c>
       <c r="D983" s="4" t="s">
@@ -42590,7 +42593,7 @@
     </row>
     <row r="984" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A984" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1257</v>
       </c>
       <c r="D984" s="4" t="s">
@@ -42839,7 +42842,7 @@
     </row>
     <row r="993" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A993" s="1">
-        <f t="shared" ref="A993:A998" si="28">+A992+1</f>
+        <f t="shared" ref="A993:A998" si="48">+A992+1</f>
         <v>1269</v>
       </c>
       <c r="D993" s="4" t="s">
@@ -42867,7 +42870,7 @@
     </row>
     <row r="994" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A994" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>1270</v>
       </c>
       <c r="D994" s="4" t="s">
@@ -42895,7 +42898,7 @@
     </row>
     <row r="995" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A995" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>1271</v>
       </c>
       <c r="B995" s="1" t="s">
@@ -42929,7 +42932,7 @@
     </row>
     <row r="996" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A996" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>1272</v>
       </c>
       <c r="D996" s="4" t="s">
@@ -42957,7 +42960,7 @@
     </row>
     <row r="997" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A997" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>1273</v>
       </c>
       <c r="D997" s="4" t="s">
@@ -42985,7 +42988,7 @@
     </row>
     <row r="998" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A998" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>1274</v>
       </c>
       <c r="B998" s="1" t="s">
@@ -43047,7 +43050,7 @@
     </row>
     <row r="1000" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1000" s="1">
-        <f t="shared" ref="A1000:A1007" si="29">+A999+1</f>
+        <f t="shared" ref="A1000:A1007" si="49">+A999+1</f>
         <v>1277</v>
       </c>
       <c r="D1000" s="4" t="s">
@@ -43075,7 +43078,7 @@
     </row>
     <row r="1001" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1001" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>1278</v>
       </c>
       <c r="B1001" s="1" t="s">
@@ -43109,7 +43112,7 @@
     </row>
     <row r="1002" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1002" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>1279</v>
       </c>
       <c r="D1002" s="4" t="s">
@@ -43137,7 +43140,7 @@
     </row>
     <row r="1003" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1003" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>1280</v>
       </c>
       <c r="D1003" s="4" t="s">
@@ -43165,7 +43168,7 @@
     </row>
     <row r="1004" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1004" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>1281</v>
       </c>
       <c r="D1004" s="4" t="s">
@@ -43193,7 +43196,7 @@
     </row>
     <row r="1005" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1005" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>1282</v>
       </c>
       <c r="D1005" s="4" t="s">
@@ -43221,7 +43224,7 @@
     </row>
     <row r="1006" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1006" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>1283</v>
       </c>
       <c r="B1006" s="1" t="s">
@@ -43252,7 +43255,7 @@
     </row>
     <row r="1007" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1007" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>1284</v>
       </c>
       <c r="D1007" s="4" t="s">
@@ -43308,7 +43311,7 @@
     </row>
     <row r="1009" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1009" s="1">
-        <f t="shared" ref="A1009:A1015" si="30">+A1008+1</f>
+        <f t="shared" ref="A1009:A1015" si="50">+A1008+1</f>
         <v>1288</v>
       </c>
       <c r="D1009" s="4" t="s">
@@ -43336,7 +43339,7 @@
     </row>
     <row r="1010" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1010" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>1289</v>
       </c>
       <c r="D1010" s="4" t="s">
@@ -43364,7 +43367,7 @@
     </row>
     <row r="1011" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1011" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>1290</v>
       </c>
       <c r="D1011" s="4" t="s">
@@ -43389,7 +43392,7 @@
     </row>
     <row r="1012" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1012" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>1291</v>
       </c>
       <c r="D1012" s="4" t="s">
@@ -43417,7 +43420,7 @@
     </row>
     <row r="1013" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1013" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>1292</v>
       </c>
       <c r="D1013" s="4" t="s">
@@ -43445,7 +43448,7 @@
     </row>
     <row r="1014" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1014" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>1293</v>
       </c>
       <c r="D1014" s="4" t="s">
@@ -43473,7 +43476,7 @@
     </row>
     <row r="1015" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1015" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>1294</v>
       </c>
       <c r="D1015" s="4" t="s">
@@ -43529,7 +43532,7 @@
     </row>
     <row r="1017" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1017" s="1">
-        <f t="shared" ref="A1017:A1037" si="31">+A1016+1</f>
+        <f t="shared" ref="A1017:A1037" si="51">+A1016+1</f>
         <v>1297</v>
       </c>
       <c r="D1017" s="4" t="s">
@@ -43557,7 +43560,7 @@
     </row>
     <row r="1018" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1018" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1298</v>
       </c>
       <c r="D1018" s="4" t="s">
@@ -43585,7 +43588,7 @@
     </row>
     <row r="1019" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1019" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1299</v>
       </c>
       <c r="D1019" s="4" t="s">
@@ -43613,7 +43616,7 @@
     </row>
     <row r="1020" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1020" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1300</v>
       </c>
       <c r="D1020" s="4" t="s">
@@ -43641,7 +43644,7 @@
     </row>
     <row r="1021" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1021" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1301</v>
       </c>
       <c r="D1021" s="4" t="s">
@@ -43669,7 +43672,7 @@
     </row>
     <row r="1022" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1022" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1302</v>
       </c>
       <c r="D1022" s="4" t="s">
@@ -43697,7 +43700,7 @@
     </row>
     <row r="1023" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1023" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1303</v>
       </c>
       <c r="D1023" s="4" t="s">
@@ -43725,7 +43728,7 @@
     </row>
     <row r="1024" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1024" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1304</v>
       </c>
       <c r="D1024" s="4" t="s">
@@ -43753,7 +43756,7 @@
     </row>
     <row r="1025" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1025" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1305</v>
       </c>
       <c r="D1025" s="4" t="s">
@@ -43781,7 +43784,7 @@
     </row>
     <row r="1026" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1026" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1306</v>
       </c>
       <c r="D1026" s="11" t="s">
@@ -43809,7 +43812,7 @@
     </row>
     <row r="1027" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1027" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1307</v>
       </c>
       <c r="D1027" s="4" t="s">
@@ -43837,7 +43840,7 @@
     </row>
     <row r="1028" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1028" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1308</v>
       </c>
       <c r="D1028" s="4" t="s">
@@ -43865,7 +43868,7 @@
     </row>
     <row r="1029" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1029" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1309</v>
       </c>
       <c r="D1029" s="4" t="s">
@@ -43893,7 +43896,7 @@
     </row>
     <row r="1030" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1030" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1310</v>
       </c>
       <c r="D1030" s="4" t="s">
@@ -43921,7 +43924,7 @@
     </row>
     <row r="1031" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1031" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1311</v>
       </c>
       <c r="D1031" s="4" t="s">
@@ -43949,7 +43952,7 @@
     </row>
     <row r="1032" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1032" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1312</v>
       </c>
       <c r="D1032" s="4" t="s">
@@ -43977,7 +43980,7 @@
     </row>
     <row r="1033" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1033" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1313</v>
       </c>
       <c r="D1033" s="4" t="s">
@@ -44005,7 +44008,7 @@
     </row>
     <row r="1034" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1034" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1314</v>
       </c>
       <c r="D1034" s="4" t="s">
@@ -44033,7 +44036,7 @@
     </row>
     <row r="1035" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1035" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1315</v>
       </c>
       <c r="D1035" s="4" t="s">
@@ -44058,7 +44061,7 @@
     </row>
     <row r="1036" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1036" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1316</v>
       </c>
       <c r="D1036" s="4" t="s">
@@ -44086,7 +44089,7 @@
     </row>
     <row r="1037" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1037" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1317</v>
       </c>
       <c r="D1037" s="4" t="s">
@@ -44394,7 +44397,7 @@
     </row>
     <row r="1048" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1048" s="1">
-        <f t="shared" ref="A1048:A1070" si="32">+A1047+1</f>
+        <f t="shared" ref="A1048:A1070" si="52">+A1047+1</f>
         <v>1335</v>
       </c>
       <c r="D1048" s="4" t="s">
@@ -44419,7 +44422,7 @@
     </row>
     <row r="1049" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1049" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1336</v>
       </c>
       <c r="D1049" s="4" t="s">
@@ -44447,7 +44450,7 @@
     </row>
     <row r="1050" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1050" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1337</v>
       </c>
       <c r="D1050" s="4" t="s">
@@ -44475,7 +44478,7 @@
     </row>
     <row r="1051" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1051" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1338</v>
       </c>
       <c r="D1051" s="4" t="s">
@@ -44503,7 +44506,7 @@
     </row>
     <row r="1052" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1052" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1339</v>
       </c>
       <c r="D1052" s="4" t="s">
@@ -44531,7 +44534,7 @@
     </row>
     <row r="1053" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1053" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1340</v>
       </c>
       <c r="D1053" s="4" t="s">
@@ -44559,7 +44562,7 @@
     </row>
     <row r="1054" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1054" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1341</v>
       </c>
       <c r="D1054" s="4" t="s">
@@ -44587,7 +44590,7 @@
     </row>
     <row r="1055" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1055" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1342</v>
       </c>
       <c r="D1055" s="4" t="s">
@@ -44615,7 +44618,7 @@
     </row>
     <row r="1056" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1056" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1343</v>
       </c>
       <c r="D1056" s="4" t="s">
@@ -44643,7 +44646,7 @@
     </row>
     <row r="1057" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1057" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1344</v>
       </c>
       <c r="D1057" s="4" t="s">
@@ -44671,7 +44674,7 @@
     </row>
     <row r="1058" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1058" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1345</v>
       </c>
       <c r="D1058" s="4" t="s">
@@ -44699,7 +44702,7 @@
     </row>
     <row r="1059" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1059" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1346</v>
       </c>
       <c r="D1059" s="4" t="s">
@@ -44727,7 +44730,7 @@
     </row>
     <row r="1060" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1060" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1347</v>
       </c>
       <c r="D1060" s="4" t="s">
@@ -44755,7 +44758,7 @@
     </row>
     <row r="1061" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1061" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1348</v>
       </c>
       <c r="D1061" s="4" t="s">
@@ -44783,7 +44786,7 @@
     </row>
     <row r="1062" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1062" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1349</v>
       </c>
       <c r="D1062" s="4" t="s">
@@ -44811,7 +44814,7 @@
     </row>
     <row r="1063" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1063" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1350</v>
       </c>
       <c r="D1063" s="4" t="s">
@@ -44839,7 +44842,7 @@
     </row>
     <row r="1064" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1064" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1351</v>
       </c>
       <c r="D1064" s="4" t="s">
@@ -44867,7 +44870,7 @@
     </row>
     <row r="1065" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1065" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1352</v>
       </c>
       <c r="D1065" s="4" t="s">
@@ -44895,7 +44898,7 @@
     </row>
     <row r="1066" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1066" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1353</v>
       </c>
       <c r="D1066" s="4" t="s">
@@ -44923,7 +44926,7 @@
     </row>
     <row r="1067" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1067" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1354</v>
       </c>
       <c r="D1067" s="4" t="s">
@@ -44948,7 +44951,7 @@
     </row>
     <row r="1068" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1068" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1355</v>
       </c>
       <c r="D1068" s="4" t="s">
@@ -44976,7 +44979,7 @@
     </row>
     <row r="1069" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1069" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1356</v>
       </c>
       <c r="D1069" s="4" t="s">
@@ -45004,7 +45007,7 @@
     </row>
     <row r="1070" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1070" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1357</v>
       </c>
       <c r="D1070" s="4" t="s">
@@ -45057,7 +45060,7 @@
     </row>
     <row r="1072" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1072" s="1">
-        <f t="shared" ref="A1072:A1101" si="33">+A1071+1</f>
+        <f t="shared" ref="A1072:A1101" si="53">+A1071+1</f>
         <v>1361</v>
       </c>
       <c r="D1072" s="4" t="s">
@@ -45085,7 +45088,7 @@
     </row>
     <row r="1073" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1073" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1362</v>
       </c>
       <c r="D1073" s="4" t="s">
@@ -45113,7 +45116,7 @@
     </row>
     <row r="1074" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1074" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1363</v>
       </c>
       <c r="D1074" s="4" t="s">
@@ -45141,7 +45144,7 @@
     </row>
     <row r="1075" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1075" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1364</v>
       </c>
       <c r="D1075" s="4" t="s">
@@ -45169,7 +45172,7 @@
     </row>
     <row r="1076" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1076" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1365</v>
       </c>
       <c r="B1076" s="1" t="s">
@@ -45203,7 +45206,7 @@
     </row>
     <row r="1077" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1077" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1366</v>
       </c>
       <c r="D1077" s="4" t="s">
@@ -45231,7 +45234,7 @@
     </row>
     <row r="1078" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1078" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1367</v>
       </c>
       <c r="D1078" s="4" t="s">
@@ -45259,7 +45262,7 @@
     </row>
     <row r="1079" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1079" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1368</v>
       </c>
       <c r="D1079" s="4" t="s">
@@ -45287,7 +45290,7 @@
     </row>
     <row r="1080" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1080" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1369</v>
       </c>
       <c r="D1080" s="4" t="s">
@@ -45315,7 +45318,7 @@
     </row>
     <row r="1081" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1081" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1370</v>
       </c>
       <c r="D1081" s="4" t="s">
@@ -45343,7 +45346,7 @@
     </row>
     <row r="1082" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1082" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1371</v>
       </c>
       <c r="D1082" s="4" t="s">
@@ -45371,7 +45374,7 @@
     </row>
     <row r="1083" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1083" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1372</v>
       </c>
       <c r="D1083" s="4" t="s">
@@ -45399,7 +45402,7 @@
     </row>
     <row r="1084" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1084" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1373</v>
       </c>
       <c r="D1084" s="11" t="s">
@@ -45424,7 +45427,7 @@
     </row>
     <row r="1085" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1085" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1374</v>
       </c>
       <c r="D1085" s="4" t="s">
@@ -45452,7 +45455,7 @@
     </row>
     <row r="1086" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1086" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1375</v>
       </c>
       <c r="D1086" s="4" t="s">
@@ -45480,7 +45483,7 @@
     </row>
     <row r="1087" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1087" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1376</v>
       </c>
       <c r="D1087" s="4" t="s">
@@ -45505,7 +45508,7 @@
     </row>
     <row r="1088" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1088" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1377</v>
       </c>
       <c r="D1088" s="4" t="s">
@@ -45533,7 +45536,7 @@
     </row>
     <row r="1089" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1089" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1378</v>
       </c>
       <c r="D1089" s="4" t="s">
@@ -45561,7 +45564,7 @@
     </row>
     <row r="1090" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1090" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1379</v>
       </c>
       <c r="D1090" s="4" t="s">
@@ -45589,7 +45592,7 @@
     </row>
     <row r="1091" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1091" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1380</v>
       </c>
       <c r="D1091" s="4" t="s">
@@ -45617,7 +45620,7 @@
     </row>
     <row r="1092" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1092" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1381</v>
       </c>
       <c r="D1092" s="4" t="s">
@@ -45645,7 +45648,7 @@
     </row>
     <row r="1093" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1093" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1382</v>
       </c>
       <c r="B1093" s="1" t="s">
@@ -45676,7 +45679,7 @@
     </row>
     <row r="1094" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1094" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1383</v>
       </c>
       <c r="D1094" s="4" t="s">
@@ -45704,7 +45707,7 @@
     </row>
     <row r="1095" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1095" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1384</v>
       </c>
       <c r="D1095" s="4" t="s">
@@ -45732,7 +45735,7 @@
     </row>
     <row r="1096" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1096" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1385</v>
       </c>
       <c r="D1096" s="4" t="s">
@@ -45760,7 +45763,7 @@
     </row>
     <row r="1097" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1097" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1386</v>
       </c>
       <c r="D1097" s="4" t="s">
@@ -45788,7 +45791,7 @@
     </row>
     <row r="1098" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1098" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1387</v>
       </c>
       <c r="D1098" s="4" t="s">
@@ -45810,7 +45813,7 @@
     </row>
     <row r="1099" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1099" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1388</v>
       </c>
       <c r="D1099" s="4" t="s">
@@ -45838,7 +45841,7 @@
     </row>
     <row r="1100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1100" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1389</v>
       </c>
       <c r="D1100" s="4" t="s">
@@ -45866,7 +45869,7 @@
     </row>
     <row r="1101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1101" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1390</v>
       </c>
       <c r="D1101" s="4" t="s">
@@ -45919,7 +45922,7 @@
     </row>
     <row r="1103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1103" s="1">
-        <f t="shared" ref="A1103:A1109" si="34">+A1102+1</f>
+        <f t="shared" ref="A1103:A1109" si="54">+A1102+1</f>
         <v>1395</v>
       </c>
       <c r="D1103" s="4" t="s">
@@ -45947,7 +45950,7 @@
     </row>
     <row r="1104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1104" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>1396</v>
       </c>
       <c r="D1104" s="4" t="s">
@@ -45969,7 +45972,7 @@
     </row>
     <row r="1105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1105" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>1397</v>
       </c>
       <c r="D1105" s="4" t="s">
@@ -45997,7 +46000,7 @@
     </row>
     <row r="1106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1106" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>1398</v>
       </c>
       <c r="D1106" s="4" t="s">
@@ -46025,7 +46028,7 @@
     </row>
     <row r="1107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1107" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>1399</v>
       </c>
       <c r="D1107" s="4" t="s">
@@ -46053,7 +46056,7 @@
     </row>
     <row r="1108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1108" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>1400</v>
       </c>
       <c r="D1108" s="11" t="s">
@@ -46081,7 +46084,7 @@
     </row>
     <row r="1109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1109" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>1401</v>
       </c>
       <c r="D1109" s="4" t="s">
@@ -46296,7 +46299,7 @@
     </row>
     <row r="1117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1117" s="1">
-        <f t="shared" ref="A1117:A1126" si="35">+A1116+1</f>
+        <f t="shared" ref="A1117:A1126" si="55">+A1116+1</f>
         <v>1411</v>
       </c>
       <c r="D1117" s="4" t="s">
@@ -46324,7 +46327,7 @@
     </row>
     <row r="1118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1118" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>1412</v>
       </c>
       <c r="D1118" s="4" t="s">
@@ -46352,7 +46355,7 @@
     </row>
     <row r="1119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1119" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>1413</v>
       </c>
       <c r="D1119" s="4" t="s">
@@ -46380,7 +46383,7 @@
     </row>
     <row r="1120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1120" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>1414</v>
       </c>
       <c r="D1120" s="4" t="s">
@@ -46405,7 +46408,7 @@
     </row>
     <row r="1121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1121" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>1415</v>
       </c>
       <c r="D1121" s="4" t="s">
@@ -46433,7 +46436,7 @@
     </row>
     <row r="1122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1122" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>1416</v>
       </c>
       <c r="D1122" s="4" t="s">
@@ -46461,7 +46464,7 @@
     </row>
     <row r="1123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1123" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>1417</v>
       </c>
       <c r="D1123" s="4" t="s">
@@ -46489,7 +46492,7 @@
     </row>
     <row r="1124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1124" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>1418</v>
       </c>
       <c r="D1124" s="4" t="s">
@@ -46517,7 +46520,7 @@
     </row>
     <row r="1125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1125" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>1419</v>
       </c>
       <c r="D1125" s="4" t="s">
@@ -46545,7 +46548,7 @@
     </row>
     <row r="1126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1126" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>1420</v>
       </c>
       <c r="D1126" s="4" t="s">
@@ -46688,7 +46691,7 @@
     </row>
     <row r="1131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1131" s="1">
-        <f t="shared" ref="A1131:A1162" si="36">+A1130+1</f>
+        <f t="shared" ref="A1131:A1162" si="56">+A1130+1</f>
         <v>1427</v>
       </c>
       <c r="D1131" s="4" t="s">
@@ -46716,7 +46719,7 @@
     </row>
     <row r="1132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1132" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1428</v>
       </c>
       <c r="D1132" s="4" t="s">
@@ -46744,7 +46747,7 @@
     </row>
     <row r="1133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1133" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1429</v>
       </c>
       <c r="D1133" s="4" t="s">
@@ -46772,7 +46775,7 @@
     </row>
     <row r="1134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1134" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1430</v>
       </c>
       <c r="D1134" s="4" t="s">
@@ -46800,7 +46803,7 @@
     </row>
     <row r="1135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1135" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1431</v>
       </c>
       <c r="D1135" s="4" t="s">
@@ -46828,7 +46831,7 @@
     </row>
     <row r="1136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1136" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1432</v>
       </c>
       <c r="D1136" s="4" t="s">
@@ -46856,7 +46859,7 @@
     </row>
     <row r="1137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1137" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1433</v>
       </c>
       <c r="D1137" s="4" t="s">
@@ -46884,7 +46887,7 @@
     </row>
     <row r="1138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1138" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1434</v>
       </c>
       <c r="D1138" s="4" t="s">
@@ -46912,7 +46915,7 @@
     </row>
     <row r="1139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1139" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1435</v>
       </c>
       <c r="D1139" s="4" t="s">
@@ -46940,7 +46943,7 @@
     </row>
     <row r="1140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1140" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1436</v>
       </c>
       <c r="D1140" s="4" t="s">
@@ -46968,7 +46971,7 @@
     </row>
     <row r="1141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1141" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1437</v>
       </c>
       <c r="D1141" s="4" t="s">
@@ -46996,7 +46999,7 @@
     </row>
     <row r="1142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1142" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1438</v>
       </c>
       <c r="D1142" s="4" t="s">
@@ -47024,7 +47027,7 @@
     </row>
     <row r="1143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1439</v>
       </c>
       <c r="D1143" s="4" t="s">
@@ -47052,7 +47055,7 @@
     </row>
     <row r="1144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1144" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1440</v>
       </c>
       <c r="D1144" s="4" t="s">
@@ -47080,7 +47083,7 @@
     </row>
     <row r="1145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1145" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1441</v>
       </c>
       <c r="D1145" s="4" t="s">
@@ -47108,7 +47111,7 @@
     </row>
     <row r="1146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1146" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1442</v>
       </c>
       <c r="D1146" s="4" t="s">
@@ -47136,7 +47139,7 @@
     </row>
     <row r="1147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1147" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1443</v>
       </c>
       <c r="D1147" s="4" t="s">
@@ -47164,7 +47167,7 @@
     </row>
     <row r="1148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1148" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1444</v>
       </c>
       <c r="D1148" s="4" t="s">
@@ -47192,7 +47195,7 @@
     </row>
     <row r="1149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1149" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1445</v>
       </c>
       <c r="D1149" s="4" t="s">
@@ -47220,7 +47223,7 @@
     </row>
     <row r="1150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1150" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1446</v>
       </c>
       <c r="D1150" s="11" t="s">
@@ -47242,7 +47245,7 @@
     </row>
     <row r="1151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1151" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1447</v>
       </c>
       <c r="D1151" s="4" t="s">
@@ -47270,7 +47273,7 @@
     </row>
     <row r="1152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1152" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1448</v>
       </c>
       <c r="D1152" s="4" t="s">
@@ -47298,7 +47301,7 @@
     </row>
     <row r="1153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1449</v>
       </c>
       <c r="D1153" s="4" t="s">
@@ -47323,7 +47326,7 @@
     </row>
     <row r="1154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1154" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1450</v>
       </c>
       <c r="D1154" s="4" t="s">
@@ -47351,7 +47354,7 @@
     </row>
     <row r="1155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1155" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1451</v>
       </c>
       <c r="D1155" s="4" t="s">
@@ -47379,7 +47382,7 @@
     </row>
     <row r="1156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1156" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1452</v>
       </c>
       <c r="D1156" s="4" t="s">
@@ -47407,7 +47410,7 @@
     </row>
     <row r="1157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1157" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1453</v>
       </c>
       <c r="D1157" s="4" t="s">
@@ -47435,7 +47438,7 @@
     </row>
     <row r="1158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1158" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1454</v>
       </c>
       <c r="D1158" s="4" t="s">
@@ -47463,7 +47466,7 @@
     </row>
     <row r="1159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1159" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1455</v>
       </c>
       <c r="D1159" s="4" t="s">
@@ -47491,7 +47494,7 @@
     </row>
     <row r="1160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1160" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1456</v>
       </c>
       <c r="D1160" s="4" t="s">
@@ -47519,7 +47522,7 @@
     </row>
     <row r="1161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1161" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1457</v>
       </c>
       <c r="D1161" s="4" t="s">
@@ -47547,7 +47550,7 @@
     </row>
     <row r="1162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1162" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1458</v>
       </c>
       <c r="D1162" s="4" t="s">
@@ -47575,7 +47578,7 @@
     </row>
     <row r="1163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1163" s="1">
-        <f t="shared" ref="A1163:A1193" si="37">+A1162+1</f>
+        <f t="shared" ref="A1163:A1193" si="57">+A1162+1</f>
         <v>1459</v>
       </c>
       <c r="D1163" s="4" t="s">
@@ -47603,7 +47606,7 @@
     </row>
     <row r="1164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1164" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1460</v>
       </c>
       <c r="D1164" s="4" t="s">
@@ -47628,7 +47631,7 @@
     </row>
     <row r="1165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1165" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1461</v>
       </c>
       <c r="D1165" s="4" t="s">
@@ -47653,7 +47656,7 @@
     </row>
     <row r="1166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1166" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1462</v>
       </c>
       <c r="D1166" s="4" t="s">
@@ -47681,7 +47684,7 @@
     </row>
     <row r="1167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1167" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1463</v>
       </c>
       <c r="D1167" s="4" t="s">
@@ -47709,7 +47712,7 @@
     </row>
     <row r="1168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1168" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1464</v>
       </c>
       <c r="D1168" s="4" t="s">
@@ -47737,7 +47740,7 @@
     </row>
     <row r="1169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1169" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1465</v>
       </c>
       <c r="D1169" s="4" t="s">
@@ -47762,7 +47765,7 @@
     </row>
     <row r="1170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1170" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1466</v>
       </c>
       <c r="D1170" s="4" t="s">
@@ -47790,7 +47793,7 @@
     </row>
     <row r="1171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1171" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1467</v>
       </c>
       <c r="D1171" s="4" t="s">
@@ -47818,7 +47821,7 @@
     </row>
     <row r="1172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1172" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1468</v>
       </c>
       <c r="D1172" s="4" t="s">
@@ -47846,7 +47849,7 @@
     </row>
     <row r="1173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1173" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1469</v>
       </c>
       <c r="D1173" s="4" t="s">
@@ -47871,7 +47874,7 @@
     </row>
     <row r="1174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1174" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1470</v>
       </c>
       <c r="D1174" s="4" t="s">
@@ -47896,7 +47899,7 @@
     </row>
     <row r="1175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1175" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1471</v>
       </c>
       <c r="D1175" s="4" t="s">
@@ -47924,7 +47927,7 @@
     </row>
     <row r="1176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1176" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1472</v>
       </c>
       <c r="D1176" s="4" t="s">
@@ -47952,7 +47955,7 @@
     </row>
     <row r="1177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1177" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1473</v>
       </c>
       <c r="D1177" s="4" t="s">
@@ -47980,7 +47983,7 @@
     </row>
     <row r="1178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1178" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1474</v>
       </c>
       <c r="D1178" s="4" t="s">
@@ -48005,7 +48008,7 @@
     </row>
     <row r="1179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1179" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1475</v>
       </c>
       <c r="D1179" s="4" t="s">
@@ -48033,7 +48036,7 @@
     </row>
     <row r="1180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1180" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1476</v>
       </c>
       <c r="D1180" s="4" t="s">
@@ -48061,7 +48064,7 @@
     </row>
     <row r="1181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1181" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1477</v>
       </c>
       <c r="D1181" s="4" t="s">
@@ -48089,7 +48092,7 @@
     </row>
     <row r="1182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1182" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1478</v>
       </c>
       <c r="D1182" s="4" t="s">
@@ -48111,7 +48114,7 @@
     </row>
     <row r="1183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1183" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1479</v>
       </c>
       <c r="D1183" s="4" t="s">
@@ -48139,7 +48142,7 @@
     </row>
     <row r="1184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1184" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1480</v>
       </c>
       <c r="D1184" s="4" t="s">
@@ -48167,7 +48170,7 @@
     </row>
     <row r="1185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1185" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1481</v>
       </c>
       <c r="D1185" s="4" t="s">
@@ -48195,7 +48198,7 @@
     </row>
     <row r="1186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1186" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1482</v>
       </c>
       <c r="D1186" s="4" t="s">
@@ -48211,7 +48214,7 @@
     </row>
     <row r="1187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1187" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1483</v>
       </c>
       <c r="D1187" s="4" t="s">
@@ -48239,7 +48242,7 @@
     </row>
     <row r="1188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1188" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1484</v>
       </c>
       <c r="D1188" s="4" t="s">
@@ -48267,7 +48270,7 @@
     </row>
     <row r="1189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1189" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1485</v>
       </c>
       <c r="D1189" s="4" t="s">
@@ -48295,7 +48298,7 @@
     </row>
     <row r="1190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1190" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1486</v>
       </c>
       <c r="D1190" s="4" t="s">
@@ -48323,7 +48326,7 @@
     </row>
     <row r="1191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1191" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1487</v>
       </c>
       <c r="D1191" s="4" t="s">
@@ -48351,7 +48354,7 @@
     </row>
     <row r="1192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1192" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1488</v>
       </c>
       <c r="D1192" s="4" t="s">
@@ -48379,7 +48382,7 @@
     </row>
     <row r="1193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1193" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1489</v>
       </c>
       <c r="D1193" s="4" t="s">
@@ -48404,7 +48407,7 @@
     </row>
     <row r="1194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1194" s="1">
-        <f t="shared" ref="A1194:A1225" si="38">+A1193+1</f>
+        <f t="shared" ref="A1194:A1225" si="58">+A1193+1</f>
         <v>1490</v>
       </c>
       <c r="D1194" s="4" t="s">
@@ -48432,7 +48435,7 @@
     </row>
     <row r="1195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1195" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1491</v>
       </c>
       <c r="D1195" s="4" t="s">
@@ -48460,7 +48463,7 @@
     </row>
     <row r="1196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1196" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1492</v>
       </c>
       <c r="D1196" s="4" t="s">
@@ -48488,7 +48491,7 @@
     </row>
     <row r="1197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1197" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1493</v>
       </c>
       <c r="D1197" s="4" t="s">
@@ -48516,7 +48519,7 @@
     </row>
     <row r="1198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1198" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1494</v>
       </c>
       <c r="D1198" s="4" t="s">
@@ -48544,7 +48547,7 @@
     </row>
     <row r="1199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1199" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1495</v>
       </c>
       <c r="D1199" s="4" t="s">
@@ -48572,7 +48575,7 @@
     </row>
     <row r="1200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1200" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1496</v>
       </c>
       <c r="D1200" s="4" t="s">
@@ -48600,7 +48603,7 @@
     </row>
     <row r="1201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1201" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1497</v>
       </c>
       <c r="D1201" s="4" t="s">
@@ -48628,7 +48631,7 @@
     </row>
     <row r="1202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1202" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1498</v>
       </c>
       <c r="D1202" s="4" t="s">
@@ -48656,7 +48659,7 @@
     </row>
     <row r="1203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1203" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1499</v>
       </c>
       <c r="D1203" s="4" t="s">
@@ -48684,7 +48687,7 @@
     </row>
     <row r="1204" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1204" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1500</v>
       </c>
       <c r="D1204" s="8" t="s">
@@ -48712,7 +48715,7 @@
     </row>
     <row r="1205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1205" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1501</v>
       </c>
       <c r="D1205" s="4" t="s">
@@ -48740,7 +48743,7 @@
     </row>
     <row r="1206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1206" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1502</v>
       </c>
       <c r="D1206" s="4" t="s">
@@ -48768,7 +48771,7 @@
     </row>
     <row r="1207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1207" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1503</v>
       </c>
       <c r="D1207" s="4" t="s">
@@ -48796,7 +48799,7 @@
     </row>
     <row r="1208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1208" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1504</v>
       </c>
       <c r="D1208" s="4" t="s">
@@ -48824,7 +48827,7 @@
     </row>
     <row r="1209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1209" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1505</v>
       </c>
       <c r="D1209" s="4" t="s">
@@ -48852,7 +48855,7 @@
     </row>
     <row r="1210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1210" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1506</v>
       </c>
       <c r="D1210" s="4" t="s">
@@ -48880,7 +48883,7 @@
     </row>
     <row r="1211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1507</v>
       </c>
       <c r="D1211" s="4" t="s">
@@ -48908,7 +48911,7 @@
     </row>
     <row r="1212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1212" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1508</v>
       </c>
       <c r="D1212" s="4" t="s">
@@ -48936,7 +48939,7 @@
     </row>
     <row r="1213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1213" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1509</v>
       </c>
       <c r="D1213" s="4" t="s">
@@ -48964,7 +48967,7 @@
     </row>
     <row r="1214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1214" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1510</v>
       </c>
       <c r="D1214" s="4" t="s">
@@ -48992,7 +48995,7 @@
     </row>
     <row r="1215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1215" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1511</v>
       </c>
       <c r="D1215" s="4" t="s">
@@ -49020,7 +49023,7 @@
     </row>
     <row r="1216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1216" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1512</v>
       </c>
       <c r="D1216" s="4" t="s">
@@ -49048,7 +49051,7 @@
     </row>
     <row r="1217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1217" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1513</v>
       </c>
       <c r="D1217" s="4" t="s">
@@ -49076,7 +49079,7 @@
     </row>
     <row r="1218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1218" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1514</v>
       </c>
       <c r="D1218" s="4" t="s">
@@ -49104,7 +49107,7 @@
     </row>
     <row r="1219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1219" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1515</v>
       </c>
       <c r="D1219" s="4" t="s">
@@ -49132,7 +49135,7 @@
     </row>
     <row r="1220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1220" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1516</v>
       </c>
       <c r="D1220" s="4" t="s">
@@ -49157,7 +49160,7 @@
     </row>
     <row r="1221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1221" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1517</v>
       </c>
       <c r="D1221" s="4" t="s">
@@ -49185,7 +49188,7 @@
     </row>
     <row r="1222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1222" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1518</v>
       </c>
       <c r="D1222" s="4" t="s">
@@ -49210,7 +49213,7 @@
     </row>
     <row r="1223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1223" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1519</v>
       </c>
       <c r="D1223" s="4" t="s">
@@ -49238,7 +49241,7 @@
     </row>
     <row r="1224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1224" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1520</v>
       </c>
       <c r="D1224" s="4" t="s">
@@ -49266,7 +49269,7 @@
     </row>
     <row r="1225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1225" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1521</v>
       </c>
       <c r="B1225" s="1" t="s">
@@ -57016,6 +57019,8 @@
     <hyperlink ref="D59" r:id="rId133" xr:uid="{B1B6F8EB-7F1A-4A71-A3CD-6CFD722BE3E8}"/>
     <hyperlink ref="D182" r:id="rId134" xr:uid="{262257EF-BF4F-447C-8297-AD1C42DFD34F}"/>
     <hyperlink ref="D352" r:id="rId135" xr:uid="{0D1D8FA7-37BF-437C-B306-F9EC9B0C15AA}"/>
+    <hyperlink ref="D55" r:id="rId136" xr:uid="{50ACD458-379B-4F28-B0C1-512FFFE3942D}"/>
+    <hyperlink ref="D64" r:id="rId137" xr:uid="{D945BCE9-B948-4262-B708-FC9288625FF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Screens/Largest Global MC 2-13-25.xlsx
+++ b/Screens/Largest Global MC 2-13-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\Screens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110F9573-00CC-4F34-91CC-CB618FCB8B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC18A1BD-4A11-4F70-894F-7C2FD5122797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45240" yWindow="3690" windowWidth="38715" windowHeight="17130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8790" yWindow="2175" windowWidth="33285" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5394" uniqueCount="3741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5563" uniqueCount="3745">
   <si>
     <t>Ticker</t>
   </si>
@@ -11257,6 +11257,18 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>YES; Requires 4 digits, use leading zeroes.</t>
+  </si>
+  <si>
+    <t>YES; ST. Use dash for share classes.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -11441,7 +11453,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="28" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
@@ -11523,24 +11535,13 @@
     <xf numFmtId="4" fontId="6" fillId="5" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="28" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="28" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="28" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="28" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -11913,11 +11914,11 @@
   </sheetPr>
   <dimension ref="A1:S1540"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="K135" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="F193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S159" sqref="S159"/>
+      <selection pane="bottomRight" activeCell="R218" sqref="R218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12002,57 +12003,59 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>3724</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>3689</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>3691</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>3725</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="33" t="s">
         <v>3722</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="1" t="s">
         <v>3727</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="22" t="s">
         <v>3728</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="18" t="s">
         <v>3729</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="18" t="s">
         <v>3730</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="28" t="s">
         <v>3731</v>
       </c>
-      <c r="R5" s="39"/>
-      <c r="S5" s="40" t="s">
+      <c r="R5" s="20" t="s">
+        <v>3743</v>
+      </c>
+      <c r="S5" s="35" t="s">
         <v>3736</v>
       </c>
     </row>
@@ -12101,9 +12104,8 @@
       <c r="Q6" s="28">
         <v>29.748999999999999</v>
       </c>
-      <c r="R6" s="19">
-        <f t="shared" ref="R6:R26" si="1">(Q6-$Q$4)/$Q$3</f>
-        <v>-0.47619726615682151</v>
+      <c r="R6" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>3740</v>
@@ -12160,9 +12162,8 @@
       <c r="Q7" s="28">
         <v>46.704999999999998</v>
       </c>
-      <c r="R7" s="19">
-        <f t="shared" si="1"/>
-        <v>0.8246767047976189</v>
+      <c r="R7" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>3740</v>
@@ -12214,9 +12215,8 @@
       <c r="Q8" s="28">
         <v>29.172000000000001</v>
       </c>
-      <c r="R8" s="19">
-        <f t="shared" si="1"/>
-        <v>-0.52046503457158377</v>
+      <c r="R8" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>3740</v>
@@ -12268,9 +12268,8 @@
       <c r="Q9" s="28">
         <v>38.811</v>
       </c>
-      <c r="R9" s="19">
-        <f t="shared" si="1"/>
-        <v>0.21904453171939581</v>
+      <c r="R9" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>3740</v>
@@ -12322,9 +12321,8 @@
       <c r="Q10" s="28">
         <v>38.264000000000003</v>
       </c>
-      <c r="R10" s="19">
-        <f t="shared" si="1"/>
-        <v>0.17707838037992452</v>
+      <c r="R10" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>3740</v>
@@ -12376,9 +12374,8 @@
       <c r="Q11" s="28">
         <v>45.612000000000002</v>
       </c>
-      <c r="R11" s="19">
-        <f t="shared" si="1"/>
-        <v>0.7408211226878525</v>
+      <c r="R11" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>3740</v>
@@ -12435,9 +12432,8 @@
       <c r="Q12" s="32">
         <v>74.875</v>
       </c>
-      <c r="R12" s="19">
-        <f t="shared" si="1"/>
-        <v>2.9858951384958137</v>
+      <c r="R12" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>3740</v>
@@ -12445,7 +12441,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f t="shared" ref="A13:A24" si="2">+A12+1</f>
+        <f t="shared" ref="A13:A24" si="1">+A12+1</f>
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -12489,9 +12485,8 @@
       <c r="Q13" s="28">
         <v>46.281999999999996</v>
       </c>
-      <c r="R13" s="19">
-        <f t="shared" si="1"/>
-        <v>0.7922239040360165</v>
+      <c r="R13" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>3740</v>
@@ -12499,7 +12494,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -12546,9 +12541,8 @@
       <c r="Q14" s="28">
         <v>17.135000000000002</v>
       </c>
-      <c r="R14" s="19">
-        <f t="shared" si="1"/>
-        <v>-1.4439505257474861</v>
+      <c r="R14" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>3740</v>
@@ -12556,7 +12550,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -12601,17 +12595,14 @@
       <c r="Q15" s="28">
         <v>42.720999999999997</v>
       </c>
-      <c r="R15" s="19">
-        <f t="shared" si="1"/>
-        <v>0.5190219571989817</v>
-      </c>
+      <c r="R15" s="19"/>
       <c r="S15" s="1" t="s">
         <v>3737</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -12656,9 +12647,8 @@
       <c r="Q16" s="28">
         <v>23.527000000000001</v>
       </c>
-      <c r="R16" s="19">
-        <f t="shared" si="1"/>
-        <v>-0.95355264757216274</v>
+      <c r="R16" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>3740</v>
@@ -12666,7 +12656,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -12711,9 +12701,8 @@
       <c r="Q17" s="28">
         <v>44.89</v>
       </c>
-      <c r="R17" s="19">
-        <f t="shared" si="1"/>
-        <v>0.6854288717425171</v>
+      <c r="R17" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>3740</v>
@@ -12721,7 +12710,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -12766,9 +12755,8 @@
       <c r="Q18" s="28">
         <v>29.312999999999999</v>
       </c>
-      <c r="R18" s="19">
-        <f t="shared" si="1"/>
-        <v>-0.50964743431771653</v>
+      <c r="R18" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>3740</v>
@@ -12776,7 +12764,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -12825,9 +12813,8 @@
       <c r="Q19" s="28">
         <v>25.376000000000001</v>
       </c>
-      <c r="R19" s="19">
-        <f t="shared" si="1"/>
-        <v>-0.81169631516506435</v>
+      <c r="R19" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>3740</v>
@@ -12835,7 +12822,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -12878,17 +12865,14 @@
       <c r="Q20" s="28">
         <v>28.324999999999999</v>
       </c>
-      <c r="R20" s="19">
-        <f t="shared" si="1"/>
-        <v>-0.58544735666396486</v>
-      </c>
+      <c r="R20" s="19"/>
       <c r="S20" s="1" t="s">
         <v>3737</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -12933,9 +12917,8 @@
       <c r="Q21" s="28">
         <v>26.013000000000002</v>
       </c>
-      <c r="R21" s="19">
-        <f t="shared" si="1"/>
-        <v>-0.76282531259971997</v>
+      <c r="R21" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>3740</v>
@@ -12943,7 +12926,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -12988,9 +12971,8 @@
       <c r="Q22" s="28">
         <v>34.551000000000002</v>
       </c>
-      <c r="R22" s="19">
-        <f t="shared" si="1"/>
-        <v>-0.10778509297191781</v>
+      <c r="R22" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>3740</v>
@@ -12998,7 +12980,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -13043,9 +13025,8 @@
       <c r="Q23" s="28">
         <v>36.991999999999997</v>
       </c>
-      <c r="R23" s="19">
-        <f t="shared" si="1"/>
-        <v>7.9489816387588147E-2</v>
+      <c r="R23" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>3740</v>
@@ -13053,7 +13034,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -13098,9 +13079,8 @@
       <c r="Q24" s="28">
         <v>22.988</v>
       </c>
-      <c r="R24" s="19">
-        <f t="shared" si="1"/>
-        <v>-0.99490503435822342</v>
+      <c r="R24" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>3740</v>
@@ -13153,9 +13133,8 @@
       <c r="Q25" s="28">
         <v>49.674999999999997</v>
       </c>
-      <c r="R25" s="19">
-        <f t="shared" si="1"/>
-        <v>1.0525367952514222</v>
+      <c r="R25" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>3740</v>
@@ -13208,9 +13187,8 @@
       <c r="Q26" s="28">
         <v>24.097999999999999</v>
       </c>
-      <c r="R26" s="19">
-        <f t="shared" si="1"/>
-        <v>-0.90974520257245861</v>
+      <c r="R26" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>3740</v>
@@ -13264,7 +13242,9 @@
       <c r="P27" s="28">
         <v>0.47099999999999997</v>
       </c>
-      <c r="R27" s="19"/>
+      <c r="R27" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S27" s="1" t="s">
         <v>3740</v>
       </c>
@@ -13313,7 +13293,9 @@
       </c>
       <c r="O28" s="28"/>
       <c r="P28" s="28"/>
-      <c r="R28" s="19"/>
+      <c r="R28" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S28" s="1" t="s">
         <v>3740</v>
       </c>
@@ -13360,8 +13342,7 @@
       </c>
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="42" t="s">
+      <c r="R29" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
@@ -13409,7 +13390,9 @@
       </c>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
-      <c r="R30" s="19"/>
+      <c r="R30" s="1" t="s">
+        <v>3737</v>
+      </c>
       <c r="S30" s="1" t="s">
         <v>3737</v>
       </c>
@@ -13458,9 +13441,11 @@
       </c>
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="41" t="s">
-        <v>3739</v>
+      <c r="R31" s="36" t="s">
+        <v>3744</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>3737</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -13507,7 +13492,9 @@
       </c>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
-      <c r="R32" s="19"/>
+      <c r="R32" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S32" s="1" t="s">
         <v>3740</v>
       </c>
@@ -13556,13 +13543,16 @@
       </c>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
+      <c r="R33" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S33" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <f t="shared" ref="A34:A39" si="3">+A33+1</f>
+        <f t="shared" ref="A34:A39" si="2">+A33+1</f>
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -13602,13 +13592,13 @@
       </c>
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
-      <c r="S34" s="42" t="s">
+      <c r="R34" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -13648,13 +13638,13 @@
       </c>
       <c r="O35" s="28"/>
       <c r="P35" s="28"/>
-      <c r="S35" s="42" t="s">
+      <c r="R35" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -13696,13 +13686,16 @@
       </c>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
+      <c r="R36" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S36" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -13748,13 +13741,16 @@
       <c r="P37" s="28">
         <v>0.44900000000000001</v>
       </c>
+      <c r="R37" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S37" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -13800,7 +13796,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -13842,6 +13838,9 @@
       </c>
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
+      <c r="R39" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S39" s="1" t="s">
         <v>3740</v>
       </c>
@@ -13938,6 +13937,9 @@
       <c r="P41" s="28">
         <v>2.2050000000000001</v>
       </c>
+      <c r="R41" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S41" s="1" t="s">
         <v>3740</v>
       </c>
@@ -13978,6 +13980,9 @@
         <v>54176001024</v>
       </c>
       <c r="O42" s="28"/>
+      <c r="R42" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S42" s="1" t="s">
         <v>3740</v>
       </c>
@@ -14056,6 +14061,9 @@
         <v>66361706496</v>
       </c>
       <c r="O44" s="28"/>
+      <c r="R44" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S44" s="1" t="s">
         <v>3740</v>
       </c>
@@ -14100,7 +14108,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <f t="shared" ref="A46:A59" si="4">+A45+1</f>
+        <f t="shared" ref="A46:A59" si="3">+A45+1</f>
         <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -14132,13 +14140,13 @@
         <v>22115001620.571083</v>
       </c>
       <c r="O46" s="28"/>
-      <c r="S46" s="41" t="s">
+      <c r="R46" s="36" t="s">
         <v>3739</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -14172,13 +14180,16 @@
         <v>62753001472</v>
       </c>
       <c r="O47" s="28"/>
+      <c r="R47" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S47" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -14218,7 +14229,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -14252,13 +14263,13 @@
         <v>54072999936</v>
       </c>
       <c r="O49" s="28"/>
-      <c r="S49" s="42" t="s">
+      <c r="R49" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -14292,13 +14303,16 @@
         <v>37878000640</v>
       </c>
       <c r="O50" s="28"/>
+      <c r="R50" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S50" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -14330,13 +14344,13 @@
         <v>220622661403.79028</v>
       </c>
       <c r="O51" s="28"/>
-      <c r="S51" s="41" t="s">
-        <v>3739</v>
+      <c r="S51" s="1" t="s">
+        <v>3737</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -14376,7 +14390,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -14414,7 +14428,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -14452,7 +14466,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -14490,7 +14504,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -14528,7 +14542,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -14560,13 +14574,16 @@
         <v>33004999168</v>
       </c>
       <c r="O57" s="28"/>
+      <c r="R57" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S57" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -14601,13 +14618,16 @@
         <v>1850</v>
       </c>
       <c r="O58" s="28"/>
+      <c r="R58" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S58" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -14639,6 +14659,9 @@
         <v>64167999488</v>
       </c>
       <c r="O59" s="28"/>
+      <c r="R59" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S59" s="1" t="s">
         <v>3740</v>
       </c>
@@ -14677,6 +14700,9 @@
         <v>8352099840</v>
       </c>
       <c r="O60" s="28"/>
+      <c r="R60" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S60" s="1" t="s">
         <v>3740</v>
       </c>
@@ -14715,6 +14741,9 @@
         <v>126090999808</v>
       </c>
       <c r="O61" s="28"/>
+      <c r="R61" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S61" s="1" t="s">
         <v>3740</v>
       </c>
@@ -14755,6 +14784,9 @@
         <v>42878999552</v>
       </c>
       <c r="O62" s="28"/>
+      <c r="R62" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S62" s="1" t="s">
         <v>3740</v>
       </c>
@@ -14793,6 +14825,9 @@
         <v>10984000000</v>
       </c>
       <c r="O63" s="28"/>
+      <c r="R63" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S63" s="1" t="s">
         <v>3740</v>
       </c>
@@ -14833,6 +14868,9 @@
         <v>21505000448</v>
       </c>
       <c r="O64" s="28"/>
+      <c r="R64" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S64" s="1" t="s">
         <v>3740</v>
       </c>
@@ -14871,6 +14909,9 @@
         <v>92501999616</v>
       </c>
       <c r="O65" s="28"/>
+      <c r="R65" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S65" s="1" t="s">
         <v>3740</v>
       </c>
@@ -14912,6 +14953,9 @@
         <v>1919</v>
       </c>
       <c r="O66" s="28"/>
+      <c r="R66" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S66" s="1" t="s">
         <v>3740</v>
       </c>
@@ -14950,6 +14994,9 @@
         <v>13229968128</v>
       </c>
       <c r="O67" s="28"/>
+      <c r="R67" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S67" s="1" t="s">
         <v>3740</v>
       </c>
@@ -14988,13 +15035,13 @@
         <v>47042241384.046036</v>
       </c>
       <c r="O68" s="28"/>
-      <c r="S68" s="42" t="s">
+      <c r="S68" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <f t="shared" ref="A69:A74" si="5">+A68+1</f>
+        <f t="shared" ref="A69:A74" si="4">+A68+1</f>
         <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -15032,7 +15079,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -15064,13 +15111,16 @@
         <v>40695000064</v>
       </c>
       <c r="O70" s="28"/>
+      <c r="R70" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S70" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -15108,7 +15158,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -15140,13 +15190,16 @@
         <v>122335997952</v>
       </c>
       <c r="O72" s="28"/>
+      <c r="R72" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S72" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -15178,13 +15231,16 @@
         <v>25784999424</v>
       </c>
       <c r="O73" s="28"/>
+      <c r="R73" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S73" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -15292,6 +15348,9 @@
         <v>134788001792</v>
       </c>
       <c r="O76" s="28"/>
+      <c r="R76" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S76" s="1" t="s">
         <v>3740</v>
       </c>
@@ -15330,6 +15389,9 @@
         <v>64809000960</v>
       </c>
       <c r="O77" s="28"/>
+      <c r="R77" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S77" s="1" t="s">
         <v>3740</v>
       </c>
@@ -15368,13 +15430,16 @@
         <v>51657298106.123154</v>
       </c>
       <c r="O78" s="28"/>
+      <c r="R78" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S78" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <f t="shared" ref="A79:A91" si="6">+A78+1</f>
+        <f t="shared" ref="A79:A91" si="5">+A78+1</f>
         <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -15406,13 +15471,16 @@
         <v>43978000384</v>
       </c>
       <c r="O79" s="28"/>
+      <c r="R79" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S79" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -15444,13 +15512,16 @@
         <v>80738000896</v>
       </c>
       <c r="O80" s="28"/>
+      <c r="R80" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S80" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -15482,13 +15553,16 @@
         <v>14208000000</v>
       </c>
       <c r="O81" s="28"/>
+      <c r="R81" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S81" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -15520,13 +15594,16 @@
         <v>23051999744</v>
       </c>
       <c r="O82" s="28"/>
+      <c r="R82" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S82" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -15558,13 +15635,16 @@
         <v>15641000192</v>
       </c>
       <c r="O83" s="28"/>
+      <c r="R83" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S83" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -15596,13 +15676,16 @@
         <v>16589999872</v>
       </c>
       <c r="O84" s="28"/>
+      <c r="R84" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S84" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -15634,13 +15717,16 @@
         <v>4709248064</v>
       </c>
       <c r="O85" s="28"/>
+      <c r="R85" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S85" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -15678,7 +15764,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -15716,7 +15802,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -15754,7 +15840,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -15792,7 +15878,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -15830,7 +15916,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -16166,7 +16252,7 @@
         <v>39416145354.876549</v>
       </c>
       <c r="O99" s="28"/>
-      <c r="S99" s="42" t="s">
+      <c r="S99" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
@@ -16318,7 +16404,7 @@
         <v>28675573207.823868</v>
       </c>
       <c r="O103" s="28"/>
-      <c r="S103" s="42" t="s">
+      <c r="S103" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
@@ -16356,7 +16442,7 @@
         <v>73012902629.464127</v>
       </c>
       <c r="O104" s="28"/>
-      <c r="S104" s="42" t="s">
+      <c r="S104" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
@@ -16429,7 +16515,7 @@
         <v>65728437742.866562</v>
       </c>
       <c r="O106" s="28"/>
-      <c r="S106" s="42" t="s">
+      <c r="S106" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
@@ -16466,13 +16552,13 @@
       <c r="K107" s="6">
         <v>45086521007.365936</v>
       </c>
-      <c r="S107" s="42" t="s">
+      <c r="S107" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <f t="shared" ref="A108:A114" si="7">+A107+1</f>
+        <f t="shared" ref="A108:A114" si="6">+A107+1</f>
         <v>123</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -16503,13 +16589,16 @@
       <c r="K108" s="6">
         <v>6613147008</v>
       </c>
+      <c r="R108" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S108" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -16546,7 +16635,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -16583,7 +16672,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -16620,7 +16709,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -16657,7 +16746,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -16694,7 +16783,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -17027,7 +17116,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <f t="shared" ref="A123:A129" si="8">+A122+1</f>
+        <f t="shared" ref="A123:A129" si="7">+A122+1</f>
         <v>141</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -17064,7 +17153,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>142</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -17101,7 +17190,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>143</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -17132,13 +17221,13 @@
       <c r="K125" s="6">
         <v>91608791551.812347</v>
       </c>
-      <c r="S125" s="42" t="s">
+      <c r="S125" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -17175,7 +17264,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>145</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -17212,7 +17301,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>146</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -17249,7 +17338,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>147</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -17317,6 +17406,9 @@
       <c r="K130" s="6">
         <v>32995999744</v>
       </c>
+      <c r="R130" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S130" s="1" t="s">
         <v>3740</v>
       </c>
@@ -17354,13 +17446,16 @@
       <c r="K131" s="6">
         <v>48299999232</v>
       </c>
+      <c r="R131" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S131" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <f t="shared" ref="A132:A137" si="9">+A131+1</f>
+        <f t="shared" ref="A132:A137" si="8">+A131+1</f>
         <v>153</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -17391,13 +17486,16 @@
       <c r="K132" s="6">
         <v>24457999872</v>
       </c>
+      <c r="R132" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S132" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>154</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -17428,13 +17526,16 @@
       <c r="K133" s="6">
         <v>8201609984</v>
       </c>
+      <c r="R133" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S133" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>155</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -17465,13 +17566,16 @@
       <c r="K134" s="6">
         <v>3740420992</v>
       </c>
+      <c r="R134" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S134" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>156</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -17508,7 +17612,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>157</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -17539,13 +17643,16 @@
       <c r="K136" s="6">
         <v>48977999872</v>
       </c>
+      <c r="R136" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S136" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -17576,7 +17683,7 @@
       <c r="K137" s="6">
         <v>27825115474.561134</v>
       </c>
-      <c r="S137" s="42" t="s">
+      <c r="S137" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
@@ -17613,13 +17720,13 @@
       <c r="K138" s="6">
         <v>59927001088</v>
       </c>
-      <c r="S138" s="42" t="s">
+      <c r="S138" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <f t="shared" ref="A139:A144" si="10">+A138+1</f>
+        <f t="shared" ref="A139:A144" si="9">+A138+1</f>
         <v>161</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -17650,13 +17757,13 @@
       <c r="K139" s="6">
         <v>54176000000</v>
       </c>
-      <c r="S139" s="42" t="s">
+      <c r="S139" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>162</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -17693,7 +17800,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -17724,13 +17831,13 @@
       <c r="K141" s="6">
         <v>5874000128</v>
       </c>
-      <c r="S141" s="42" t="s">
+      <c r="S141" s="37" t="s">
         <v>3738</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>164</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -17758,13 +17865,16 @@
       <c r="K142" s="6">
         <v>53100999680</v>
       </c>
+      <c r="R142" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S142" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>165</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -17795,13 +17905,16 @@
       <c r="K143" s="6">
         <v>16209088000</v>
       </c>
+      <c r="R143" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S143" s="1" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>166</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -17831,6 +17944,9 @@
       </c>
       <c r="K144" s="6">
         <v>29094000128</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>3740</v>
       </c>
       <c r="S144" s="1" t="s">
         <v>3740</v>
@@ -17906,8 +18022,8 @@
       <c r="K146" s="6">
         <v>48419373265.100449</v>
       </c>
-      <c r="S146" s="41" t="s">
-        <v>3739</v>
+      <c r="S146" s="1" t="s">
+        <v>3737</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
@@ -17943,6 +18059,9 @@
       <c r="K147" s="6">
         <v>21203699523.513329</v>
       </c>
+      <c r="S147" s="1" t="s">
+        <v>3737</v>
+      </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
@@ -17977,6 +18096,9 @@
       <c r="K148" s="6">
         <v>29210479317.004814</v>
       </c>
+      <c r="S148" s="1" t="s">
+        <v>3737</v>
+      </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
@@ -18011,6 +18133,9 @@
       <c r="K149" s="6">
         <v>9427156992</v>
       </c>
+      <c r="R149" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S149" s="1" t="s">
         <v>3740</v>
       </c>
@@ -18048,6 +18173,9 @@
       <c r="K150" s="6">
         <v>18979000064</v>
       </c>
+      <c r="R150" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S150" s="1" t="s">
         <v>3740</v>
       </c>
@@ -18085,6 +18213,9 @@
       <c r="K151" s="6">
         <v>71042999296</v>
       </c>
+      <c r="R151" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S151" s="1" t="s">
         <v>3740</v>
       </c>
@@ -18122,6 +18253,9 @@
       <c r="K152" s="6">
         <v>6862815065.9906254</v>
       </c>
+      <c r="S152" s="1" t="s">
+        <v>3737</v>
+      </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
@@ -18156,6 +18290,9 @@
       <c r="K153" s="6">
         <v>34936000512</v>
       </c>
+      <c r="R153" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S153" s="1" t="s">
         <v>3740</v>
       </c>
@@ -18193,6 +18330,9 @@
       <c r="K154" s="6">
         <v>10846957056</v>
       </c>
+      <c r="R154" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S154" s="1" t="s">
         <v>3740</v>
       </c>
@@ -18230,6 +18370,9 @@
       <c r="K155" s="6">
         <v>91069999104</v>
       </c>
+      <c r="R155" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S155" s="1" t="s">
         <v>3740</v>
       </c>
@@ -18267,6 +18410,9 @@
       <c r="K156" s="6">
         <v>9376000000</v>
       </c>
+      <c r="R156" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S156" s="1" t="s">
         <v>3740</v>
       </c>
@@ -18304,6 +18450,9 @@
       <c r="K157" s="6">
         <v>9278999808</v>
       </c>
+      <c r="R157" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S157" s="1" t="s">
         <v>3740</v>
       </c>
@@ -18341,6 +18490,9 @@
       <c r="K158" s="6">
         <v>12057140637.352072</v>
       </c>
+      <c r="S158" s="1" t="s">
+        <v>3737</v>
+      </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
@@ -18375,6 +18527,9 @@
       <c r="K159" s="6">
         <v>7991118080</v>
       </c>
+      <c r="R159" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="S159" s="1" t="s">
         <v>3740</v>
       </c>
@@ -18412,8 +18567,11 @@
       <c r="K160" s="6">
         <v>8147270093.7300816</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S160" s="1" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <f>+Discarded!A36+1</f>
         <v>192</v>
@@ -18446,8 +18604,14 @@
       <c r="K161" s="6">
         <v>7087999872</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R161" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <f>+Discarded!A42+1</f>
         <v>199</v>
@@ -18480,8 +18644,11 @@
       <c r="K162" s="6">
         <v>72119470236.897675</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S162" s="1" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <f>+Discarded!A43+1</f>
         <v>201</v>
@@ -18514,10 +18681,16 @@
       <c r="K163" s="6">
         <v>22063000064</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R163" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <f t="shared" ref="A164:A169" si="11">+A163+1</f>
+        <f t="shared" ref="A164:A169" si="10">+A163+1</f>
         <v>202</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -18548,10 +18721,13 @@
       <c r="K164" s="6">
         <v>46635349683.723099</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S164" s="1" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>203</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -18582,10 +18758,13 @@
       <c r="K165" s="6">
         <v>16827509190.221273</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S165" s="1" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>204</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -18616,10 +18795,16 @@
       <c r="K166" s="6">
         <v>23098500096</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R166" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>205</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -18650,10 +18835,16 @@
       <c r="K167" s="6">
         <v>177010995200</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R167" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>206</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -18684,10 +18875,16 @@
       <c r="K168" s="6">
         <v>20444000256</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R168" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -18715,8 +18912,14 @@
       <c r="K169" s="6">
         <v>5376399872</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R169" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <f>+Discarded!A44+1</f>
         <v>209</v>
@@ -18749,8 +18952,14 @@
       <c r="K170" s="6">
         <v>10839999872</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R170" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <f>+Discarded!A47+1</f>
         <v>211</v>
@@ -18783,10 +18992,16 @@
       <c r="K171" s="6">
         <v>6130099968</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R171" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <f t="shared" ref="A172:A177" si="12">+A171+1</f>
+        <f t="shared" ref="A172:A177" si="11">+A171+1</f>
         <v>212</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -18817,10 +19032,16 @@
       <c r="K172" s="6">
         <v>26262000128</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R172" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>213</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -18851,10 +19072,16 @@
       <c r="K173" s="6">
         <v>8748000000</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R173" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>214</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -18885,10 +19112,16 @@
       <c r="K174" s="6">
         <v>19907748352</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R174" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>215</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -18919,10 +19152,16 @@
       <c r="K175" s="6">
         <v>10035699968</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R175" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>216</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -18954,9 +19193,9 @@
         <v>19121744361.283985</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>217</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -18987,8 +19226,14 @@
       <c r="K177" s="6">
         <v>7221291677.7501431</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R177" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <f>+Discarded!A45+1</f>
         <v>220</v>
@@ -19022,7 +19267,7 @@
         <v>90620881590.430969</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <f>+A178+1</f>
         <v>221</v>
@@ -19056,7 +19301,7 @@
         <v>33069286555.040462</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <f>+Discarded!A49+1</f>
         <v>224</v>
@@ -19089,10 +19334,16 @@
       <c r="K180" s="6">
         <v>372808998912</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R180" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <f t="shared" ref="A181:A187" si="13">+A180+1</f>
+        <f t="shared" ref="A181:A187" si="12">+A180+1</f>
         <v>225</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -19123,10 +19374,16 @@
       <c r="K181" s="6">
         <v>15222699776</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R181" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>226</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -19157,10 +19414,16 @@
       <c r="K182" s="6">
         <v>5955799936</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R182" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>227</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -19191,10 +19454,16 @@
       <c r="K183" s="6">
         <v>10721999872</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R183" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>228</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -19225,10 +19494,16 @@
       <c r="K184" s="6">
         <v>247120998400</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R184" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S184" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>229</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -19259,10 +19534,16 @@
       <c r="K185" s="6">
         <v>9940477952</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R185" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>230</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -19294,9 +19575,9 @@
         <v>16716776599.982046</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>231</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -19324,8 +19605,14 @@
       <c r="K187" s="6">
         <v>4794961920</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R187" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S187" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <f>+Discarded!A62+1</f>
         <v>234</v>
@@ -19358,8 +19645,14 @@
       <c r="K188" s="6">
         <v>70603001856</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R188" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S188" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <f>+A188+1</f>
         <v>235</v>
@@ -19392,8 +19685,14 @@
       <c r="K189" s="6">
         <v>463456000</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R189" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S189" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <f>+Discarded!A63+1</f>
         <v>237</v>
@@ -19426,8 +19725,14 @@
       <c r="K190" s="6">
         <v>4353905984</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R190" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <f>+A190+1</f>
         <v>238</v>
@@ -19460,8 +19765,14 @@
       <c r="K191" s="6">
         <v>6265677056</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R191" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <f>+A191+1</f>
         <v>239</v>
@@ -19494,8 +19805,14 @@
       <c r="K192" s="6">
         <v>26561999872</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R192" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <f>+A192+1</f>
         <v>240</v>
@@ -19528,8 +19845,14 @@
       <c r="K193" s="6">
         <v>19838100224</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R193" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S193" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <f>+A193+1</f>
         <v>241</v>
@@ -19563,7 +19886,7 @@
         <v>7257999872</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <f>+Discarded!A50+1</f>
         <v>243</v>
@@ -19597,9 +19920,9 @@
         <v>7724999769.6827784</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <f t="shared" ref="A196:A203" si="14">+A195+1</f>
+        <f t="shared" ref="A196:A203" si="13">+A195+1</f>
         <v>244</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -19630,10 +19953,16 @@
       <c r="K196" s="6">
         <v>25100000256</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R196" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S196" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>245</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -19664,10 +19993,16 @@
       <c r="K197" s="6">
         <v>36440999936</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R197" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>246</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -19698,10 +20033,16 @@
       <c r="K198" s="6">
         <v>11313850880</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R198" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S198" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>247</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -19733,9 +20074,9 @@
         <v>15347180211.145058</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>248</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -19767,9 +20108,9 @@
         <v>10818812735.89641</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>249</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -19800,10 +20141,16 @@
       <c r="K201" s="6">
         <v>10655000064</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R201" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S201" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>250</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -19834,10 +20181,16 @@
       <c r="K202" s="6">
         <v>16708478976</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R202" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S202" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>251</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -19869,7 +20222,7 @@
         <v>15229999616</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <f>+Discarded!A51+1</f>
         <v>253</v>
@@ -19902,8 +20255,14 @@
       <c r="K204" s="6">
         <v>93954000896</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R204" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S204" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <f>+A204+1</f>
         <v>254</v>
@@ -19936,8 +20295,14 @@
       <c r="K205" s="6">
         <v>11433299968</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R205" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S205" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <f>+A205+1</f>
         <v>255</v>
@@ -19970,8 +20335,14 @@
       <c r="K206" s="6">
         <v>15898000128</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R206" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S206" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <f>+Discarded!A52+1</f>
         <v>257</v>
@@ -20005,7 +20376,7 @@
         <v>205680717764.1402</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <f>+A207+1</f>
         <v>258</v>
@@ -20038,8 +20409,14 @@
       <c r="K208" s="6">
         <v>8156000000</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R208" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S208" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <f>+A208+1</f>
         <v>259</v>
@@ -20072,8 +20449,14 @@
       <c r="K209" s="6">
         <v>31797000192</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R209" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S209" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <f>+A209+1</f>
         <v>260</v>
@@ -20106,8 +20489,14 @@
       <c r="K210" s="6">
         <v>15741399808</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R210" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S210" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <f>+A210+1</f>
         <v>261</v>
@@ -20141,7 +20530,7 @@
         <v>55761838035.459976</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <f>+Discarded!A53+1</f>
         <v>263</v>
@@ -20174,8 +20563,14 @@
       <c r="K212" s="6">
         <v>344583004160</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R212" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S212" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <f>+Discarded!A54+1</f>
         <v>265</v>
@@ -20209,7 +20604,7 @@
         <v>40102856330.321213</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <f>+Discarded!A58+1</f>
         <v>270</v>
@@ -20242,8 +20637,14 @@
       <c r="K214" s="6">
         <v>5246186048</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R214" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S214" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <f>+A214+1</f>
         <v>271</v>
@@ -20276,8 +20677,14 @@
       <c r="K215" s="6">
         <v>15486057984</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R215" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S215" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <f>+A215+1</f>
         <v>272</v>
@@ -20311,7 +20718,7 @@
         <v>16524473151.990746</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <f>+A216+1</f>
         <v>273</v>
@@ -20344,8 +20751,14 @@
       <c r="K217" s="6">
         <v>9256000000</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R217" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S217" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <f>+Discarded!A60+1</f>
         <v>276</v>
@@ -20378,8 +20791,14 @@
       <c r="K218" s="6">
         <v>14201999616</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R218" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="S218" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <f>+A218+1</f>
         <v>277</v>
@@ -20413,7 +20832,7 @@
         <v>9686000128</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <f>+Discarded!A64+1</f>
         <v>279</v>
@@ -20447,7 +20866,7 @@
         <v>10615195982.28816</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <f>+Discarded!A125+1</f>
         <v>282</v>
@@ -20481,7 +20900,7 @@
         <v>38684867671.249039</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <f>+A221+1</f>
         <v>283</v>
@@ -20515,7 +20934,7 @@
         <v>35386999808</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <f>+Discarded!A68+1</f>
         <v>285</v>
@@ -20549,7 +20968,7 @@
         <v>20099999744</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <f>+Discarded!A122+1</f>
         <v>288</v>
@@ -21061,7 +21480,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <f t="shared" ref="A239:A244" si="15">+A238+1</f>
+        <f t="shared" ref="A239:A244" si="14">+A238+1</f>
         <v>308</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -21095,7 +21514,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>309</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -21129,7 +21548,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>310</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -21163,7 +21582,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>311</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -21197,7 +21616,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>312</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -21231,7 +21650,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>313</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -22950,7 +23369,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <f t="shared" ref="A295:A302" si="16">+A294+1</f>
+        <f t="shared" ref="A295:A302" si="15">+A294+1</f>
         <v>397</v>
       </c>
       <c r="B295" s="1" t="s">
@@ -22984,7 +23403,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>398</v>
       </c>
       <c r="B296" s="1" t="s">
@@ -23018,7 +23437,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>399</v>
       </c>
       <c r="B297" s="1" t="s">
@@ -23052,7 +23471,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>400</v>
       </c>
       <c r="B298" s="1" t="s">
@@ -23083,7 +23502,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>401</v>
       </c>
       <c r="B299" s="1" t="s">
@@ -23117,7 +23536,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>402</v>
       </c>
       <c r="B300" s="1" t="s">
@@ -23151,7 +23570,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>403</v>
       </c>
       <c r="B301" s="1" t="s">
@@ -23185,7 +23604,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>404</v>
       </c>
       <c r="B302" s="1" t="s">
@@ -25247,7 +25666,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <f t="shared" ref="A363:A369" si="17">+A362+1</f>
+        <f t="shared" ref="A363:A369" si="16">+A362+1</f>
         <v>496</v>
       </c>
       <c r="B363" s="1" t="s">
@@ -25281,7 +25700,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>497</v>
       </c>
       <c r="B364" s="1" t="s">
@@ -25315,7 +25734,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>498</v>
       </c>
       <c r="B365" s="1" t="s">
@@ -25346,7 +25765,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>499</v>
       </c>
       <c r="B366" s="1" t="s">
@@ -25380,7 +25799,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="B367" s="1" t="s">
@@ -25414,7 +25833,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>501</v>
       </c>
       <c r="B368" s="1" t="s">
@@ -25448,7 +25867,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>502</v>
       </c>
       <c r="B369" s="1" t="s">
@@ -26125,7 +26544,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <f t="shared" ref="A389:A394" si="18">+A388+1</f>
+        <f t="shared" ref="A389:A394" si="17">+A388+1</f>
         <v>532</v>
       </c>
       <c r="B389" s="1" t="s">
@@ -26156,7 +26575,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>533</v>
       </c>
       <c r="B390" s="1" t="s">
@@ -26190,7 +26609,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>534</v>
       </c>
       <c r="B391" s="1" t="s">
@@ -26224,7 +26643,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>535</v>
       </c>
       <c r="B392" s="1" t="s">
@@ -26258,7 +26677,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>536</v>
       </c>
       <c r="B393" s="1" t="s">
@@ -26292,7 +26711,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>537</v>
       </c>
       <c r="B394" s="1" t="s">
@@ -26496,7 +26915,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <f t="shared" ref="A400:A413" si="19">+A399+1</f>
+        <f t="shared" ref="A400:A413" si="18">+A399+1</f>
         <v>547</v>
       </c>
       <c r="B400" s="1" t="s">
@@ -26530,7 +26949,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>548</v>
       </c>
       <c r="B401" s="1" t="s">
@@ -26564,7 +26983,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>549</v>
       </c>
       <c r="B402" s="1" t="s">
@@ -26598,7 +27017,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>550</v>
       </c>
       <c r="B403" s="1" t="s">
@@ -26632,7 +27051,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>551</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -26666,7 +27085,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>552</v>
       </c>
       <c r="B405" s="1" t="s">
@@ -26700,7 +27119,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>553</v>
       </c>
       <c r="B406" s="1" t="s">
@@ -26731,7 +27150,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>554</v>
       </c>
       <c r="B407" s="1" t="s">
@@ -26765,7 +27184,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>555</v>
       </c>
       <c r="B408" s="1" t="s">
@@ -26799,7 +27218,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>556</v>
       </c>
       <c r="B409" s="1" t="s">
@@ -26833,7 +27252,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>557</v>
       </c>
       <c r="B410" s="1" t="s">
@@ -26864,7 +27283,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>558</v>
       </c>
       <c r="B411" s="1" t="s">
@@ -26898,7 +27317,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>559</v>
       </c>
       <c r="B412" s="1" t="s">
@@ -26932,7 +27351,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>560</v>
       </c>
       <c r="B413" s="1" t="s">
@@ -27229,7 +27648,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <f t="shared" ref="A422:A431" si="20">+A421+1</f>
+        <f t="shared" ref="A422:A431" si="19">+A421+1</f>
         <v>580</v>
       </c>
       <c r="B422" s="1" t="s">
@@ -27263,7 +27682,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>581</v>
       </c>
       <c r="B423" s="1" t="s">
@@ -27297,7 +27716,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>582</v>
       </c>
       <c r="B424" s="1" t="s">
@@ -27331,7 +27750,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>583</v>
       </c>
       <c r="B425" s="1" t="s">
@@ -27365,7 +27784,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>584</v>
       </c>
       <c r="B426" s="1" t="s">
@@ -27399,7 +27818,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>585</v>
       </c>
       <c r="B427" s="1" t="s">
@@ -27433,7 +27852,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>586</v>
       </c>
       <c r="B428" s="1" t="s">
@@ -27467,7 +27886,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>587</v>
       </c>
       <c r="B429" s="1" t="s">
@@ -27501,7 +27920,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>588</v>
       </c>
       <c r="B430" s="1" t="s">
@@ -27535,7 +27954,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>589</v>
       </c>
       <c r="B431" s="1" t="s">
@@ -28008,7 +28427,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <f t="shared" ref="A445:A451" si="21">+A444+1</f>
+        <f t="shared" ref="A445:A451" si="20">+A444+1</f>
         <v>612</v>
       </c>
       <c r="B445" s="1" t="s">
@@ -28042,7 +28461,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>613</v>
       </c>
       <c r="B446" s="1" t="s">
@@ -28076,7 +28495,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>614</v>
       </c>
       <c r="B447" s="1" t="s">
@@ -28110,7 +28529,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>615</v>
       </c>
       <c r="B448" s="1" t="s">
@@ -28144,7 +28563,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>616</v>
       </c>
       <c r="B449" s="1" t="s">
@@ -28178,7 +28597,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>617</v>
       </c>
       <c r="B450" s="1" t="s">
@@ -28212,7 +28631,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>618</v>
       </c>
       <c r="B451" s="1" t="s">
@@ -29464,7 +29883,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <f t="shared" ref="A488:A497" si="22">+A487+1</f>
+        <f t="shared" ref="A488:A497" si="21">+A487+1</f>
         <v>677</v>
       </c>
       <c r="B488" s="1" t="s">
@@ -29498,7 +29917,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>678</v>
       </c>
       <c r="D489" s="4" t="s">
@@ -29526,7 +29945,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>679</v>
       </c>
       <c r="D490" s="4" t="s">
@@ -29554,7 +29973,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>680</v>
       </c>
       <c r="D491" s="4" t="s">
@@ -29582,7 +30001,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>681</v>
       </c>
       <c r="D492" s="4" t="s">
@@ -29610,7 +30029,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>682</v>
       </c>
       <c r="B493" s="1" t="s">
@@ -29644,7 +30063,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>683</v>
       </c>
       <c r="D494" s="4" t="s">
@@ -29672,7 +30091,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>684</v>
       </c>
       <c r="D495" s="4" t="s">
@@ -29700,7 +30119,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>685</v>
       </c>
       <c r="D496" s="4" t="s">
@@ -29728,7 +30147,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>686</v>
       </c>
       <c r="D497" s="4" t="s">
@@ -29781,7 +30200,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <f t="shared" ref="A499:A507" si="23">+A498+1</f>
+        <f t="shared" ref="A499:A507" si="22">+A498+1</f>
         <v>689</v>
       </c>
       <c r="D499" s="4" t="s">
@@ -29809,7 +30228,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>690</v>
       </c>
       <c r="B500" s="1" t="s">
@@ -29843,7 +30262,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>691</v>
       </c>
       <c r="D501" s="4" t="s">
@@ -29871,7 +30290,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>692</v>
       </c>
       <c r="D502" s="4" t="s">
@@ -29899,7 +30318,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>693</v>
       </c>
       <c r="D503" s="4" t="s">
@@ -29927,7 +30346,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>694</v>
       </c>
       <c r="D504" s="4" t="s">
@@ -29955,7 +30374,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>695</v>
       </c>
       <c r="D505" s="4" t="s">
@@ -29983,7 +30402,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>696</v>
       </c>
       <c r="D506" s="4" t="s">
@@ -30011,7 +30430,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>697</v>
       </c>
       <c r="D507" s="4" t="s">
@@ -30073,7 +30492,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <f t="shared" ref="A509:A516" si="24">+A508+1</f>
+        <f t="shared" ref="A509:A516" si="23">+A508+1</f>
         <v>700</v>
       </c>
       <c r="D509" s="11" t="s">
@@ -30101,7 +30520,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>701</v>
       </c>
       <c r="B510" s="1" t="s">
@@ -30135,7 +30554,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>702</v>
       </c>
       <c r="D511" s="4" t="s">
@@ -30163,7 +30582,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>703</v>
       </c>
       <c r="B512" s="1" t="s">
@@ -30197,7 +30616,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>704</v>
       </c>
       <c r="D513" s="4" t="s">
@@ -30225,7 +30644,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>705</v>
       </c>
       <c r="B514" s="1" t="s">
@@ -30259,7 +30678,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>706</v>
       </c>
       <c r="D515" s="4" t="s">
@@ -30287,7 +30706,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>707</v>
       </c>
       <c r="B516" s="1" t="s">
@@ -30579,7 +30998,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <f t="shared" ref="A526:A534" si="25">+A525+1</f>
+        <f t="shared" ref="A526:A534" si="24">+A525+1</f>
         <v>725</v>
       </c>
       <c r="D526" s="4" t="s">
@@ -30607,7 +31026,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>726</v>
       </c>
       <c r="B527" s="1" t="s">
@@ -30641,7 +31060,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>727</v>
       </c>
       <c r="D528" s="4" t="s">
@@ -30669,7 +31088,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>728</v>
       </c>
       <c r="B529" s="1" t="s">
@@ -30703,7 +31122,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>729</v>
       </c>
       <c r="D530" s="4" t="s">
@@ -30725,7 +31144,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>730</v>
       </c>
       <c r="D531" s="4" t="s">
@@ -30753,7 +31172,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>731</v>
       </c>
       <c r="D532" s="4" t="s">
@@ -30781,7 +31200,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>732</v>
       </c>
       <c r="B533" s="1" t="s">
@@ -30812,7 +31231,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>733</v>
       </c>
       <c r="D534" s="4" t="s">
@@ -30868,7 +31287,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <f t="shared" ref="A536:A544" si="26">+A535+1</f>
+        <f t="shared" ref="A536:A544" si="25">+A535+1</f>
         <v>737</v>
       </c>
       <c r="D536" s="4" t="s">
@@ -30896,7 +31315,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>738</v>
       </c>
       <c r="D537" s="4" t="s">
@@ -30924,7 +31343,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>739</v>
       </c>
       <c r="D538" s="4" t="s">
@@ -30952,7 +31371,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>740</v>
       </c>
       <c r="D539" s="4" t="s">
@@ -30980,7 +31399,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>741</v>
       </c>
       <c r="D540" s="4" t="s">
@@ -31008,7 +31427,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>742</v>
       </c>
       <c r="B541" s="1" t="s">
@@ -31042,7 +31461,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>743</v>
       </c>
       <c r="D542" s="4" t="s">
@@ -31070,7 +31489,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>744</v>
       </c>
       <c r="D543" s="4" t="s">
@@ -31098,7 +31517,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>745</v>
       </c>
       <c r="D544" s="4" t="s">
@@ -31154,7 +31573,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <f t="shared" ref="A546:A561" si="27">+A545+1</f>
+        <f t="shared" ref="A546:A561" si="26">+A545+1</f>
         <v>749</v>
       </c>
       <c r="D546" s="4" t="s">
@@ -31182,7 +31601,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>750</v>
       </c>
       <c r="D547" s="4" t="s">
@@ -31210,7 +31629,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>751</v>
       </c>
       <c r="B548" s="1" t="s">
@@ -31244,7 +31663,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>752</v>
       </c>
       <c r="D549" s="4" t="s">
@@ -31272,7 +31691,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>753</v>
       </c>
       <c r="B550" s="1" t="s">
@@ -31306,7 +31725,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>754</v>
       </c>
       <c r="D551" s="4" t="s">
@@ -31334,7 +31753,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>755</v>
       </c>
       <c r="B552" s="1" t="s">
@@ -31368,7 +31787,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>756</v>
       </c>
       <c r="D553" s="4" t="s">
@@ -31396,7 +31815,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>757</v>
       </c>
       <c r="D554" s="4" t="s">
@@ -31424,7 +31843,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>758</v>
       </c>
       <c r="D555" s="4" t="s">
@@ -31452,7 +31871,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>759</v>
       </c>
       <c r="D556" s="4" t="s">
@@ -31480,7 +31899,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>760</v>
       </c>
       <c r="D557" s="4" t="s">
@@ -31508,7 +31927,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>761</v>
       </c>
       <c r="D558" s="4" t="s">
@@ -31536,7 +31955,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>762</v>
       </c>
       <c r="D559" s="4" t="s">
@@ -31564,7 +31983,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>763</v>
       </c>
       <c r="B560" s="1" t="s">
@@ -31598,7 +32017,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>764</v>
       </c>
       <c r="D561" s="4" t="s">
@@ -31865,7 +32284,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
-        <f t="shared" ref="A570:A576" si="28">+A569+1</f>
+        <f t="shared" ref="A570:A576" si="27">+A569+1</f>
         <v>777</v>
       </c>
       <c r="D570" s="4" t="s">
@@ -31893,7 +32312,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>778</v>
       </c>
       <c r="D571" s="4" t="s">
@@ -31921,7 +32340,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>779</v>
       </c>
       <c r="D572" s="4" t="s">
@@ -31949,7 +32368,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>780</v>
       </c>
       <c r="B573" s="1" t="s">
@@ -31983,7 +32402,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>781</v>
       </c>
       <c r="D574" s="4" t="s">
@@ -32011,7 +32430,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>782</v>
       </c>
       <c r="D575" s="4" t="s">
@@ -32039,7 +32458,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>783</v>
       </c>
       <c r="D576" s="4" t="s">
@@ -32157,7 +32576,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <f t="shared" ref="A580:A589" si="29">+A579+1</f>
+        <f t="shared" ref="A580:A589" si="28">+A579+1</f>
         <v>789</v>
       </c>
       <c r="D580" s="4" t="s">
@@ -32185,7 +32604,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>790</v>
       </c>
       <c r="D581" s="4" t="s">
@@ -32213,7 +32632,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>791</v>
       </c>
       <c r="D582" s="4" t="s">
@@ -32241,7 +32660,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>792</v>
       </c>
       <c r="D583" s="4" t="s">
@@ -32269,7 +32688,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>793</v>
       </c>
       <c r="D584" s="4" t="s">
@@ -32297,7 +32716,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>794</v>
       </c>
       <c r="B585" s="1" t="s">
@@ -32331,7 +32750,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>795</v>
       </c>
       <c r="D586" s="4" t="s">
@@ -32356,7 +32775,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>796</v>
       </c>
       <c r="D587" s="4" t="s">
@@ -32384,7 +32803,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>797</v>
       </c>
       <c r="B588" s="1" t="s">
@@ -32418,7 +32837,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>798</v>
       </c>
       <c r="B589" s="1" t="s">
@@ -32480,7 +32899,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
-        <f t="shared" ref="A591:A608" si="30">+A590+1</f>
+        <f t="shared" ref="A591:A608" si="29">+A590+1</f>
         <v>802</v>
       </c>
       <c r="D591" s="4" t="s">
@@ -32508,7 +32927,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>803</v>
       </c>
       <c r="D592" s="4" t="s">
@@ -32536,7 +32955,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>804</v>
       </c>
       <c r="D593" s="4" t="s">
@@ -32564,7 +32983,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>805</v>
       </c>
       <c r="D594" s="4" t="s">
@@ -32592,7 +33011,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>806</v>
       </c>
       <c r="D595" s="4" t="s">
@@ -32620,7 +33039,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>807</v>
       </c>
       <c r="B596" s="1" t="s">
@@ -32654,7 +33073,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>808</v>
       </c>
       <c r="D597" s="4" t="s">
@@ -32682,7 +33101,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>809</v>
       </c>
       <c r="D598" s="4" t="s">
@@ -32710,7 +33129,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>810</v>
       </c>
       <c r="D599" s="4" t="s">
@@ -32735,7 +33154,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>811</v>
       </c>
       <c r="D600" s="4" t="s">
@@ -32763,7 +33182,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>812</v>
       </c>
       <c r="D601" s="4" t="s">
@@ -32791,7 +33210,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>813</v>
       </c>
       <c r="D602" s="4" t="s">
@@ -32819,7 +33238,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>814</v>
       </c>
       <c r="D603" s="4" t="s">
@@ -32847,7 +33266,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>815</v>
       </c>
       <c r="B604" s="1" t="s">
@@ -32881,7 +33300,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>816</v>
       </c>
       <c r="D605" s="4" t="s">
@@ -32909,7 +33328,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>817</v>
       </c>
       <c r="B606" s="1" t="s">
@@ -32943,7 +33362,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>818</v>
       </c>
       <c r="D607" s="4" t="s">
@@ -32968,7 +33387,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>819</v>
       </c>
       <c r="B608" s="1" t="s">
@@ -33036,7 +33455,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
-        <f t="shared" ref="A610:A615" si="31">+A609+1</f>
+        <f t="shared" ref="A610:A615" si="30">+A609+1</f>
         <v>823</v>
       </c>
       <c r="B610" s="1" t="s">
@@ -33070,7 +33489,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>824</v>
       </c>
       <c r="D611" s="4" t="s">
@@ -33098,7 +33517,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>825</v>
       </c>
       <c r="D612" s="4" t="s">
@@ -33123,7 +33542,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>826</v>
       </c>
       <c r="B613" s="1" t="s">
@@ -33157,7 +33576,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>827</v>
       </c>
       <c r="D614" s="4" t="s">
@@ -33185,7 +33604,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>828</v>
       </c>
       <c r="D615" s="11" t="s">
@@ -34366,7 +34785,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
-        <f t="shared" ref="A656:A675" si="32">+A655+1</f>
+        <f t="shared" ref="A656:A675" si="31">+A655+1</f>
         <v>889</v>
       </c>
       <c r="D656" s="4" t="s">
@@ -34394,7 +34813,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>890</v>
       </c>
       <c r="D657" s="4" t="s">
@@ -34422,7 +34841,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>891</v>
       </c>
       <c r="D658" s="4" t="s">
@@ -34447,7 +34866,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>892</v>
       </c>
       <c r="D659" s="4" t="s">
@@ -34475,7 +34894,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>893</v>
       </c>
       <c r="D660" s="4" t="s">
@@ -34503,7 +34922,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>894</v>
       </c>
       <c r="D661" s="4" t="s">
@@ -34531,7 +34950,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>895</v>
       </c>
       <c r="D662" s="4" t="s">
@@ -34559,7 +34978,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>896</v>
       </c>
       <c r="D663" s="4" t="s">
@@ -34587,7 +35006,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>897</v>
       </c>
       <c r="D664" s="4" t="s">
@@ -34615,7 +35034,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>898</v>
       </c>
       <c r="D665" s="4" t="s">
@@ -34643,7 +35062,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>899</v>
       </c>
       <c r="D666" s="4" t="s">
@@ -34671,7 +35090,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>900</v>
       </c>
       <c r="D667" s="4" t="s">
@@ -34699,7 +35118,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>901</v>
       </c>
       <c r="D668" s="4" t="s">
@@ -34727,7 +35146,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>902</v>
       </c>
       <c r="B669" s="1" t="s">
@@ -34758,7 +35177,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>903</v>
       </c>
       <c r="D670" s="4" t="s">
@@ -34783,7 +35202,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>904</v>
       </c>
       <c r="D671" s="4" t="s">
@@ -34811,7 +35230,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>905</v>
       </c>
       <c r="D672" s="4" t="s">
@@ -34839,7 +35258,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>906</v>
       </c>
       <c r="D673" s="4" t="s">
@@ -34867,7 +35286,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>907</v>
       </c>
       <c r="D674" s="4" t="s">
@@ -34895,7 +35314,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>908</v>
       </c>
       <c r="D675" s="4" t="s">
@@ -35119,7 +35538,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
-        <f t="shared" ref="A683:A689" si="33">+A682+1</f>
+        <f t="shared" ref="A683:A689" si="32">+A682+1</f>
         <v>918</v>
       </c>
       <c r="D683" s="4" t="s">
@@ -35147,7 +35566,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>919</v>
       </c>
       <c r="B684" s="1" t="s">
@@ -35178,7 +35597,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>920</v>
       </c>
       <c r="D685" s="4" t="s">
@@ -35206,7 +35625,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>921</v>
       </c>
       <c r="D686" s="4" t="s">
@@ -35234,7 +35653,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>922</v>
       </c>
       <c r="D687" s="4" t="s">
@@ -35259,7 +35678,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>923</v>
       </c>
       <c r="D688" s="4" t="s">
@@ -35287,7 +35706,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>924</v>
       </c>
       <c r="D689" s="4" t="s">
@@ -35343,7 +35762,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
-        <f t="shared" ref="A691:A699" si="34">+A690+1</f>
+        <f t="shared" ref="A691:A699" si="33">+A690+1</f>
         <v>927</v>
       </c>
       <c r="B691" s="1" t="s">
@@ -35377,7 +35796,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>928</v>
       </c>
       <c r="D692" s="4" t="s">
@@ -35405,7 +35824,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>929</v>
       </c>
       <c r="D693" s="4" t="s">
@@ -35433,7 +35852,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>930</v>
       </c>
       <c r="D694" s="4" t="s">
@@ -35461,7 +35880,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>931</v>
       </c>
       <c r="D695" s="4" t="s">
@@ -35489,7 +35908,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>932</v>
       </c>
       <c r="D696" s="4" t="s">
@@ -35517,7 +35936,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>933</v>
       </c>
       <c r="B697" s="1" t="s">
@@ -35548,7 +35967,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>934</v>
       </c>
       <c r="D698" s="4" t="s">
@@ -35576,7 +35995,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>935</v>
       </c>
       <c r="D699" s="4" t="s">
@@ -36067,7 +36486,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
-        <f t="shared" ref="A716:A724" si="35">+A715+1</f>
+        <f t="shared" ref="A716:A724" si="34">+A715+1</f>
         <v>960</v>
       </c>
       <c r="D716" s="4" t="s">
@@ -36095,7 +36514,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>961</v>
       </c>
       <c r="B717" s="1" t="s">
@@ -36129,7 +36548,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>962</v>
       </c>
       <c r="D718" s="4" t="s">
@@ -36157,7 +36576,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>963</v>
       </c>
       <c r="D719" s="4" t="s">
@@ -36182,7 +36601,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>964</v>
       </c>
       <c r="D720" s="4" t="s">
@@ -36210,7 +36629,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>965</v>
       </c>
       <c r="D721" s="4" t="s">
@@ -36238,7 +36657,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>966</v>
       </c>
       <c r="D722" s="4" t="s">
@@ -36266,7 +36685,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>967</v>
       </c>
       <c r="D723" s="4" t="s">
@@ -36294,7 +36713,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>968</v>
       </c>
       <c r="D724" s="4" t="s">
@@ -36692,7 +37111,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
-        <f t="shared" ref="A738:A745" si="36">+A737+1</f>
+        <f t="shared" ref="A738:A745" si="35">+A737+1</f>
         <v>987</v>
       </c>
       <c r="D738" s="4" t="s">
@@ -36720,7 +37139,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>988</v>
       </c>
       <c r="B739" s="1" t="s">
@@ -36754,7 +37173,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>989</v>
       </c>
       <c r="D740" s="4" t="s">
@@ -36782,7 +37201,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>990</v>
       </c>
       <c r="D741" s="4" t="s">
@@ -36810,7 +37229,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>991</v>
       </c>
       <c r="D742" s="4" t="s">
@@ -36838,7 +37257,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>992</v>
       </c>
       <c r="D743" s="4" t="s">
@@ -36866,7 +37285,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>993</v>
       </c>
       <c r="D744" s="4" t="s">
@@ -36894,7 +37313,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>994</v>
       </c>
       <c r="B745" s="1" t="s">
@@ -37093,7 +37512,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
-        <f t="shared" ref="A752:A770" si="37">+A751+1</f>
+        <f t="shared" ref="A752:A770" si="36">+A751+1</f>
         <v>1007</v>
       </c>
       <c r="D752" s="4" t="s">
@@ -37121,7 +37540,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1008</v>
       </c>
       <c r="D753" s="4" t="s">
@@ -37149,7 +37568,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1009</v>
       </c>
       <c r="D754" s="4" t="s">
@@ -37177,7 +37596,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1010</v>
       </c>
       <c r="D755" s="4" t="s">
@@ -37205,7 +37624,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1011</v>
       </c>
       <c r="D756" s="4" t="s">
@@ -37233,7 +37652,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1012</v>
       </c>
       <c r="D757" s="4" t="s">
@@ -37261,7 +37680,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1013</v>
       </c>
       <c r="B758" s="1" t="s">
@@ -37295,7 +37714,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1014</v>
       </c>
       <c r="D759" s="4" t="s">
@@ -37323,7 +37742,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1015</v>
       </c>
       <c r="D760" s="4" t="s">
@@ -37351,7 +37770,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1016</v>
       </c>
       <c r="D761" s="4" t="s">
@@ -37379,7 +37798,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1017</v>
       </c>
       <c r="D762" s="4" t="s">
@@ -37407,7 +37826,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1018</v>
       </c>
       <c r="B763" s="1" t="s">
@@ -37441,7 +37860,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1019</v>
       </c>
       <c r="D764" s="4" t="s">
@@ -37466,7 +37885,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1020</v>
       </c>
       <c r="B765" s="1" t="s">
@@ -37500,7 +37919,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1021</v>
       </c>
       <c r="D766" s="4" t="s">
@@ -37528,7 +37947,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1022</v>
       </c>
       <c r="D767" s="4" t="s">
@@ -37553,7 +37972,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1023</v>
       </c>
       <c r="D768" s="4" t="s">
@@ -37581,7 +38000,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1024</v>
       </c>
       <c r="D769" s="4" t="s">
@@ -37609,7 +38028,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1025</v>
       </c>
       <c r="D770" s="4" t="s">
@@ -38020,7 +38439,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
-        <f t="shared" ref="A785:A798" si="38">+A784+1</f>
+        <f t="shared" ref="A785:A798" si="37">+A784+1</f>
         <v>1047</v>
       </c>
       <c r="D785" s="4" t="s">
@@ -38048,7 +38467,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1048</v>
       </c>
       <c r="D786" s="4" t="s">
@@ -38076,7 +38495,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1049</v>
       </c>
       <c r="D787" s="4" t="s">
@@ -38104,7 +38523,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1050</v>
       </c>
       <c r="D788" s="4" t="s">
@@ -38132,7 +38551,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1051</v>
       </c>
       <c r="D789" s="4" t="s">
@@ -38160,7 +38579,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1052</v>
       </c>
       <c r="B790" s="1" t="s">
@@ -38194,7 +38613,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1053</v>
       </c>
       <c r="D791" s="4" t="s">
@@ -38219,7 +38638,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1054</v>
       </c>
       <c r="D792" s="11" t="s">
@@ -38244,7 +38663,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1055</v>
       </c>
       <c r="D793" s="4" t="s">
@@ -38272,7 +38691,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1056</v>
       </c>
       <c r="D794" s="11" t="s">
@@ -38297,7 +38716,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1057</v>
       </c>
       <c r="D795" s="4" t="s">
@@ -38325,7 +38744,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1058</v>
       </c>
       <c r="D796" s="4" t="s">
@@ -38353,7 +38772,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1059</v>
       </c>
       <c r="D797" s="4" t="s">
@@ -38381,7 +38800,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1060</v>
       </c>
       <c r="B798" s="1" t="s">
@@ -38440,7 +38859,7 @@
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
-        <f t="shared" ref="A800:A820" si="39">+A799+1</f>
+        <f t="shared" ref="A800:A820" si="38">+A799+1</f>
         <v>1063</v>
       </c>
       <c r="D800" s="4" t="s">
@@ -38468,7 +38887,7 @@
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1064</v>
       </c>
       <c r="D801" s="4" t="s">
@@ -38496,7 +38915,7 @@
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1065</v>
       </c>
       <c r="D802" s="4" t="s">
@@ -38524,7 +38943,7 @@
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1066</v>
       </c>
       <c r="D803" s="4" t="s">
@@ -38552,7 +38971,7 @@
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1067</v>
       </c>
       <c r="D804" s="4" t="s">
@@ -38580,7 +38999,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1068</v>
       </c>
       <c r="D805" s="4" t="s">
@@ -38608,7 +39027,7 @@
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1069</v>
       </c>
       <c r="D806" s="4" t="s">
@@ -38636,7 +39055,7 @@
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1070</v>
       </c>
       <c r="D807" s="4" t="s">
@@ -38664,7 +39083,7 @@
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1071</v>
       </c>
       <c r="D808" s="11" t="s">
@@ -38692,7 +39111,7 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1072</v>
       </c>
       <c r="D809" s="4" t="s">
@@ -38720,7 +39139,7 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1073</v>
       </c>
       <c r="D810" s="4" t="s">
@@ -38748,7 +39167,7 @@
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1074</v>
       </c>
       <c r="D811" s="4" t="s">
@@ -38776,7 +39195,7 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1075</v>
       </c>
       <c r="D812" s="4" t="s">
@@ -38801,7 +39220,7 @@
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1076</v>
       </c>
       <c r="D813" s="4" t="s">
@@ -38829,7 +39248,7 @@
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1077</v>
       </c>
       <c r="D814" s="4" t="s">
@@ -38857,7 +39276,7 @@
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1078</v>
       </c>
       <c r="D815" s="4" t="s">
@@ -38885,7 +39304,7 @@
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1079</v>
       </c>
       <c r="D816" s="4" t="s">
@@ -38913,7 +39332,7 @@
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1080</v>
       </c>
       <c r="D817" s="4" t="s">
@@ -38941,7 +39360,7 @@
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1081</v>
       </c>
       <c r="D818" s="4" t="s">
@@ -38969,7 +39388,7 @@
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1082</v>
       </c>
       <c r="D819" s="4" t="s">
@@ -38997,7 +39416,7 @@
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1083</v>
       </c>
       <c r="D820" s="4" t="s">
@@ -39081,7 +39500,7 @@
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
-        <f t="shared" ref="A823:A830" si="40">+A822+1</f>
+        <f t="shared" ref="A823:A830" si="39">+A822+1</f>
         <v>1088</v>
       </c>
       <c r="D823" s="4" t="s">
@@ -39109,7 +39528,7 @@
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1089</v>
       </c>
       <c r="D824" s="4" t="s">
@@ -39137,7 +39556,7 @@
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1090</v>
       </c>
       <c r="D825" s="4" t="s">
@@ -39165,7 +39584,7 @@
     </row>
     <row r="826" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1091</v>
       </c>
       <c r="D826" s="4" t="s">
@@ -39193,7 +39612,7 @@
     </row>
     <row r="827" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1092</v>
       </c>
       <c r="D827" s="4" t="s">
@@ -39221,7 +39640,7 @@
     </row>
     <row r="828" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1093</v>
       </c>
       <c r="D828" s="4" t="s">
@@ -39249,7 +39668,7 @@
     </row>
     <row r="829" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1094</v>
       </c>
       <c r="D829" s="4" t="s">
@@ -39277,7 +39696,7 @@
     </row>
     <row r="830" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1095</v>
       </c>
       <c r="D830" s="4" t="s">
@@ -39445,7 +39864,7 @@
     </row>
     <row r="836" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
-        <f t="shared" ref="A836:A846" si="41">+A835+1</f>
+        <f t="shared" ref="A836:A846" si="40">+A835+1</f>
         <v>1103</v>
       </c>
       <c r="D836" s="4" t="s">
@@ -39473,7 +39892,7 @@
     </row>
     <row r="837" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1104</v>
       </c>
       <c r="D837" s="4" t="s">
@@ -39501,7 +39920,7 @@
     </row>
     <row r="838" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1105</v>
       </c>
       <c r="D838" s="4" t="s">
@@ -39529,7 +39948,7 @@
     </row>
     <row r="839" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1106</v>
       </c>
       <c r="D839" s="4" t="s">
@@ -39557,7 +39976,7 @@
     </row>
     <row r="840" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1107</v>
       </c>
       <c r="B840" s="1" t="s">
@@ -39591,7 +40010,7 @@
     </row>
     <row r="841" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1108</v>
       </c>
       <c r="D841" s="4" t="s">
@@ -39619,7 +40038,7 @@
     </row>
     <row r="842" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1109</v>
       </c>
       <c r="D842" s="4" t="s">
@@ -39647,7 +40066,7 @@
     </row>
     <row r="843" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1110</v>
       </c>
       <c r="D843" s="4" t="s">
@@ -39675,7 +40094,7 @@
     </row>
     <row r="844" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1111</v>
       </c>
       <c r="D844" s="4" t="s">
@@ -39703,7 +40122,7 @@
     </row>
     <row r="845" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1112</v>
       </c>
       <c r="D845" s="4" t="s">
@@ -39728,7 +40147,7 @@
     </row>
     <row r="846" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1113</v>
       </c>
       <c r="D846" s="4" t="s">
@@ -39812,7 +40231,7 @@
     </row>
     <row r="849" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
-        <f t="shared" ref="A849:A868" si="42">+A848+1</f>
+        <f t="shared" ref="A849:A868" si="41">+A848+1</f>
         <v>1119</v>
       </c>
       <c r="D849" s="4" t="s">
@@ -39840,7 +40259,7 @@
     </row>
     <row r="850" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1120</v>
       </c>
       <c r="B850" s="1" t="s">
@@ -39871,7 +40290,7 @@
     </row>
     <row r="851" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1121</v>
       </c>
       <c r="B851" s="1" t="s">
@@ -39905,7 +40324,7 @@
     </row>
     <row r="852" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1122</v>
       </c>
       <c r="D852" s="4" t="s">
@@ -39933,7 +40352,7 @@
     </row>
     <row r="853" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1123</v>
       </c>
       <c r="D853" s="4" t="s">
@@ -39961,7 +40380,7 @@
     </row>
     <row r="854" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1124</v>
       </c>
       <c r="D854" s="4" t="s">
@@ -39989,7 +40408,7 @@
     </row>
     <row r="855" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1125</v>
       </c>
       <c r="D855" s="4" t="s">
@@ -40017,7 +40436,7 @@
     </row>
     <row r="856" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1126</v>
       </c>
       <c r="D856" s="4" t="s">
@@ -40045,7 +40464,7 @@
     </row>
     <row r="857" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1127</v>
       </c>
       <c r="D857" s="4" t="s">
@@ -40073,7 +40492,7 @@
     </row>
     <row r="858" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1128</v>
       </c>
       <c r="D858" s="4" t="s">
@@ -40101,7 +40520,7 @@
     </row>
     <row r="859" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1129</v>
       </c>
       <c r="D859" s="4" t="s">
@@ -40126,7 +40545,7 @@
     </row>
     <row r="860" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1130</v>
       </c>
       <c r="D860" s="4" t="s">
@@ -40154,7 +40573,7 @@
     </row>
     <row r="861" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1131</v>
       </c>
       <c r="D861" s="4" t="s">
@@ -40182,7 +40601,7 @@
     </row>
     <row r="862" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1132</v>
       </c>
       <c r="D862" s="4" t="s">
@@ -40210,7 +40629,7 @@
     </row>
     <row r="863" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1133</v>
       </c>
       <c r="D863" s="4" t="s">
@@ -40238,7 +40657,7 @@
     </row>
     <row r="864" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1134</v>
       </c>
       <c r="D864" s="4" t="s">
@@ -40266,7 +40685,7 @@
     </row>
     <row r="865" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A865" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1135</v>
       </c>
       <c r="D865" s="8" t="s">
@@ -40298,7 +40717,7 @@
     </row>
     <row r="866" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1136</v>
       </c>
       <c r="D866" s="4" t="s">
@@ -40326,7 +40745,7 @@
     </row>
     <row r="867" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1137</v>
       </c>
       <c r="D867" s="4" t="s">
@@ -40354,7 +40773,7 @@
     </row>
     <row r="868" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1138</v>
       </c>
       <c r="D868" s="4" t="s">
@@ -40410,7 +40829,7 @@
     </row>
     <row r="870" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
-        <f t="shared" ref="A870:A886" si="43">+A869+1</f>
+        <f t="shared" ref="A870:A886" si="42">+A869+1</f>
         <v>1141</v>
       </c>
       <c r="D870" s="4" t="s">
@@ -40438,7 +40857,7 @@
     </row>
     <row r="871" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1142</v>
       </c>
       <c r="D871" s="4" t="s">
@@ -40466,7 +40885,7 @@
     </row>
     <row r="872" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1143</v>
       </c>
       <c r="D872" s="4" t="s">
@@ -40494,7 +40913,7 @@
     </row>
     <row r="873" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1144</v>
       </c>
       <c r="D873" s="4" t="s">
@@ -40522,7 +40941,7 @@
     </row>
     <row r="874" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1145</v>
       </c>
       <c r="D874" s="4" t="s">
@@ -40550,7 +40969,7 @@
     </row>
     <row r="875" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1146</v>
       </c>
       <c r="D875" s="4" t="s">
@@ -40578,7 +40997,7 @@
     </row>
     <row r="876" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1147</v>
       </c>
       <c r="D876" s="4" t="s">
@@ -40606,7 +41025,7 @@
     </row>
     <row r="877" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1148</v>
       </c>
       <c r="D877" s="4" t="s">
@@ -40634,7 +41053,7 @@
     </row>
     <row r="878" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1149</v>
       </c>
       <c r="D878" s="4" t="s">
@@ -40662,7 +41081,7 @@
     </row>
     <row r="879" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1150</v>
       </c>
       <c r="B879" s="1" t="s">
@@ -40693,7 +41112,7 @@
     </row>
     <row r="880" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1151</v>
       </c>
       <c r="D880" s="4" t="s">
@@ -40721,7 +41140,7 @@
     </row>
     <row r="881" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1152</v>
       </c>
       <c r="D881" s="4" t="s">
@@ -40749,7 +41168,7 @@
     </row>
     <row r="882" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1153</v>
       </c>
       <c r="D882" s="4" t="s">
@@ -40777,7 +41196,7 @@
     </row>
     <row r="883" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1154</v>
       </c>
       <c r="D883" s="4" t="s">
@@ -40805,7 +41224,7 @@
     </row>
     <row r="884" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1155</v>
       </c>
       <c r="D884" s="4" t="s">
@@ -40833,7 +41252,7 @@
     </row>
     <row r="885" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1156</v>
       </c>
       <c r="D885" s="4" t="s">
@@ -40861,7 +41280,7 @@
     </row>
     <row r="886" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1157</v>
       </c>
       <c r="D886" s="4" t="s">
@@ -41085,7 +41504,7 @@
     </row>
     <row r="894" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
-        <f t="shared" ref="A894:A900" si="44">+A893+1</f>
+        <f t="shared" ref="A894:A900" si="43">+A893+1</f>
         <v>1167</v>
       </c>
       <c r="D894" s="4" t="s">
@@ -41113,7 +41532,7 @@
     </row>
     <row r="895" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>1168</v>
       </c>
       <c r="D895" s="4" t="s">
@@ -41141,7 +41560,7 @@
     </row>
     <row r="896" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>1169</v>
       </c>
       <c r="D896" s="4" t="s">
@@ -41169,7 +41588,7 @@
     </row>
     <row r="897" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>1170</v>
       </c>
       <c r="D897" s="4" t="s">
@@ -41197,7 +41616,7 @@
     </row>
     <row r="898" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>1171</v>
       </c>
       <c r="D898" s="4" t="s">
@@ -41225,7 +41644,7 @@
     </row>
     <row r="899" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>1172</v>
       </c>
       <c r="D899" s="4" t="s">
@@ -41250,7 +41669,7 @@
     </row>
     <row r="900" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>1173</v>
       </c>
       <c r="D900" s="4" t="s">
@@ -41396,7 +41815,7 @@
     </row>
     <row r="905" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
-        <f t="shared" ref="A905:A913" si="45">+A904+1</f>
+        <f t="shared" ref="A905:A913" si="44">+A904+1</f>
         <v>1180</v>
       </c>
       <c r="D905" s="4" t="s">
@@ -41424,7 +41843,7 @@
     </row>
     <row r="906" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1181</v>
       </c>
       <c r="D906" s="4" t="s">
@@ -41452,7 +41871,7 @@
     </row>
     <row r="907" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1182</v>
       </c>
       <c r="D907" s="4" t="s">
@@ -41480,7 +41899,7 @@
     </row>
     <row r="908" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1183</v>
       </c>
       <c r="D908" s="4" t="s">
@@ -41508,7 +41927,7 @@
     </row>
     <row r="909" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1184</v>
       </c>
       <c r="D909" s="4" t="s">
@@ -41536,7 +41955,7 @@
     </row>
     <row r="910" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1185</v>
       </c>
       <c r="D910" s="4" t="s">
@@ -41564,7 +41983,7 @@
     </row>
     <row r="911" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1186</v>
       </c>
       <c r="D911" s="4" t="s">
@@ -41592,7 +42011,7 @@
     </row>
     <row r="912" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1187</v>
       </c>
       <c r="D912" s="4" t="s">
@@ -41620,7 +42039,7 @@
     </row>
     <row r="913" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1188</v>
       </c>
       <c r="D913" s="4" t="s">
@@ -41676,7 +42095,7 @@
     </row>
     <row r="915" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
-        <f t="shared" ref="A915:A953" si="46">+A914+1</f>
+        <f t="shared" ref="A915:A953" si="45">+A914+1</f>
         <v>1191</v>
       </c>
       <c r="D915" s="4" t="s">
@@ -41704,7 +42123,7 @@
     </row>
     <row r="916" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1192</v>
       </c>
       <c r="D916" s="4" t="s">
@@ -41732,7 +42151,7 @@
     </row>
     <row r="917" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1193</v>
       </c>
       <c r="D917" s="11" t="s">
@@ -41760,7 +42179,7 @@
     </row>
     <row r="918" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1194</v>
       </c>
       <c r="D918" s="4" t="s">
@@ -41788,7 +42207,7 @@
     </row>
     <row r="919" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A919" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1195</v>
       </c>
       <c r="D919" s="11" t="s">
@@ -41816,7 +42235,7 @@
     </row>
     <row r="920" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1196</v>
       </c>
       <c r="D920" s="4" t="s">
@@ -41844,7 +42263,7 @@
     </row>
     <row r="921" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1197</v>
       </c>
       <c r="D921" s="4" t="s">
@@ -41872,7 +42291,7 @@
     </row>
     <row r="922" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1198</v>
       </c>
       <c r="D922" s="4" t="s">
@@ -41900,7 +42319,7 @@
     </row>
     <row r="923" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1199</v>
       </c>
       <c r="D923" s="4" t="s">
@@ -41928,7 +42347,7 @@
     </row>
     <row r="924" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1200</v>
       </c>
       <c r="D924" s="4" t="s">
@@ -41956,7 +42375,7 @@
     </row>
     <row r="925" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1201</v>
       </c>
       <c r="D925" s="4" t="s">
@@ -41984,7 +42403,7 @@
     </row>
     <row r="926" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1202</v>
       </c>
       <c r="D926" s="4" t="s">
@@ -42012,7 +42431,7 @@
     </row>
     <row r="927" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1203</v>
       </c>
       <c r="D927" s="4" t="s">
@@ -42040,7 +42459,7 @@
     </row>
     <row r="928" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1204</v>
       </c>
       <c r="D928" s="4" t="s">
@@ -42068,7 +42487,7 @@
     </row>
     <row r="929" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1205</v>
       </c>
       <c r="D929" s="4" t="s">
@@ -42096,7 +42515,7 @@
     </row>
     <row r="930" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1206</v>
       </c>
       <c r="D930" s="4" t="s">
@@ -42124,7 +42543,7 @@
     </row>
     <row r="931" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1207</v>
       </c>
       <c r="D931" s="4" t="s">
@@ -42152,7 +42571,7 @@
     </row>
     <row r="932" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1208</v>
       </c>
       <c r="D932" s="4" t="s">
@@ -42177,7 +42596,7 @@
     </row>
     <row r="933" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1209</v>
       </c>
       <c r="B933" s="1" t="s">
@@ -42208,7 +42627,7 @@
     </row>
     <row r="934" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A934" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1210</v>
       </c>
       <c r="B934" s="1" t="s">
@@ -42242,7 +42661,7 @@
     </row>
     <row r="935" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1211</v>
       </c>
       <c r="D935" s="4" t="s">
@@ -42270,7 +42689,7 @@
     </row>
     <row r="936" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1212</v>
       </c>
       <c r="D936" s="4" t="s">
@@ -42298,7 +42717,7 @@
     </row>
     <row r="937" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A937" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1213</v>
       </c>
       <c r="D937" s="4" t="s">
@@ -42326,7 +42745,7 @@
     </row>
     <row r="938" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1214</v>
       </c>
       <c r="D938" s="4" t="s">
@@ -42354,7 +42773,7 @@
     </row>
     <row r="939" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1215</v>
       </c>
       <c r="D939" s="4" t="s">
@@ -42382,7 +42801,7 @@
     </row>
     <row r="940" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1216</v>
       </c>
       <c r="D940" s="4" t="s">
@@ -42410,7 +42829,7 @@
     </row>
     <row r="941" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1217</v>
       </c>
       <c r="D941" s="4" t="s">
@@ -42438,7 +42857,7 @@
     </row>
     <row r="942" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1218</v>
       </c>
       <c r="D942" s="4" t="s">
@@ -42466,7 +42885,7 @@
     </row>
     <row r="943" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1219</v>
       </c>
       <c r="D943" s="4" t="s">
@@ -42494,7 +42913,7 @@
     </row>
     <row r="944" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A944" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1220</v>
       </c>
       <c r="D944" s="4" t="s">
@@ -42522,7 +42941,7 @@
     </row>
     <row r="945" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A945" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1221</v>
       </c>
       <c r="D945" s="4" t="s">
@@ -42550,7 +42969,7 @@
     </row>
     <row r="946" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A946" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1222</v>
       </c>
       <c r="D946" s="4" t="s">
@@ -42575,7 +42994,7 @@
     </row>
     <row r="947" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A947" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1223</v>
       </c>
       <c r="D947" s="4" t="s">
@@ -42603,7 +43022,7 @@
     </row>
     <row r="948" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A948" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1224</v>
       </c>
       <c r="D948" s="4" t="s">
@@ -42631,7 +43050,7 @@
     </row>
     <row r="949" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A949" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1225</v>
       </c>
       <c r="D949" s="4" t="s">
@@ -42659,7 +43078,7 @@
     </row>
     <row r="950" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A950" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1226</v>
       </c>
       <c r="D950" s="4" t="s">
@@ -42687,7 +43106,7 @@
     </row>
     <row r="951" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A951" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1227</v>
       </c>
       <c r="D951" s="4" t="s">
@@ -42715,7 +43134,7 @@
     </row>
     <row r="952" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A952" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1228</v>
       </c>
       <c r="B952" s="1" t="s">
@@ -42749,7 +43168,7 @@
     </row>
     <row r="953" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A953" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1229</v>
       </c>
       <c r="D953" s="4" t="s">
@@ -42833,7 +43252,7 @@
     </row>
     <row r="956" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A956" s="1">
-        <f t="shared" ref="A956:A979" si="47">+A955+1</f>
+        <f t="shared" ref="A956:A979" si="46">+A955+1</f>
         <v>1234</v>
       </c>
       <c r="D956" s="4" t="s">
@@ -42861,7 +43280,7 @@
     </row>
     <row r="957" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A957" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1235</v>
       </c>
       <c r="D957" s="4" t="s">
@@ -42889,7 +43308,7 @@
     </row>
     <row r="958" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A958" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1236</v>
       </c>
       <c r="D958" s="4" t="s">
@@ -42917,7 +43336,7 @@
     </row>
     <row r="959" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A959" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1237</v>
       </c>
       <c r="D959" s="4" t="s">
@@ -42945,7 +43364,7 @@
     </row>
     <row r="960" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A960" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1238</v>
       </c>
       <c r="D960" s="4" t="s">
@@ -42973,7 +43392,7 @@
     </row>
     <row r="961" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A961" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1239</v>
       </c>
       <c r="D961" s="4" t="s">
@@ -43001,7 +43420,7 @@
     </row>
     <row r="962" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A962" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1240</v>
       </c>
       <c r="D962" s="4" t="s">
@@ -43029,7 +43448,7 @@
     </row>
     <row r="963" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A963" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1241</v>
       </c>
       <c r="D963" s="4" t="s">
@@ -43057,7 +43476,7 @@
     </row>
     <row r="964" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A964" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1242</v>
       </c>
       <c r="D964" s="4" t="s">
@@ -43085,7 +43504,7 @@
     </row>
     <row r="965" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A965" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1243</v>
       </c>
       <c r="D965" s="4" t="s">
@@ -43113,7 +43532,7 @@
     </row>
     <row r="966" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A966" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1244</v>
       </c>
       <c r="D966" s="4" t="s">
@@ -43141,7 +43560,7 @@
     </row>
     <row r="967" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A967" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1245</v>
       </c>
       <c r="D967" s="4" t="s">
@@ -43169,7 +43588,7 @@
     </row>
     <row r="968" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A968" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1246</v>
       </c>
       <c r="D968" s="4" t="s">
@@ -43197,7 +43616,7 @@
     </row>
     <row r="969" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A969" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1247</v>
       </c>
       <c r="D969" s="4" t="s">
@@ -43225,7 +43644,7 @@
     </row>
     <row r="970" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A970" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1248</v>
       </c>
       <c r="D970" s="4" t="s">
@@ -43253,7 +43672,7 @@
     </row>
     <row r="971" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A971" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1249</v>
       </c>
       <c r="D971" s="4" t="s">
@@ -43281,7 +43700,7 @@
     </row>
     <row r="972" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A972" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1250</v>
       </c>
       <c r="D972" s="4" t="s">
@@ -43309,7 +43728,7 @@
     </row>
     <row r="973" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A973" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1251</v>
       </c>
       <c r="D973" s="4" t="s">
@@ -43337,7 +43756,7 @@
     </row>
     <row r="974" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A974" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1252</v>
       </c>
       <c r="D974" s="4" t="s">
@@ -43365,7 +43784,7 @@
     </row>
     <row r="975" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A975" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1253</v>
       </c>
       <c r="D975" s="4" t="s">
@@ -43393,7 +43812,7 @@
     </row>
     <row r="976" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A976" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1254</v>
       </c>
       <c r="B976" s="1" t="s">
@@ -43427,7 +43846,7 @@
     </row>
     <row r="977" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A977" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1255</v>
       </c>
       <c r="D977" s="4" t="s">
@@ -43455,7 +43874,7 @@
     </row>
     <row r="978" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A978" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1256</v>
       </c>
       <c r="D978" s="4" t="s">
@@ -43483,7 +43902,7 @@
     </row>
     <row r="979" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A979" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1257</v>
       </c>
       <c r="D979" s="4" t="s">
@@ -43732,7 +44151,7 @@
     </row>
     <row r="988" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A988" s="1">
-        <f t="shared" ref="A988:A993" si="48">+A987+1</f>
+        <f t="shared" ref="A988:A993" si="47">+A987+1</f>
         <v>1269</v>
       </c>
       <c r="D988" s="4" t="s">
@@ -43760,7 +44179,7 @@
     </row>
     <row r="989" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A989" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1270</v>
       </c>
       <c r="D989" s="4" t="s">
@@ -43788,7 +44207,7 @@
     </row>
     <row r="990" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A990" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1271</v>
       </c>
       <c r="B990" s="1" t="s">
@@ -43822,7 +44241,7 @@
     </row>
     <row r="991" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A991" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1272</v>
       </c>
       <c r="D991" s="4" t="s">
@@ -43850,7 +44269,7 @@
     </row>
     <row r="992" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A992" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1273</v>
       </c>
       <c r="D992" s="4" t="s">
@@ -43878,7 +44297,7 @@
     </row>
     <row r="993" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A993" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1274</v>
       </c>
       <c r="B993" s="1" t="s">
@@ -43940,7 +44359,7 @@
     </row>
     <row r="995" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A995" s="1">
-        <f t="shared" ref="A995:A1002" si="49">+A994+1</f>
+        <f t="shared" ref="A995:A1002" si="48">+A994+1</f>
         <v>1277</v>
       </c>
       <c r="D995" s="4" t="s">
@@ -43968,7 +44387,7 @@
     </row>
     <row r="996" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A996" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1278</v>
       </c>
       <c r="B996" s="1" t="s">
@@ -44002,7 +44421,7 @@
     </row>
     <row r="997" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A997" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1279</v>
       </c>
       <c r="D997" s="4" t="s">
@@ -44030,7 +44449,7 @@
     </row>
     <row r="998" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A998" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1280</v>
       </c>
       <c r="D998" s="4" t="s">
@@ -44058,7 +44477,7 @@
     </row>
     <row r="999" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A999" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1281</v>
       </c>
       <c r="D999" s="4" t="s">
@@ -44086,7 +44505,7 @@
     </row>
     <row r="1000" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1000" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1282</v>
       </c>
       <c r="D1000" s="4" t="s">
@@ -44114,7 +44533,7 @@
     </row>
     <row r="1001" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1001" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1283</v>
       </c>
       <c r="B1001" s="1" t="s">
@@ -44145,7 +44564,7 @@
     </row>
     <row r="1002" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1002" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1284</v>
       </c>
       <c r="D1002" s="4" t="s">
@@ -44201,7 +44620,7 @@
     </row>
     <row r="1004" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1004" s="1">
-        <f t="shared" ref="A1004:A1010" si="50">+A1003+1</f>
+        <f t="shared" ref="A1004:A1010" si="49">+A1003+1</f>
         <v>1288</v>
       </c>
       <c r="D1004" s="4" t="s">
@@ -44229,7 +44648,7 @@
     </row>
     <row r="1005" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1005" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1289</v>
       </c>
       <c r="D1005" s="4" t="s">
@@ -44257,7 +44676,7 @@
     </row>
     <row r="1006" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1006" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1290</v>
       </c>
       <c r="D1006" s="4" t="s">
@@ -44282,7 +44701,7 @@
     </row>
     <row r="1007" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1007" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1291</v>
       </c>
       <c r="D1007" s="4" t="s">
@@ -44310,7 +44729,7 @@
     </row>
     <row r="1008" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1008" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1292</v>
       </c>
       <c r="D1008" s="4" t="s">
@@ -44338,7 +44757,7 @@
     </row>
     <row r="1009" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1009" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1293</v>
       </c>
       <c r="D1009" s="4" t="s">
@@ -44366,7 +44785,7 @@
     </row>
     <row r="1010" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1010" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1294</v>
       </c>
       <c r="D1010" s="4" t="s">
@@ -44422,7 +44841,7 @@
     </row>
     <row r="1012" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1012" s="1">
-        <f t="shared" ref="A1012:A1032" si="51">+A1011+1</f>
+        <f t="shared" ref="A1012:A1032" si="50">+A1011+1</f>
         <v>1297</v>
       </c>
       <c r="D1012" s="4" t="s">
@@ -44450,7 +44869,7 @@
     </row>
     <row r="1013" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1013" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1298</v>
       </c>
       <c r="D1013" s="4" t="s">
@@ -44478,7 +44897,7 @@
     </row>
     <row r="1014" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1014" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1299</v>
       </c>
       <c r="D1014" s="4" t="s">
@@ -44506,7 +44925,7 @@
     </row>
     <row r="1015" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1015" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1300</v>
       </c>
       <c r="D1015" s="4" t="s">
@@ -44534,7 +44953,7 @@
     </row>
     <row r="1016" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1016" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1301</v>
       </c>
       <c r="D1016" s="4" t="s">
@@ -44562,7 +44981,7 @@
     </row>
     <row r="1017" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1017" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1302</v>
       </c>
       <c r="D1017" s="4" t="s">
@@ -44590,7 +45009,7 @@
     </row>
     <row r="1018" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1018" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1303</v>
       </c>
       <c r="D1018" s="4" t="s">
@@ -44618,7 +45037,7 @@
     </row>
     <row r="1019" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1019" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1304</v>
       </c>
       <c r="D1019" s="4" t="s">
@@ -44646,7 +45065,7 @@
     </row>
     <row r="1020" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1020" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1305</v>
       </c>
       <c r="D1020" s="4" t="s">
@@ -44674,7 +45093,7 @@
     </row>
     <row r="1021" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1021" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1306</v>
       </c>
       <c r="D1021" s="11" t="s">
@@ -44702,7 +45121,7 @@
     </row>
     <row r="1022" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1022" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1307</v>
       </c>
       <c r="D1022" s="4" t="s">
@@ -44730,7 +45149,7 @@
     </row>
     <row r="1023" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1023" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1308</v>
       </c>
       <c r="D1023" s="4" t="s">
@@ -44758,7 +45177,7 @@
     </row>
     <row r="1024" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1024" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1309</v>
       </c>
       <c r="D1024" s="4" t="s">
@@ -44786,7 +45205,7 @@
     </row>
     <row r="1025" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1025" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1310</v>
       </c>
       <c r="D1025" s="4" t="s">
@@ -44814,7 +45233,7 @@
     </row>
     <row r="1026" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1026" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1311</v>
       </c>
       <c r="D1026" s="4" t="s">
@@ -44842,7 +45261,7 @@
     </row>
     <row r="1027" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1027" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1312</v>
       </c>
       <c r="D1027" s="4" t="s">
@@ -44870,7 +45289,7 @@
     </row>
     <row r="1028" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1028" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1313</v>
       </c>
       <c r="D1028" s="4" t="s">
@@ -44898,7 +45317,7 @@
     </row>
     <row r="1029" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1029" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1314</v>
       </c>
       <c r="D1029" s="4" t="s">
@@ -44926,7 +45345,7 @@
     </row>
     <row r="1030" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1030" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1315</v>
       </c>
       <c r="D1030" s="4" t="s">
@@ -44951,7 +45370,7 @@
     </row>
     <row r="1031" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1031" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1316</v>
       </c>
       <c r="D1031" s="4" t="s">
@@ -44979,7 +45398,7 @@
     </row>
     <row r="1032" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1032" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1317</v>
       </c>
       <c r="D1032" s="4" t="s">
@@ -45287,7 +45706,7 @@
     </row>
     <row r="1043" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1043" s="1">
-        <f t="shared" ref="A1043:A1065" si="52">+A1042+1</f>
+        <f t="shared" ref="A1043:A1065" si="51">+A1042+1</f>
         <v>1335</v>
       </c>
       <c r="D1043" s="4" t="s">
@@ -45312,7 +45731,7 @@
     </row>
     <row r="1044" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1044" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1336</v>
       </c>
       <c r="D1044" s="4" t="s">
@@ -45340,7 +45759,7 @@
     </row>
     <row r="1045" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1045" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1337</v>
       </c>
       <c r="D1045" s="4" t="s">
@@ -45368,7 +45787,7 @@
     </row>
     <row r="1046" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1046" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1338</v>
       </c>
       <c r="D1046" s="4" t="s">
@@ -45396,7 +45815,7 @@
     </row>
     <row r="1047" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1047" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1339</v>
       </c>
       <c r="D1047" s="4" t="s">
@@ -45424,7 +45843,7 @@
     </row>
     <row r="1048" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1048" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1340</v>
       </c>
       <c r="D1048" s="4" t="s">
@@ -45452,7 +45871,7 @@
     </row>
     <row r="1049" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1049" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1341</v>
       </c>
       <c r="D1049" s="4" t="s">
@@ -45480,7 +45899,7 @@
     </row>
     <row r="1050" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1050" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1342</v>
       </c>
       <c r="D1050" s="4" t="s">
@@ -45508,7 +45927,7 @@
     </row>
     <row r="1051" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1051" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1343</v>
       </c>
       <c r="D1051" s="4" t="s">
@@ -45536,7 +45955,7 @@
     </row>
     <row r="1052" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1052" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1344</v>
       </c>
       <c r="D1052" s="4" t="s">
@@ -45564,7 +45983,7 @@
     </row>
     <row r="1053" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1053" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1345</v>
       </c>
       <c r="D1053" s="4" t="s">
@@ -45592,7 +46011,7 @@
     </row>
     <row r="1054" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1054" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1346</v>
       </c>
       <c r="D1054" s="4" t="s">
@@ -45620,7 +46039,7 @@
     </row>
     <row r="1055" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1055" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1347</v>
       </c>
       <c r="D1055" s="4" t="s">
@@ -45648,7 +46067,7 @@
     </row>
     <row r="1056" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1056" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1348</v>
       </c>
       <c r="D1056" s="4" t="s">
@@ -45676,7 +46095,7 @@
     </row>
     <row r="1057" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1057" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1349</v>
       </c>
       <c r="D1057" s="4" t="s">
@@ -45704,7 +46123,7 @@
     </row>
     <row r="1058" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1058" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1350</v>
       </c>
       <c r="D1058" s="4" t="s">
@@ -45732,7 +46151,7 @@
     </row>
     <row r="1059" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1059" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1351</v>
       </c>
       <c r="D1059" s="4" t="s">
@@ -45760,7 +46179,7 @@
     </row>
     <row r="1060" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1060" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1352</v>
       </c>
       <c r="D1060" s="4" t="s">
@@ -45788,7 +46207,7 @@
     </row>
     <row r="1061" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1061" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1353</v>
       </c>
       <c r="D1061" s="4" t="s">
@@ -45816,7 +46235,7 @@
     </row>
     <row r="1062" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1062" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1354</v>
       </c>
       <c r="D1062" s="4" t="s">
@@ -45841,7 +46260,7 @@
     </row>
     <row r="1063" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1063" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1355</v>
       </c>
       <c r="D1063" s="4" t="s">
@@ -45869,7 +46288,7 @@
     </row>
     <row r="1064" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1064" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1356</v>
       </c>
       <c r="D1064" s="4" t="s">
@@ -45897,7 +46316,7 @@
     </row>
     <row r="1065" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1065" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1357</v>
       </c>
       <c r="D1065" s="4" t="s">
@@ -45950,7 +46369,7 @@
     </row>
     <row r="1067" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1067" s="1">
-        <f t="shared" ref="A1067:A1096" si="53">+A1066+1</f>
+        <f t="shared" ref="A1067:A1096" si="52">+A1066+1</f>
         <v>1361</v>
       </c>
       <c r="D1067" s="4" t="s">
@@ -45978,7 +46397,7 @@
     </row>
     <row r="1068" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1068" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1362</v>
       </c>
       <c r="D1068" s="4" t="s">
@@ -46006,7 +46425,7 @@
     </row>
     <row r="1069" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1069" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1363</v>
       </c>
       <c r="D1069" s="4" t="s">
@@ -46034,7 +46453,7 @@
     </row>
     <row r="1070" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1070" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1364</v>
       </c>
       <c r="D1070" s="4" t="s">
@@ -46062,7 +46481,7 @@
     </row>
     <row r="1071" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1071" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1365</v>
       </c>
       <c r="B1071" s="1" t="s">
@@ -46096,7 +46515,7 @@
     </row>
     <row r="1072" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1072" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1366</v>
       </c>
       <c r="D1072" s="4" t="s">
@@ -46124,7 +46543,7 @@
     </row>
     <row r="1073" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1073" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1367</v>
       </c>
       <c r="D1073" s="4" t="s">
@@ -46152,7 +46571,7 @@
     </row>
     <row r="1074" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1074" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1368</v>
       </c>
       <c r="D1074" s="4" t="s">
@@ -46180,7 +46599,7 @@
     </row>
     <row r="1075" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1075" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1369</v>
       </c>
       <c r="D1075" s="4" t="s">
@@ -46208,7 +46627,7 @@
     </row>
     <row r="1076" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1076" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1370</v>
       </c>
       <c r="D1076" s="4" t="s">
@@ -46236,7 +46655,7 @@
     </row>
     <row r="1077" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1077" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1371</v>
       </c>
       <c r="D1077" s="4" t="s">
@@ -46264,7 +46683,7 @@
     </row>
     <row r="1078" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1078" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1372</v>
       </c>
       <c r="D1078" s="4" t="s">
@@ -46292,7 +46711,7 @@
     </row>
     <row r="1079" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1079" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1373</v>
       </c>
       <c r="D1079" s="11" t="s">
@@ -46317,7 +46736,7 @@
     </row>
     <row r="1080" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1080" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1374</v>
       </c>
       <c r="D1080" s="4" t="s">
@@ -46345,7 +46764,7 @@
     </row>
     <row r="1081" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1081" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1375</v>
       </c>
       <c r="D1081" s="4" t="s">
@@ -46373,7 +46792,7 @@
     </row>
     <row r="1082" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1082" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1376</v>
       </c>
       <c r="D1082" s="4" t="s">
@@ -46398,7 +46817,7 @@
     </row>
     <row r="1083" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1083" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1377</v>
       </c>
       <c r="D1083" s="4" t="s">
@@ -46426,7 +46845,7 @@
     </row>
     <row r="1084" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1084" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1378</v>
       </c>
       <c r="D1084" s="4" t="s">
@@ -46454,7 +46873,7 @@
     </row>
     <row r="1085" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1085" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1379</v>
       </c>
       <c r="D1085" s="4" t="s">
@@ -46482,7 +46901,7 @@
     </row>
     <row r="1086" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1086" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1380</v>
       </c>
       <c r="D1086" s="4" t="s">
@@ -46510,7 +46929,7 @@
     </row>
     <row r="1087" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1087" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1381</v>
       </c>
       <c r="D1087" s="4" t="s">
@@ -46538,7 +46957,7 @@
     </row>
     <row r="1088" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1088" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1382</v>
       </c>
       <c r="B1088" s="1" t="s">
@@ -46569,7 +46988,7 @@
     </row>
     <row r="1089" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1089" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1383</v>
       </c>
       <c r="D1089" s="4" t="s">
@@ -46597,7 +47016,7 @@
     </row>
     <row r="1090" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1090" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1384</v>
       </c>
       <c r="D1090" s="4" t="s">
@@ -46625,7 +47044,7 @@
     </row>
     <row r="1091" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1091" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1385</v>
       </c>
       <c r="D1091" s="4" t="s">
@@ -46653,7 +47072,7 @@
     </row>
     <row r="1092" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1092" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1386</v>
       </c>
       <c r="D1092" s="4" t="s">
@@ -46681,7 +47100,7 @@
     </row>
     <row r="1093" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1093" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1387</v>
       </c>
       <c r="D1093" s="4" t="s">
@@ -46703,7 +47122,7 @@
     </row>
     <row r="1094" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1094" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1388</v>
       </c>
       <c r="D1094" s="4" t="s">
@@ -46731,7 +47150,7 @@
     </row>
     <row r="1095" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1095" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1389</v>
       </c>
       <c r="D1095" s="4" t="s">
@@ -46759,7 +47178,7 @@
     </row>
     <row r="1096" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1096" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1390</v>
       </c>
       <c r="D1096" s="4" t="s">
@@ -46812,7 +47231,7 @@
     </row>
     <row r="1098" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1098" s="1">
-        <f t="shared" ref="A1098:A1104" si="54">+A1097+1</f>
+        <f t="shared" ref="A1098:A1104" si="53">+A1097+1</f>
         <v>1395</v>
       </c>
       <c r="D1098" s="4" t="s">
@@ -46840,7 +47259,7 @@
     </row>
     <row r="1099" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1099" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1396</v>
       </c>
       <c r="D1099" s="4" t="s">
@@ -46862,7 +47281,7 @@
     </row>
     <row r="1100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1100" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1397</v>
       </c>
       <c r="D1100" s="4" t="s">
@@ -46890,7 +47309,7 @@
     </row>
     <row r="1101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1101" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1398</v>
       </c>
       <c r="D1101" s="4" t="s">
@@ -46918,7 +47337,7 @@
     </row>
     <row r="1102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1102" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1399</v>
       </c>
       <c r="D1102" s="4" t="s">
@@ -46946,7 +47365,7 @@
     </row>
     <row r="1103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1103" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1400</v>
       </c>
       <c r="D1103" s="11" t="s">
@@ -46974,7 +47393,7 @@
     </row>
     <row r="1104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1104" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1401</v>
       </c>
       <c r="D1104" s="4" t="s">
@@ -47189,7 +47608,7 @@
     </row>
     <row r="1112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1112" s="1">
-        <f t="shared" ref="A1112:A1121" si="55">+A1111+1</f>
+        <f t="shared" ref="A1112:A1121" si="54">+A1111+1</f>
         <v>1411</v>
       </c>
       <c r="D1112" s="4" t="s">
@@ -47217,7 +47636,7 @@
     </row>
     <row r="1113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1113" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1412</v>
       </c>
       <c r="D1113" s="4" t="s">
@@ -47245,7 +47664,7 @@
     </row>
     <row r="1114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1114" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1413</v>
       </c>
       <c r="D1114" s="4" t="s">
@@ -47273,7 +47692,7 @@
     </row>
     <row r="1115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1115" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1414</v>
       </c>
       <c r="D1115" s="4" t="s">
@@ -47298,7 +47717,7 @@
     </row>
     <row r="1116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1116" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1415</v>
       </c>
       <c r="D1116" s="4" t="s">
@@ -47326,7 +47745,7 @@
     </row>
     <row r="1117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1117" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1416</v>
       </c>
       <c r="D1117" s="4" t="s">
@@ -47354,7 +47773,7 @@
     </row>
     <row r="1118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1118" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1417</v>
       </c>
       <c r="D1118" s="4" t="s">
@@ -47382,7 +47801,7 @@
     </row>
     <row r="1119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1119" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1418</v>
       </c>
       <c r="D1119" s="4" t="s">
@@ -47410,7 +47829,7 @@
     </row>
     <row r="1120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1120" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1419</v>
       </c>
       <c r="D1120" s="4" t="s">
@@ -47438,7 +47857,7 @@
     </row>
     <row r="1121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1121" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1420</v>
       </c>
       <c r="D1121" s="4" t="s">
@@ -47581,7 +48000,7 @@
     </row>
     <row r="1126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1126" s="1">
-        <f t="shared" ref="A1126:A1157" si="56">+A1125+1</f>
+        <f t="shared" ref="A1126:A1157" si="55">+A1125+1</f>
         <v>1427</v>
       </c>
       <c r="D1126" s="4" t="s">
@@ -47609,7 +48028,7 @@
     </row>
     <row r="1127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1127" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1428</v>
       </c>
       <c r="D1127" s="4" t="s">
@@ -47637,7 +48056,7 @@
     </row>
     <row r="1128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1128" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1429</v>
       </c>
       <c r="D1128" s="4" t="s">
@@ -47665,7 +48084,7 @@
     </row>
     <row r="1129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1129" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1430</v>
       </c>
       <c r="D1129" s="4" t="s">
@@ -47693,7 +48112,7 @@
     </row>
     <row r="1130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1130" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1431</v>
       </c>
       <c r="D1130" s="4" t="s">
@@ -47721,7 +48140,7 @@
     </row>
     <row r="1131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1131" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1432</v>
       </c>
       <c r="D1131" s="4" t="s">
@@ -47749,7 +48168,7 @@
     </row>
     <row r="1132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1132" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1433</v>
       </c>
       <c r="D1132" s="4" t="s">
@@ -47777,7 +48196,7 @@
     </row>
     <row r="1133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1133" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1434</v>
       </c>
       <c r="D1133" s="4" t="s">
@@ -47805,7 +48224,7 @@
     </row>
     <row r="1134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1134" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1435</v>
       </c>
       <c r="D1134" s="4" t="s">
@@ -47833,7 +48252,7 @@
     </row>
     <row r="1135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1135" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1436</v>
       </c>
       <c r="D1135" s="4" t="s">
@@ -47861,7 +48280,7 @@
     </row>
     <row r="1136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1136" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1437</v>
       </c>
       <c r="D1136" s="4" t="s">
@@ -47889,7 +48308,7 @@
     </row>
     <row r="1137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1137" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1438</v>
       </c>
       <c r="D1137" s="4" t="s">
@@ -47917,7 +48336,7 @@
     </row>
     <row r="1138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1138" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1439</v>
       </c>
       <c r="D1138" s="4" t="s">
@@ -47945,7 +48364,7 @@
     </row>
     <row r="1139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1139" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1440</v>
       </c>
       <c r="D1139" s="4" t="s">
@@ -47973,7 +48392,7 @@
     </row>
     <row r="1140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1140" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1441</v>
       </c>
       <c r="D1140" s="4" t="s">
@@ -48001,7 +48420,7 @@
     </row>
     <row r="1141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1141" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1442</v>
       </c>
       <c r="D1141" s="4" t="s">
@@ -48029,7 +48448,7 @@
     </row>
     <row r="1142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1142" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1443</v>
       </c>
       <c r="D1142" s="4" t="s">
@@ -48057,7 +48476,7 @@
     </row>
     <row r="1143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1143" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1444</v>
       </c>
       <c r="D1143" s="4" t="s">
@@ -48085,7 +48504,7 @@
     </row>
     <row r="1144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1144" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1445</v>
       </c>
       <c r="D1144" s="4" t="s">
@@ -48113,7 +48532,7 @@
     </row>
     <row r="1145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1145" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1446</v>
       </c>
       <c r="D1145" s="11" t="s">
@@ -48135,7 +48554,7 @@
     </row>
     <row r="1146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1146" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1447</v>
       </c>
       <c r="D1146" s="4" t="s">
@@ -48163,7 +48582,7 @@
     </row>
     <row r="1147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1147" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1448</v>
       </c>
       <c r="D1147" s="4" t="s">
@@ -48191,7 +48610,7 @@
     </row>
     <row r="1148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1148" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1449</v>
       </c>
       <c r="D1148" s="4" t="s">
@@ -48216,7 +48635,7 @@
     </row>
     <row r="1149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1149" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1450</v>
       </c>
       <c r="D1149" s="4" t="s">
@@ -48244,7 +48663,7 @@
     </row>
     <row r="1150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1150" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1451</v>
       </c>
       <c r="D1150" s="4" t="s">
@@ -48272,7 +48691,7 @@
     </row>
     <row r="1151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1151" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1452</v>
       </c>
       <c r="D1151" s="4" t="s">
@@ -48300,7 +48719,7 @@
     </row>
     <row r="1152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1152" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1453</v>
       </c>
       <c r="D1152" s="4" t="s">
@@ -48328,7 +48747,7 @@
     </row>
     <row r="1153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1153" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1454</v>
       </c>
       <c r="D1153" s="4" t="s">
@@ -48356,7 +48775,7 @@
     </row>
     <row r="1154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1154" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1455</v>
       </c>
       <c r="D1154" s="4" t="s">
@@ -48384,7 +48803,7 @@
     </row>
     <row r="1155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1155" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1456</v>
       </c>
       <c r="D1155" s="4" t="s">
@@ -48412,7 +48831,7 @@
     </row>
     <row r="1156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1156" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1457</v>
       </c>
       <c r="D1156" s="4" t="s">
@@ -48440,7 +48859,7 @@
     </row>
     <row r="1157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1157" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1458</v>
       </c>
       <c r="D1157" s="4" t="s">
@@ -48468,7 +48887,7 @@
     </row>
     <row r="1158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1158" s="1">
-        <f t="shared" ref="A1158:A1188" si="57">+A1157+1</f>
+        <f t="shared" ref="A1158:A1188" si="56">+A1157+1</f>
         <v>1459</v>
       </c>
       <c r="D1158" s="4" t="s">
@@ -48496,7 +48915,7 @@
     </row>
     <row r="1159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1159" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1460</v>
       </c>
       <c r="D1159" s="4" t="s">
@@ -48521,7 +48940,7 @@
     </row>
     <row r="1160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1160" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1461</v>
       </c>
       <c r="D1160" s="4" t="s">
@@ -48546,7 +48965,7 @@
     </row>
     <row r="1161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1161" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1462</v>
       </c>
       <c r="D1161" s="4" t="s">
@@ -48574,7 +48993,7 @@
     </row>
     <row r="1162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1162" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1463</v>
       </c>
       <c r="D1162" s="4" t="s">
@@ -48602,7 +49021,7 @@
     </row>
     <row r="1163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1163" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1464</v>
       </c>
       <c r="D1163" s="4" t="s">
@@ -48630,7 +49049,7 @@
     </row>
     <row r="1164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1164" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1465</v>
       </c>
       <c r="D1164" s="4" t="s">
@@ -48655,7 +49074,7 @@
     </row>
     <row r="1165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1165" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1466</v>
       </c>
       <c r="D1165" s="4" t="s">
@@ -48683,7 +49102,7 @@
     </row>
     <row r="1166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1166" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1467</v>
       </c>
       <c r="D1166" s="4" t="s">
@@ -48711,7 +49130,7 @@
     </row>
     <row r="1167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1167" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1468</v>
       </c>
       <c r="D1167" s="4" t="s">
@@ -48739,7 +49158,7 @@
     </row>
     <row r="1168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1168" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1469</v>
       </c>
       <c r="D1168" s="4" t="s">
@@ -48764,7 +49183,7 @@
     </row>
     <row r="1169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1169" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1470</v>
       </c>
       <c r="D1169" s="4" t="s">
@@ -48789,7 +49208,7 @@
     </row>
     <row r="1170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1170" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1471</v>
       </c>
       <c r="D1170" s="4" t="s">
@@ -48817,7 +49236,7 @@
     </row>
     <row r="1171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1171" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1472</v>
       </c>
       <c r="D1171" s="4" t="s">
@@ -48845,7 +49264,7 @@
     </row>
     <row r="1172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1172" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1473</v>
       </c>
       <c r="D1172" s="4" t="s">
@@ -48873,7 +49292,7 @@
     </row>
     <row r="1173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1173" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1474</v>
       </c>
       <c r="D1173" s="4" t="s">
@@ -48898,7 +49317,7 @@
     </row>
     <row r="1174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1174" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1475</v>
       </c>
       <c r="D1174" s="4" t="s">
@@ -48926,7 +49345,7 @@
     </row>
     <row r="1175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1175" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1476</v>
       </c>
       <c r="D1175" s="4" t="s">
@@ -48954,7 +49373,7 @@
     </row>
     <row r="1176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1176" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1477</v>
       </c>
       <c r="D1176" s="4" t="s">
@@ -48982,7 +49401,7 @@
     </row>
     <row r="1177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1177" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1478</v>
       </c>
       <c r="D1177" s="4" t="s">
@@ -49004,7 +49423,7 @@
     </row>
     <row r="1178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1178" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1479</v>
       </c>
       <c r="D1178" s="4" t="s">
@@ -49032,7 +49451,7 @@
     </row>
     <row r="1179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1179" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1480</v>
       </c>
       <c r="D1179" s="4" t="s">
@@ -49060,7 +49479,7 @@
     </row>
     <row r="1180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1180" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1481</v>
       </c>
       <c r="D1180" s="4" t="s">
@@ -49088,7 +49507,7 @@
     </row>
     <row r="1181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1181" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1482</v>
       </c>
       <c r="D1181" s="4" t="s">
@@ -49104,7 +49523,7 @@
     </row>
     <row r="1182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1182" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1483</v>
       </c>
       <c r="D1182" s="4" t="s">
@@ -49132,7 +49551,7 @@
     </row>
     <row r="1183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1183" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1484</v>
       </c>
       <c r="D1183" s="4" t="s">
@@ -49160,7 +49579,7 @@
     </row>
     <row r="1184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1184" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1485</v>
       </c>
       <c r="D1184" s="4" t="s">
@@ -49188,7 +49607,7 @@
     </row>
     <row r="1185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1185" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1486</v>
       </c>
       <c r="D1185" s="4" t="s">
@@ -49216,7 +49635,7 @@
     </row>
     <row r="1186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1186" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1487</v>
       </c>
       <c r="D1186" s="4" t="s">
@@ -49244,7 +49663,7 @@
     </row>
     <row r="1187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1187" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1488</v>
       </c>
       <c r="D1187" s="4" t="s">
@@ -49272,7 +49691,7 @@
     </row>
     <row r="1188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1188" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1489</v>
       </c>
       <c r="D1188" s="4" t="s">
@@ -49297,7 +49716,7 @@
     </row>
     <row r="1189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1189" s="1">
-        <f t="shared" ref="A1189:A1220" si="58">+A1188+1</f>
+        <f t="shared" ref="A1189:A1220" si="57">+A1188+1</f>
         <v>1490</v>
       </c>
       <c r="D1189" s="4" t="s">
@@ -49325,7 +49744,7 @@
     </row>
     <row r="1190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1190" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1491</v>
       </c>
       <c r="D1190" s="4" t="s">
@@ -49353,7 +49772,7 @@
     </row>
     <row r="1191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1191" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1492</v>
       </c>
       <c r="D1191" s="4" t="s">
@@ -49381,7 +49800,7 @@
     </row>
     <row r="1192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1192" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1493</v>
       </c>
       <c r="D1192" s="4" t="s">
@@ -49409,7 +49828,7 @@
     </row>
     <row r="1193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1193" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1494</v>
       </c>
       <c r="D1193" s="4" t="s">
@@ -49437,7 +49856,7 @@
     </row>
     <row r="1194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1194" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1495</v>
       </c>
       <c r="D1194" s="4" t="s">
@@ -49465,7 +49884,7 @@
     </row>
     <row r="1195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1195" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1496</v>
       </c>
       <c r="D1195" s="4" t="s">
@@ -49493,7 +49912,7 @@
     </row>
     <row r="1196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1196" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1497</v>
       </c>
       <c r="D1196" s="4" t="s">
@@ -49521,7 +49940,7 @@
     </row>
     <row r="1197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1197" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1498</v>
       </c>
       <c r="D1197" s="4" t="s">
@@ -49549,7 +49968,7 @@
     </row>
     <row r="1198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1198" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1499</v>
       </c>
       <c r="D1198" s="4" t="s">
@@ -49577,7 +49996,7 @@
     </row>
     <row r="1199" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1199" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1500</v>
       </c>
       <c r="D1199" s="8" t="s">
@@ -49609,7 +50028,7 @@
     </row>
     <row r="1200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1200" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1501</v>
       </c>
       <c r="D1200" s="4" t="s">
@@ -49637,7 +50056,7 @@
     </row>
     <row r="1201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1201" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1502</v>
       </c>
       <c r="D1201" s="4" t="s">
@@ -49665,7 +50084,7 @@
     </row>
     <row r="1202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1202" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1503</v>
       </c>
       <c r="D1202" s="4" t="s">
@@ -49693,7 +50112,7 @@
     </row>
     <row r="1203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1203" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1504</v>
       </c>
       <c r="D1203" s="4" t="s">
@@ -49721,7 +50140,7 @@
     </row>
     <row r="1204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1204" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1505</v>
       </c>
       <c r="D1204" s="4" t="s">
@@ -49749,7 +50168,7 @@
     </row>
     <row r="1205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1205" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1506</v>
       </c>
       <c r="D1205" s="4" t="s">
@@ -49777,7 +50196,7 @@
     </row>
     <row r="1206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1206" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1507</v>
       </c>
       <c r="D1206" s="4" t="s">
@@ -49805,7 +50224,7 @@
     </row>
     <row r="1207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1207" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1508</v>
       </c>
       <c r="D1207" s="4" t="s">
@@ -49833,7 +50252,7 @@
     </row>
     <row r="1208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1208" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1509</v>
       </c>
       <c r="D1208" s="4" t="s">
@@ -49861,7 +50280,7 @@
     </row>
     <row r="1209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1209" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1510</v>
       </c>
       <c r="D1209" s="4" t="s">
@@ -49889,7 +50308,7 @@
     </row>
     <row r="1210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1210" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1511</v>
       </c>
       <c r="D1210" s="4" t="s">
@@ -49917,7 +50336,7 @@
     </row>
     <row r="1211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1211" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1512</v>
       </c>
       <c r="D1211" s="4" t="s">
@@ -49945,7 +50364,7 @@
     </row>
     <row r="1212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1212" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1513</v>
       </c>
       <c r="D1212" s="4" t="s">
@@ -49973,7 +50392,7 @@
     </row>
     <row r="1213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1213" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1514</v>
       </c>
       <c r="D1213" s="4" t="s">
@@ -50001,7 +50420,7 @@
     </row>
     <row r="1214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1214" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1515</v>
       </c>
       <c r="D1214" s="4" t="s">
@@ -50029,7 +50448,7 @@
     </row>
     <row r="1215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1215" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1516</v>
       </c>
       <c r="D1215" s="4" t="s">
@@ -50054,7 +50473,7 @@
     </row>
     <row r="1216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1216" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1517</v>
       </c>
       <c r="D1216" s="4" t="s">
@@ -50082,7 +50501,7 @@
     </row>
     <row r="1217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1217" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1518</v>
       </c>
       <c r="D1217" s="4" t="s">
@@ -50107,7 +50526,7 @@
     </row>
     <row r="1218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1218" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1519</v>
       </c>
       <c r="D1218" s="4" t="s">
@@ -50135,7 +50554,7 @@
     </row>
     <row r="1219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1219" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1520</v>
       </c>
       <c r="D1219" s="4" t="s">
@@ -50163,7 +50582,7 @@
     </row>
     <row r="1220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1220" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1521</v>
       </c>
       <c r="B1220" s="1" t="s">

--- a/Screens/Largest Global MC 2-13-25.xlsx
+++ b/Screens/Largest Global MC 2-13-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\Screens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C75FF8-B637-4576-9815-0AAFE8AA6C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77E4FDA-50F7-46A2-8F98-1C4F7405067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1140" windowWidth="21345" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11655" yWindow="1005" windowWidth="26790" windowHeight="16290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7059" uniqueCount="3913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7074" uniqueCount="3915">
   <si>
     <t>Ticker</t>
   </si>
@@ -11773,6 +11773,12 @@
   </si>
   <si>
     <t>AVEU.NS</t>
+  </si>
+  <si>
+    <t>GIB.A-CA</t>
+  </si>
+  <si>
+    <t>GIB-A.TO</t>
   </si>
 </sst>
 </file>
@@ -11860,7 +11866,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11904,6 +11910,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11983,7 +11995,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="28" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
@@ -12085,6 +12097,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="28" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="28" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="9" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="bolddate" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
@@ -12455,11 +12473,11 @@
   </sheetPr>
   <dimension ref="A1:U1536"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="F522" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomRight" activeCell="F543" sqref="F543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12624,7 +12642,7 @@
       <c r="F6" s="6">
         <v>2979753940000</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H6" s="3">
@@ -12683,7 +12701,7 @@
       <c r="F7" s="6">
         <v>2887730310000</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H7" s="3">
@@ -12742,7 +12760,7 @@
       <c r="F8" s="6">
         <v>2706692000000</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H8" s="3">
@@ -12806,7 +12824,7 @@
       <c r="F9" s="6">
         <v>1959202350000</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H9" s="3">
@@ -12865,7 +12883,7 @@
       <c r="F10" s="6">
         <v>1918365120000</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H10" s="3">
@@ -12924,7 +12942,7 @@
       <c r="F11" s="6">
         <v>1377221020000</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H11" s="3">
@@ -13045,7 +13063,7 @@
       <c r="F13" s="6">
         <v>855472600000</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H13" s="3">
@@ -13104,7 +13122,7 @@
       <c r="F14" s="6">
         <v>811559400000</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H14" s="3">
@@ -13168,7 +13186,7 @@
       <c r="F15" s="6">
         <v>743963680000</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H15" s="3">
@@ -13228,7 +13246,7 @@
       <c r="F16" s="6">
         <v>737733446205</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H16" s="3">
@@ -13291,7 +13309,7 @@
       <c r="F17" s="6">
         <v>694316700000</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H17" s="3">
@@ -13351,7 +13369,7 @@
       <c r="F18" s="6">
         <v>657343660000</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H18" s="3">
@@ -13411,7 +13429,7 @@
       <c r="F19" s="6">
         <v>651322570000</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H19" s="3">
@@ -13475,7 +13493,7 @@
       <c r="F20" s="6">
         <v>548342580000</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H20" s="3">
@@ -13593,7 +13611,7 @@
       <c r="F22" s="6">
         <v>464743410000</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H22" s="3">
@@ -13653,7 +13671,7 @@
       <c r="F23" s="6">
         <v>427448930000</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H23" s="3">
@@ -13713,7 +13731,7 @@
       <c r="F24" s="6">
         <v>392805070000</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H24" s="3">
@@ -13773,7 +13791,7 @@
       <c r="F25" s="6">
         <v>391379250000</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H25" s="3">
@@ -13834,7 +13852,7 @@
       <c r="F26" s="6">
         <v>371140370000</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H26" s="3">
@@ -13894,7 +13912,7 @@
       <c r="F27" s="6">
         <v>365646240000</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H27" s="3">
@@ -13951,7 +13969,7 @@
       <c r="F28" s="6">
         <v>351711430000</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H28" s="3">
@@ -14011,7 +14029,7 @@
       <c r="F29" s="6">
         <v>309659600000</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H29" s="3">
@@ -14065,7 +14083,7 @@
       <c r="F30" s="6">
         <v>307403790000</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H30" s="3">
@@ -14123,7 +14141,7 @@
       <c r="F31" s="6">
         <v>295335180000</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H31" s="3">
@@ -14177,7 +14195,7 @@
       <c r="F32" s="6">
         <v>288474374144</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H32" s="3">
@@ -14286,7 +14304,7 @@
       <c r="F34" s="6">
         <v>279859907789</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H34" s="3">
@@ -14480,7 +14498,7 @@
       <c r="F38" s="6">
         <v>257445940000</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H38" s="3">
@@ -14534,7 +14552,9 @@
       <c r="F39" s="6">
         <v>249693791846</v>
       </c>
-      <c r="G39" s="6"/>
+      <c r="G39" s="45" t="s">
+        <v>3720</v>
+      </c>
       <c r="H39" s="3">
         <v>749.00384521484375</v>
       </c>
@@ -14586,7 +14606,7 @@
       <c r="F40" s="6">
         <v>245055000000</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H40" s="3">
@@ -14684,7 +14704,7 @@
       <c r="F42" s="6">
         <v>239527940000</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H42" s="3">
@@ -14774,7 +14794,7 @@
       <c r="F44" s="6">
         <v>228075480000</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H44" s="3">
@@ -14820,7 +14840,9 @@
       <c r="F45" s="6">
         <v>221600840000</v>
       </c>
-      <c r="G45" s="6"/>
+      <c r="G45" s="45" t="s">
+        <v>3720</v>
+      </c>
       <c r="H45" s="3">
         <v>307.60000610351563</v>
       </c>
@@ -14864,7 +14886,7 @@
       <c r="F46" s="6">
         <v>220050900000</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H46" s="3">
@@ -14910,7 +14932,7 @@
       <c r="F47" s="6">
         <v>218352200000</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H47" s="3">
@@ -15339,7 +15361,9 @@
       <c r="F56" s="6">
         <v>193765410000</v>
       </c>
-      <c r="G56" s="6"/>
+      <c r="G56" s="45" t="s">
+        <v>3720</v>
+      </c>
       <c r="H56" s="3">
         <v>209.63999938964844</v>
       </c>
@@ -15383,7 +15407,9 @@
       <c r="F57" s="6">
         <v>192303520000</v>
       </c>
-      <c r="G57" s="6"/>
+      <c r="G57" s="45" t="s">
+        <v>3720</v>
+      </c>
       <c r="H57" s="3">
         <v>25.360000610351563</v>
       </c>
@@ -15427,7 +15453,7 @@
       <c r="F58" s="6">
         <v>187039044403</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H58" s="3">
@@ -15473,7 +15499,9 @@
       <c r="F59" s="6">
         <v>184090360000</v>
       </c>
-      <c r="G59" s="6"/>
+      <c r="G59" s="45" t="s">
+        <v>3720</v>
+      </c>
       <c r="H59" s="3">
         <v>40.529998779296875</v>
       </c>
@@ -15517,7 +15545,7 @@
       <c r="F60" s="6">
         <v>178004180000</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H60" s="3">
@@ -15563,7 +15591,9 @@
       <c r="F61" s="6">
         <v>176844340000</v>
       </c>
-      <c r="G61" s="6"/>
+      <c r="G61" s="45" t="s">
+        <v>3720</v>
+      </c>
       <c r="H61" s="3">
         <v>589.6099853515625</v>
       </c>
@@ -15607,7 +15637,9 @@
       <c r="F62" s="6">
         <v>176069630000</v>
       </c>
-      <c r="G62" s="6"/>
+      <c r="G62" s="45" t="s">
+        <v>3720</v>
+      </c>
       <c r="H62" s="3">
         <v>306.39999389648438</v>
       </c>
@@ -15654,7 +15686,9 @@
       <c r="F63" s="6">
         <v>173911890000</v>
       </c>
-      <c r="G63" s="6"/>
+      <c r="G63" s="45" t="s">
+        <v>3720</v>
+      </c>
       <c r="H63" s="3">
         <v>137.11000061035156</v>
       </c>
@@ -15698,7 +15732,9 @@
       <c r="F64" s="6">
         <v>171238640000</v>
       </c>
-      <c r="G64" s="6"/>
+      <c r="G64" s="45" t="s">
+        <v>3720</v>
+      </c>
       <c r="H64" s="3">
         <v>126.77999877929688</v>
       </c>
@@ -15742,7 +15778,7 @@
       <c r="F65" s="6">
         <v>165398250000</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H65" s="3">
@@ -16052,7 +16088,7 @@
       <c r="F72" s="6">
         <v>155143012352</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="45" t="s">
         <v>3720</v>
       </c>
       <c r="H72" s="3">
@@ -16450,7 +16486,7 @@
       <c r="F81" s="9">
         <v>150222710000</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="46" t="s">
         <v>3720</v>
       </c>
       <c r="H81" s="10">
@@ -17237,7 +17273,7 @@
       <c r="C99" s="1" t="s">
         <v>3687</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="11" t="s">
         <v>217</v>
       </c>
       <c r="E99" s="4" t="s">
@@ -17258,6 +17294,9 @@
       </c>
       <c r="K99" s="6">
         <v>27176000000</v>
+      </c>
+      <c r="L99" s="18">
+        <v>1967</v>
       </c>
       <c r="O99" s="27"/>
       <c r="R99" s="37" t="s">
@@ -17422,7 +17461,9 @@
       <c r="F103" s="6">
         <v>145603103594.04041</v>
       </c>
-      <c r="G103" s="6"/>
+      <c r="G103" s="46" t="s">
+        <v>3720</v>
+      </c>
       <c r="H103" s="3">
         <v>25.469999313354492</v>
       </c>
@@ -17457,7 +17498,7 @@
       <c r="C104" s="1" t="s">
         <v>3697</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="11" t="s">
         <v>231</v>
       </c>
       <c r="E104" s="4" t="s">
@@ -17683,7 +17724,9 @@
       <c r="F109" s="6">
         <v>138751929869.43359</v>
       </c>
-      <c r="G109" s="6"/>
+      <c r="G109" s="46" t="s">
+        <v>3720</v>
+      </c>
       <c r="H109" s="3">
         <v>108.95169830322266</v>
       </c>
@@ -17803,7 +17846,7 @@
       <c r="C112" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="11" t="s">
         <v>255</v>
       </c>
       <c r="E112" s="4" t="s">
@@ -17814,7 +17857,7 @@
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="3">
-        <v>205.00999450683594</v>
+        <v>193</v>
       </c>
       <c r="I112" s="3">
         <v>21.905157089233398</v>
@@ -17846,7 +17889,7 @@
       <c r="C113" s="1" t="s">
         <v>3708</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="11" t="s">
         <v>257</v>
       </c>
       <c r="E113" s="4" t="s">
@@ -36203,6 +36246,12 @@
         <f t="shared" si="11"/>
         <v>540</v>
       </c>
+      <c r="B542" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>3699</v>
+      </c>
       <c r="D542" s="4" t="s">
         <v>1495</v>
       </c>
@@ -36224,6 +36273,12 @@
       </c>
       <c r="K542" s="6">
         <v>10847555424.743868</v>
+      </c>
+      <c r="R542" s="40" t="s">
+        <v>3913</v>
+      </c>
+      <c r="S542" s="40" t="s">
+        <v>3914</v>
       </c>
     </row>
     <row r="543" spans="1:20" x14ac:dyDescent="0.2">
@@ -64419,6 +64474,10 @@
     <hyperlink ref="D35" r:id="rId152" xr:uid="{8F82B827-86A3-4ED1-939C-99C23C8D736B}"/>
     <hyperlink ref="D97" r:id="rId153" xr:uid="{7461EB5D-A29D-4973-BBEA-199DF358C7A3}"/>
     <hyperlink ref="D80" r:id="rId154" xr:uid="{7409F26C-5197-4D8C-AF20-2B71B05EC96D}"/>
+    <hyperlink ref="D99" r:id="rId155" xr:uid="{A2014E9F-6E74-4291-8CF2-CD93B4E6CEA9}"/>
+    <hyperlink ref="D104" r:id="rId156" xr:uid="{31334DD9-009B-4037-B3FB-55DE40B52DBE}"/>
+    <hyperlink ref="D112" r:id="rId157" xr:uid="{6A54DE37-36B8-4681-9BF0-9027D9444C81}"/>
+    <hyperlink ref="D113" r:id="rId158" xr:uid="{63743725-986A-4352-8BD8-9AD339858F49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Screens/Largest Global MC 2-13-25.xlsx
+++ b/Screens/Largest Global MC 2-13-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\Screens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A023C5-CFEE-4696-89AF-40999BEBB6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8B9E8-B7FE-4C22-B03D-70CE81E877E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42150" yWindow="2920" windowWidth="22230" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6996" uniqueCount="3881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6997" uniqueCount="3881">
   <si>
     <t>Ticker</t>
   </si>
@@ -13372,7 +13372,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13401,7 +13401,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">RANDBETWEEN(A7,A1511)</f>
-        <v>1359</v>
+        <v>927</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -13855,8 +13855,11 @@
       <c r="L10" s="18">
         <v>2004</v>
       </c>
+      <c r="M10" s="18" t="s">
+        <v>3880</v>
+      </c>
       <c r="N10" s="39">
-        <v>45782</v>
+        <v>45846</v>
       </c>
       <c r="O10" s="37" t="s">
         <v>3626</v>
